--- a/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/metadata.xlsx
+++ b/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="13_ncr:1_{9BCF226A-57E6-45D4-8879-8386DC7C2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{021F10D8-3E77-4177-9AFE-17211B6A98AB}"/>
+  <xr:revisionPtr revIDLastSave="455" documentId="13_ncr:1_{B1889C02-ECF2-4C3D-B7F8-15C2BDAC12A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{505A0582-C8EA-49F2-AF8E-EF6292764FB1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="227">
   <si>
     <t>Label</t>
   </si>
@@ -598,14 +598,131 @@
     <t>No. of Label 8xx</t>
   </si>
   <si>
-    <t>=IF(R210="[True, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 812, 105)</t>
+    <t>=IF(R202="[True, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 812, 105)</t>
+  </si>
+  <si>
+    <t>=IF(R202="[False, 0, True, 0, True, 0, False, 0, False, 0, False, 0, False, 0]", 812, 106)</t>
+  </si>
+  <si>
+    <t>=IF(R202="[False, 0, True, 0, False, 0, True, 0, False, 0, False, 0, False, 0]", 813, 107)</t>
+  </si>
+  <si>
+    <t>=IF(R202="[False, 0, True, 0, False, 0, False, 0, True, 0, False, 0, False, 0]", 813, 108)</t>
+  </si>
+  <si>
+    <t>=IF(R202="[False, 0, True, 0, False, 0, False, 0, False, 0, True, 0, False, 0]", 813, 109)</t>
+  </si>
+  <si>
+    <t>=IF(R202="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, True, 0]", 813, 110)</t>
+  </si>
+  <si>
+    <t>=IF(R202="[True, 0, True, 0, True, 0, False, 0]", 811, 101)</t>
+  </si>
+  <si>
+    <t>=IF(R202="[True, 0, True, 0, True, 0, False, 0]", 811, 102)</t>
+  </si>
+  <si>
+    <t>=IF(R3="[True, 0, True, 0, True, 0, False, 0]", 821, IF(AF3=0,  102, 0))</t>
+  </si>
+  <si>
+    <t>=IF(R3="[True, 0, True, 0, True, 0, False, 0]", 821, IF(Z3=0,  101, 0))</t>
+  </si>
+  <si>
+    <t>=IF(R3="[True, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 822, IF(BR3=0,  105, 0))</t>
+  </si>
+  <si>
+    <t>=IF(R3="[False, 0, True, 0, True, 0, False, 0, False, 0, False, 0, False, 0]", 822, IF(BX3=0,  106, 0))</t>
+  </si>
+  <si>
+    <t>Need to generate and collect again</t>
+  </si>
+  <si>
+    <t>=IF(R3="[False, 0, True, 0, False, 0, True, 0, False, 0, False, 0, False, 0]", 823, IF(CA3=0,  107, 0))</t>
+  </si>
+  <si>
+    <t>=IF(R3="[False, 0, True, 0, False, 0, False, 0, True, 0, False, 0, False, 0]", 823, IF(CD3=0,  108, 0))</t>
+  </si>
+  <si>
+    <t>=IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, True, 0, False, 0]", 823, IF(CG3=0,  109, 0))</t>
+  </si>
+  <si>
+    <t>=IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, True, 0]", 823, IF(CJ3=0,  110, 0))</t>
+  </si>
+  <si>
+    <t>=IF(Z3=17, 0, IF(R3="[False, 0, True, 0, False, 0, True, 0]", 831, 101))</t>
+  </si>
+  <si>
+    <t>No. of Label N/V</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>=IF(AO3=30, 0, IF(R3="[False, 0, True, 0, False, 0, True, 0]", 831, 103))</t>
+  </si>
+  <si>
+    <t>=IF(AF3=17, 0, IF(R3="[True, 0, False, 0, False, 0, True, 0]", 831, 102))</t>
+  </si>
+  <si>
+    <t>=IF(AR3=30, 0, IF(R3="[True, 0, False, 0, False, 0, True, 0]", 831, 104))</t>
+  </si>
+  <si>
+    <t>=IF(BR3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 832, 105))</t>
+  </si>
+  <si>
+    <t>=IF(AND(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", OR(L3=2, L3=4)), 832, 105)</t>
+  </si>
+  <si>
+    <t>=IF(AND(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", OR(L3=2, L3=4)), 832, 106)</t>
+  </si>
+  <si>
+    <t>=IF(BX3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 832, 106))</t>
+  </si>
+  <si>
+    <t>=IF(CA3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 833, 107))</t>
+  </si>
+  <si>
+    <t>=IF(AND(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", OR(L3=2, L3=4)), 833, 107)</t>
+  </si>
+  <si>
+    <t>=IF(AND(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", OR(L3=2, L3=4)), 833, 108)</t>
+  </si>
+  <si>
+    <t>=IF(AND(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", OR(L3=2, L3=4)), 833, 109)</t>
+  </si>
+  <si>
+    <t>=IF(AND(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", OR(L3=2, L3=4)), 833, 110)</t>
+  </si>
+  <si>
+    <t>Formulas for labelling (Some scenarios need minor manual adjustments while others require significant changes)</t>
+  </si>
+  <si>
+    <t>=IF(CD3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 833, 108))</t>
+  </si>
+  <si>
+    <t>=IF(CG3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 833, 109))</t>
+  </si>
+  <si>
+    <t>=IF(CJ3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 833, 110))</t>
+  </si>
+  <si>
+    <t>=IF(Z3&lt;20, 0, IF(R3="[False, 0, True, 0, False, 0, True, 0]", 841, 101))</t>
+  </si>
+  <si>
+    <t>=IF(AO3&lt;35, 0, IF(R3="[False, 0, True, 0, False, 0, True, 0]", 841, 103))</t>
+  </si>
+  <si>
+    <t>=IF(AF3&lt;20, 0, IF(R3="[True, 0, False, 0, False, 0, True, 0]", 841, 102))</t>
+  </si>
+  <si>
+    <t>=IF(AR3&lt;35, 0, IF(R3="[True, 0, False, 0, False, 0, True, 0]", 841, 104))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,16 +737,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -652,11 +788,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -667,10 +816,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -967,7 +1137,8 @@
   <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -980,8 +1151,9 @@
     <col min="6" max="6" width="9.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="81.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="109.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1007,12 +1179,21 @@
       <c r="G1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>186</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="12">
         <v>811</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1033,16 +1214,22 @@
       <c r="G2" s="3">
         <v>193</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <v>120</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <f>IF(SUM(F2:H2)=E2,TRUE,FALSE)</f>
-        <v>1</v>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="str">
+        <f t="shared" ref="J2:J51" si="0">IF(SUM(F2:I2)=E2, "Valid", "Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1061,16 +1248,22 @@
       <c r="G3" s="3">
         <v>193</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>120</v>
       </c>
-      <c r="I3" s="2" t="b">
-        <f t="shared" ref="I3:I66" si="0">IF(SUM(F3:H3)=E3,TRUE,FALSE)</f>
-        <v>1</v>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Valid</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1089,16 +1282,22 @@
       <c r="G4" s="3">
         <v>96</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <v>120</v>
       </c>
-      <c r="I4" s="2" t="b">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>Valid</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1117,16 +1316,22 @@
       <c r="G5" s="3">
         <v>95</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>120</v>
       </c>
-      <c r="I5" s="2" t="b">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>Valid</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1145,16 +1350,22 @@
       <c r="G6" s="3">
         <v>93</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>45</v>
       </c>
-      <c r="I6" s="2" t="b">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>Valid</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1173,19 +1384,22 @@
       <c r="G7" s="3">
         <v>92</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>45</v>
       </c>
-      <c r="I7" s="2" t="b">
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>187</v>
+        <v>Valid</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1204,16 +1418,22 @@
       <c r="G8" s="3">
         <v>43</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
         <v>30</v>
       </c>
-      <c r="I8" s="2" t="b">
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>Valid</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1232,16 +1452,22 @@
       <c r="G9" s="3">
         <v>45</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>30</v>
       </c>
-      <c r="I9" s="2" t="b">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>Valid</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="12">
         <v>812</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1256,1312 +1482,2761 @@
       <c r="E10" s="3">
         <v>933</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2" t="b">
+      <c r="F10" s="3">
+        <v>621</v>
+      </c>
+      <c r="G10" s="3">
+        <v>192</v>
+      </c>
+      <c r="H10" s="6">
+        <v>120</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Valid</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2" t="b">
+      <c r="C11" s="3">
+        <v>938</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9869</v>
+      </c>
+      <c r="E11" s="3">
+        <v>938</v>
+      </c>
+      <c r="F11" s="3">
+        <v>626</v>
+      </c>
+      <c r="G11" s="3">
+        <v>192</v>
+      </c>
+      <c r="H11" s="6">
+        <v>120</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>Valid</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="2" t="b">
+      <c r="C12" s="3">
+        <v>865</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9128</v>
+      </c>
+      <c r="E12" s="3">
+        <v>865</v>
+      </c>
+      <c r="F12" s="3">
+        <v>652</v>
+      </c>
+      <c r="G12" s="3">
+        <v>93</v>
+      </c>
+      <c r="H12" s="6">
+        <v>120</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>Valid</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2" t="b">
+      <c r="C13" s="3">
+        <v>860</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8927</v>
+      </c>
+      <c r="E13" s="3">
+        <v>860</v>
+      </c>
+      <c r="F13" s="3">
+        <v>645</v>
+      </c>
+      <c r="G13" s="3">
+        <v>95</v>
+      </c>
+      <c r="H13" s="6">
+        <v>120</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>Valid</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2" t="b">
+      <c r="C14" s="3">
+        <v>769</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8748</v>
+      </c>
+      <c r="E14" s="3">
+        <v>769</v>
+      </c>
+      <c r="F14" s="3">
+        <v>631</v>
+      </c>
+      <c r="G14" s="3">
+        <v>93</v>
+      </c>
+      <c r="H14" s="6">
+        <v>45</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>Valid</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="2" t="b">
+      <c r="C15" s="3">
+        <v>769</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8760</v>
+      </c>
+      <c r="E15" s="3">
+        <v>769</v>
+      </c>
+      <c r="F15" s="3">
+        <v>632</v>
+      </c>
+      <c r="G15" s="3">
+        <v>92</v>
+      </c>
+      <c r="H15" s="6">
+        <v>45</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>Valid</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="2" t="b">
+      <c r="C16" s="3">
+        <v>702</v>
+      </c>
+      <c r="D16" s="3">
+        <v>8115</v>
+      </c>
+      <c r="E16" s="3">
+        <v>702</v>
+      </c>
+      <c r="F16" s="3">
+        <v>629</v>
+      </c>
+      <c r="G16" s="3">
+        <v>43</v>
+      </c>
+      <c r="H16" s="6">
+        <v>30</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
       <c r="B17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2" t="b">
+      <c r="C17" s="3">
+        <v>716</v>
+      </c>
+      <c r="D17" s="3">
+        <v>8311</v>
+      </c>
+      <c r="E17" s="3">
+        <v>716</v>
+      </c>
+      <c r="F17" s="3">
+        <v>642</v>
+      </c>
+      <c r="G17" s="3">
+        <v>44</v>
+      </c>
+      <c r="H17" s="6">
+        <v>30</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+        <v>Valid</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>813</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2" t="b">
+      <c r="C18" s="3">
+        <v>945</v>
+      </c>
+      <c r="D18" s="3">
+        <v>9946</v>
+      </c>
+      <c r="E18" s="3">
+        <v>945</v>
+      </c>
+      <c r="F18" s="3">
+        <v>635</v>
+      </c>
+      <c r="G18" s="3">
+        <v>190</v>
+      </c>
+      <c r="H18" s="6">
+        <v>120</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2" t="b">
+      <c r="C19" s="3">
+        <v>939</v>
+      </c>
+      <c r="D19" s="3">
+        <v>9906</v>
+      </c>
+      <c r="E19" s="3">
+        <v>939</v>
+      </c>
+      <c r="F19" s="3">
+        <v>624</v>
+      </c>
+      <c r="G19" s="3">
+        <v>195</v>
+      </c>
+      <c r="H19" s="6">
+        <v>120</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="2" t="b">
+      <c r="C20" s="3">
+        <v>938</v>
+      </c>
+      <c r="D20" s="3">
+        <v>9879</v>
+      </c>
+      <c r="E20" s="3">
+        <v>938</v>
+      </c>
+      <c r="F20" s="3">
+        <v>624</v>
+      </c>
+      <c r="G20" s="3">
+        <v>194</v>
+      </c>
+      <c r="H20" s="6">
+        <v>120</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
       <c r="B21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2" t="b">
+      <c r="C21" s="3">
+        <v>936</v>
+      </c>
+      <c r="D21" s="3">
+        <v>9861</v>
+      </c>
+      <c r="E21" s="3">
+        <v>936</v>
+      </c>
+      <c r="F21" s="3">
+        <v>627</v>
+      </c>
+      <c r="G21" s="3">
+        <v>189</v>
+      </c>
+      <c r="H21" s="6">
+        <v>120</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2" t="b">
+      <c r="C22" s="3">
+        <v>916</v>
+      </c>
+      <c r="D22" s="3">
+        <v>9605</v>
+      </c>
+      <c r="E22" s="3">
+        <v>916</v>
+      </c>
+      <c r="F22" s="3">
+        <v>700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>96</v>
+      </c>
+      <c r="H22" s="6">
+        <v>120</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2" t="b">
+      <c r="C23" s="3">
+        <v>852</v>
+      </c>
+      <c r="D23" s="3">
+        <v>8838</v>
+      </c>
+      <c r="E23" s="3">
+        <v>852</v>
+      </c>
+      <c r="F23" s="3">
+        <v>637</v>
+      </c>
+      <c r="G23" s="3">
+        <v>95</v>
+      </c>
+      <c r="H23" s="6">
+        <v>120</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
       <c r="B24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2" t="b">
+      <c r="C24" s="3">
+        <v>851</v>
+      </c>
+      <c r="D24" s="3">
+        <v>8836</v>
+      </c>
+      <c r="E24" s="3">
+        <v>851</v>
+      </c>
+      <c r="F24" s="3">
+        <v>634</v>
+      </c>
+      <c r="G24" s="3">
+        <v>97</v>
+      </c>
+      <c r="H24" s="6">
+        <v>120</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2" t="b">
+      <c r="C25" s="3">
+        <v>845</v>
+      </c>
+      <c r="D25" s="3">
+        <v>8881</v>
+      </c>
+      <c r="E25" s="3">
+        <v>845</v>
+      </c>
+      <c r="F25" s="3">
+        <v>629</v>
+      </c>
+      <c r="G25" s="3">
+        <v>96</v>
+      </c>
+      <c r="H25" s="6">
+        <v>120</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
       <c r="B26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2" t="b">
+      <c r="C26" s="3">
+        <v>789</v>
+      </c>
+      <c r="D26" s="3">
+        <v>8978</v>
+      </c>
+      <c r="E26" s="3">
+        <v>789</v>
+      </c>
+      <c r="F26" s="3">
+        <v>651</v>
+      </c>
+      <c r="G26" s="3">
+        <v>93</v>
+      </c>
+      <c r="H26" s="6">
+        <v>45</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
       <c r="B27" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2" t="b">
+      <c r="C27" s="3">
+        <v>771</v>
+      </c>
+      <c r="D27" s="3">
+        <v>8771</v>
+      </c>
+      <c r="E27" s="3">
+        <v>771</v>
+      </c>
+      <c r="F27" s="3">
+        <v>632</v>
+      </c>
+      <c r="G27" s="3">
+        <v>94</v>
+      </c>
+      <c r="H27" s="6">
+        <v>45</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
       <c r="B28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="2" t="b">
+      <c r="C28" s="3">
+        <v>778</v>
+      </c>
+      <c r="D28" s="3">
+        <v>8865</v>
+      </c>
+      <c r="E28" s="3">
+        <v>778</v>
+      </c>
+      <c r="F28" s="3">
+        <v>640</v>
+      </c>
+      <c r="G28" s="3">
+        <v>93</v>
+      </c>
+      <c r="H28" s="6">
+        <v>45</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
       <c r="B29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2" t="b">
+      <c r="C29" s="3">
+        <v>779</v>
+      </c>
+      <c r="D29" s="3">
+        <v>8866</v>
+      </c>
+      <c r="E29" s="3">
+        <v>779</v>
+      </c>
+      <c r="F29" s="3">
+        <v>641</v>
+      </c>
+      <c r="G29" s="3">
+        <v>93</v>
+      </c>
+      <c r="H29" s="6">
+        <v>45</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
       <c r="B30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="2" t="b">
+      <c r="C30" s="3">
+        <v>722</v>
+      </c>
+      <c r="D30" s="3">
+        <v>8425</v>
+      </c>
+      <c r="E30" s="3">
+        <v>722</v>
+      </c>
+      <c r="F30" s="3">
+        <v>650</v>
+      </c>
+      <c r="G30" s="3">
+        <v>42</v>
+      </c>
+      <c r="H30" s="6">
+        <v>30</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
       <c r="B31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2" t="b">
+      <c r="C31" s="3">
+        <v>698</v>
+      </c>
+      <c r="D31" s="3">
+        <v>8083</v>
+      </c>
+      <c r="E31" s="3">
+        <v>698</v>
+      </c>
+      <c r="F31" s="3">
+        <v>628</v>
+      </c>
+      <c r="G31" s="3">
+        <v>40</v>
+      </c>
+      <c r="H31" s="6">
+        <v>30</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
       <c r="B32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2" t="b">
+      <c r="C32" s="3">
+        <v>717</v>
+      </c>
+      <c r="D32" s="3">
+        <v>8309</v>
+      </c>
+      <c r="E32" s="3">
+        <v>717</v>
+      </c>
+      <c r="F32" s="3">
+        <v>644</v>
+      </c>
+      <c r="G32" s="3">
+        <v>43</v>
+      </c>
+      <c r="H32" s="6">
+        <v>30</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
       <c r="B33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="2" t="b">
+      <c r="C33" s="3">
+        <v>702</v>
+      </c>
+      <c r="D33" s="3">
+        <v>8143</v>
+      </c>
+      <c r="E33" s="3">
+        <v>702</v>
+      </c>
+      <c r="F33" s="3">
+        <v>629</v>
+      </c>
+      <c r="G33" s="3">
+        <v>43</v>
+      </c>
+      <c r="H33" s="6">
+        <v>30</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+        <v>Valid</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
         <v>821</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="2" t="b">
+      <c r="C34" s="3">
+        <v>725</v>
+      </c>
+      <c r="D34" s="3">
+        <v>8906</v>
+      </c>
+      <c r="E34" s="3">
+        <v>725</v>
+      </c>
+      <c r="F34" s="3">
+        <v>627</v>
+      </c>
+      <c r="G34" s="3">
+        <v>68</v>
+      </c>
+      <c r="H34" s="6">
+        <v>30</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="2" t="b">
+      <c r="C35" s="3">
+        <v>683</v>
+      </c>
+      <c r="D35" s="3">
+        <v>8337</v>
+      </c>
+      <c r="E35" s="3">
+        <v>683</v>
+      </c>
+      <c r="F35" s="3">
+        <v>588</v>
+      </c>
+      <c r="G35" s="3">
+        <v>65</v>
+      </c>
+      <c r="H35" s="6">
+        <v>30</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
       <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="2" t="b">
+      <c r="C36" s="3">
+        <v>727</v>
+      </c>
+      <c r="D36" s="3">
+        <v>8522</v>
+      </c>
+      <c r="E36" s="3">
+        <v>727</v>
+      </c>
+      <c r="F36" s="3">
+        <v>651</v>
+      </c>
+      <c r="G36" s="3">
+        <v>46</v>
+      </c>
+      <c r="H36" s="6">
+        <v>30</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
       <c r="B37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="2" t="b">
+      <c r="C37" s="3">
+        <v>689</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8332</v>
+      </c>
+      <c r="E37" s="3">
+        <v>689</v>
+      </c>
+      <c r="F37" s="3">
+        <v>612</v>
+      </c>
+      <c r="G37" s="3">
+        <v>47</v>
+      </c>
+      <c r="H37" s="6">
+        <v>30</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+        <v>Valid</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
         <v>822</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="2" t="b">
+      <c r="C38" s="3">
+        <v>674</v>
+      </c>
+      <c r="D38" s="3">
+        <v>8142</v>
+      </c>
+      <c r="E38" s="3">
+        <v>674</v>
+      </c>
+      <c r="F38" s="3">
+        <v>581</v>
+      </c>
+      <c r="G38" s="3">
+        <v>63</v>
+      </c>
+      <c r="H38" s="6">
+        <v>30</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
       <c r="B39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="2" t="b">
+      <c r="C39" s="3">
+        <v>687</v>
+      </c>
+      <c r="D39" s="3">
+        <v>8344</v>
+      </c>
+      <c r="E39" s="3">
+        <v>687</v>
+      </c>
+      <c r="F39" s="3">
+        <v>594</v>
+      </c>
+      <c r="G39" s="3">
+        <v>63</v>
+      </c>
+      <c r="H39" s="6">
+        <v>30</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="3" t="s">
+        <v>Valid</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="2" t="b">
+      <c r="C40" s="4">
+        <v>644</v>
+      </c>
+      <c r="D40" s="4">
+        <v>7367</v>
+      </c>
+      <c r="E40" s="4">
+        <v>644</v>
+      </c>
+      <c r="F40" s="4">
+        <v>600</v>
+      </c>
+      <c r="G40" s="4">
+        <v>14</v>
+      </c>
+      <c r="H40" s="7">
+        <v>30</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
       <c r="B41" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="2" t="b">
+      <c r="C41" s="3">
+        <v>641</v>
+      </c>
+      <c r="D41" s="3">
+        <v>7374</v>
+      </c>
+      <c r="E41" s="3">
+        <v>641</v>
+      </c>
+      <c r="F41" s="3">
+        <v>568</v>
+      </c>
+      <c r="G41" s="3">
+        <v>43</v>
+      </c>
+      <c r="H41" s="6">
+        <v>30</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
         <v>823</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="2" t="b">
+      <c r="C42" s="3">
+        <v>673</v>
+      </c>
+      <c r="D42" s="3">
+        <v>8138</v>
+      </c>
+      <c r="E42" s="3">
+        <v>673</v>
+      </c>
+      <c r="F42" s="3">
+        <v>580</v>
+      </c>
+      <c r="G42" s="3">
+        <v>63</v>
+      </c>
+      <c r="H42" s="6">
+        <v>30</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
       <c r="B43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="2" t="b">
+      <c r="C43" s="3">
+        <v>668</v>
+      </c>
+      <c r="D43" s="3">
+        <v>8067</v>
+      </c>
+      <c r="E43" s="3">
+        <v>668</v>
+      </c>
+      <c r="F43" s="3">
+        <v>574</v>
+      </c>
+      <c r="G43" s="3">
+        <v>64</v>
+      </c>
+      <c r="H43" s="6">
+        <v>30</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
       <c r="B44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="2" t="b">
+      <c r="C44" s="3">
+        <v>678</v>
+      </c>
+      <c r="D44" s="3">
+        <v>8201</v>
+      </c>
+      <c r="E44" s="3">
+        <v>678</v>
+      </c>
+      <c r="F44" s="3">
+        <v>585</v>
+      </c>
+      <c r="G44" s="3">
+        <v>63</v>
+      </c>
+      <c r="H44" s="6">
+        <v>30</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
       <c r="B45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="2" t="b">
+      <c r="C45" s="3">
+        <v>680</v>
+      </c>
+      <c r="D45" s="3">
+        <v>8224</v>
+      </c>
+      <c r="E45" s="3">
+        <v>680</v>
+      </c>
+      <c r="F45" s="3">
+        <v>585</v>
+      </c>
+      <c r="G45" s="3">
+        <v>65</v>
+      </c>
+      <c r="H45" s="6">
+        <v>30</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
       <c r="B46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="2" t="b">
+      <c r="C46" s="3">
+        <v>644</v>
+      </c>
+      <c r="D46" s="3">
+        <v>7372</v>
+      </c>
+      <c r="E46" s="3">
+        <v>644</v>
+      </c>
+      <c r="F46" s="3">
+        <v>573</v>
+      </c>
+      <c r="G46" s="3">
+        <v>41</v>
+      </c>
+      <c r="H46" s="6">
+        <v>30</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
       <c r="B47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="2" t="b">
+      <c r="C47" s="3">
+        <v>645</v>
+      </c>
+      <c r="D47" s="3">
+        <v>7390</v>
+      </c>
+      <c r="E47" s="3">
+        <v>645</v>
+      </c>
+      <c r="F47" s="3">
+        <v>572</v>
+      </c>
+      <c r="G47" s="3">
+        <v>43</v>
+      </c>
+      <c r="H47" s="6">
+        <v>30</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
       <c r="B48" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="2" t="b">
+      <c r="C48" s="3">
+        <v>643</v>
+      </c>
+      <c r="D48" s="3">
+        <v>7375</v>
+      </c>
+      <c r="E48" s="3">
+        <v>643</v>
+      </c>
+      <c r="F48" s="3">
+        <v>571</v>
+      </c>
+      <c r="G48" s="3">
+        <v>42</v>
+      </c>
+      <c r="H48" s="6">
+        <v>30</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
       <c r="B49" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="2" t="b">
+      <c r="C49" s="3">
+        <v>643</v>
+      </c>
+      <c r="D49" s="3">
+        <v>7371</v>
+      </c>
+      <c r="E49" s="3">
+        <v>643</v>
+      </c>
+      <c r="F49" s="3">
+        <v>571</v>
+      </c>
+      <c r="G49" s="3">
+        <v>42</v>
+      </c>
+      <c r="H49" s="6">
+        <v>30</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+        <v>Valid</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
         <v>831</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="2" t="b">
+      <c r="C50" s="3">
+        <v>872</v>
+      </c>
+      <c r="D50" s="3">
+        <v>7799</v>
+      </c>
+      <c r="E50" s="3">
+        <v>872</v>
+      </c>
+      <c r="F50" s="3">
+        <v>182</v>
+      </c>
+      <c r="G50" s="3">
+        <v>370</v>
+      </c>
+      <c r="H50" s="6">
+        <v>219</v>
+      </c>
+      <c r="I50" s="11">
+        <v>101</v>
+      </c>
+      <c r="J50" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
       <c r="B51" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="2" t="b">
+      <c r="C51" s="3">
+        <v>875</v>
+      </c>
+      <c r="D51" s="3">
+        <v>7838</v>
+      </c>
+      <c r="E51" s="3">
+        <v>875</v>
+      </c>
+      <c r="F51" s="3">
+        <v>190</v>
+      </c>
+      <c r="G51" s="3">
+        <v>373</v>
+      </c>
+      <c r="H51" s="6">
+        <v>220</v>
+      </c>
+      <c r="I51" s="11">
+        <v>92</v>
+      </c>
+      <c r="J51" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+        <v>Valid</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
       <c r="B52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="C52" s="3">
+        <v>898</v>
+      </c>
+      <c r="D52" s="3">
+        <v>8098</v>
+      </c>
+      <c r="E52" s="3">
+        <v>898</v>
+      </c>
+      <c r="F52" s="3">
+        <v>191</v>
+      </c>
+      <c r="G52" s="3">
+        <v>385</v>
+      </c>
+      <c r="H52" s="6">
+        <v>228</v>
+      </c>
+      <c r="I52" s="11">
+        <v>94</v>
+      </c>
+      <c r="J52" s="8" t="str">
+        <f>IF(SUM(F52:I52)=E52, "Valid", "Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
       <c r="B53" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+      <c r="C53" s="3">
+        <v>883</v>
+      </c>
+      <c r="D53" s="3">
+        <v>7920</v>
+      </c>
+      <c r="E53" s="3">
+        <v>883</v>
+      </c>
+      <c r="F53" s="3">
+        <v>191</v>
+      </c>
+      <c r="G53" s="3">
+        <v>375</v>
+      </c>
+      <c r="H53" s="6">
+        <v>222</v>
+      </c>
+      <c r="I53" s="11">
+        <v>95</v>
+      </c>
+      <c r="J53" s="8" t="str">
+        <f t="shared" ref="J53:J116" si="1">IF(SUM(F53:I53)=E53, "Valid", "Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+      <c r="C54" s="3">
+        <v>734</v>
+      </c>
+      <c r="D54" s="3">
+        <v>7910</v>
+      </c>
+      <c r="E54" s="3">
+        <v>734</v>
+      </c>
+      <c r="F54" s="3">
+        <v>273</v>
+      </c>
+      <c r="G54" s="3">
+        <v>381</v>
+      </c>
+      <c r="H54" s="6">
+        <v>80</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
       <c r="B55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="C55" s="3">
+        <v>740</v>
+      </c>
+      <c r="D55" s="3">
+        <v>7909</v>
+      </c>
+      <c r="E55" s="3">
+        <v>740</v>
+      </c>
+      <c r="F55" s="3">
+        <v>282</v>
+      </c>
+      <c r="G55" s="3">
+        <v>378</v>
+      </c>
+      <c r="H55" s="6">
+        <v>80</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
       <c r="B56" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
+      <c r="C56" s="3">
+        <v>741</v>
+      </c>
+      <c r="D56" s="3">
+        <v>7914</v>
+      </c>
+      <c r="E56" s="3">
+        <v>741</v>
+      </c>
+      <c r="F56" s="3">
+        <v>274</v>
+      </c>
+      <c r="G56" s="3">
+        <v>387</v>
+      </c>
+      <c r="H56" s="6">
+        <v>80</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
       <c r="B57" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="C57" s="3">
+        <v>738</v>
+      </c>
+      <c r="D57" s="3">
+        <v>7866</v>
+      </c>
+      <c r="E57" s="3">
+        <v>738</v>
+      </c>
+      <c r="F57" s="3">
+        <v>258</v>
+      </c>
+      <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="6">
+        <v>80</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
       <c r="B58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="C58" s="3">
+        <v>778</v>
+      </c>
+      <c r="D58" s="3">
+        <v>7881</v>
+      </c>
+      <c r="E58" s="3">
+        <v>778</v>
+      </c>
+      <c r="F58" s="3">
+        <v>211</v>
+      </c>
+      <c r="G58" s="3">
+        <v>378</v>
+      </c>
+      <c r="H58" s="6">
+        <v>121</v>
+      </c>
+      <c r="I58" s="11">
+        <v>68</v>
+      </c>
+      <c r="J58" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
       <c r="B59" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="C59" s="3">
+        <v>778</v>
+      </c>
+      <c r="D59" s="3">
+        <v>7925</v>
+      </c>
+      <c r="E59" s="3">
+        <v>778</v>
+      </c>
+      <c r="F59" s="3">
+        <v>201</v>
+      </c>
+      <c r="G59" s="3">
+        <v>378</v>
+      </c>
+      <c r="H59" s="6">
+        <v>120</v>
+      </c>
+      <c r="I59" s="11">
+        <v>79</v>
+      </c>
+      <c r="J59" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
       <c r="B60" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="C60" s="3">
+        <v>780</v>
+      </c>
+      <c r="D60" s="3">
+        <v>7913</v>
+      </c>
+      <c r="E60" s="3">
+        <v>780</v>
+      </c>
+      <c r="F60" s="3">
+        <v>183</v>
+      </c>
+      <c r="G60" s="3">
+        <v>380</v>
+      </c>
+      <c r="H60" s="6">
+        <v>122</v>
+      </c>
+      <c r="I60" s="11">
+        <v>95</v>
+      </c>
+      <c r="J60" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
       <c r="B61" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="C61" s="3">
+        <v>785</v>
+      </c>
+      <c r="D61" s="3">
+        <v>8036</v>
+      </c>
+      <c r="E61" s="3">
+        <v>785</v>
+      </c>
+      <c r="F61" s="3">
+        <v>183</v>
+      </c>
+      <c r="G61" s="3">
+        <v>380</v>
+      </c>
+      <c r="H61" s="6">
+        <v>121</v>
+      </c>
+      <c r="I61" s="11">
+        <v>101</v>
+      </c>
+      <c r="J61" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
       <c r="B62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+      <c r="C62" s="3">
+        <v>718</v>
+      </c>
+      <c r="D62" s="3">
+        <v>7866</v>
+      </c>
+      <c r="E62" s="3">
+        <v>718</v>
+      </c>
+      <c r="F62" s="3">
+        <v>276</v>
+      </c>
+      <c r="G62" s="3">
+        <v>382</v>
+      </c>
+      <c r="H62" s="6">
+        <v>60</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="12"/>
       <c r="B63" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="C63" s="3">
+        <v>715</v>
+      </c>
+      <c r="D63" s="3">
+        <v>7892</v>
+      </c>
+      <c r="E63" s="3">
+        <v>715</v>
+      </c>
+      <c r="F63" s="3">
+        <v>280</v>
+      </c>
+      <c r="G63" s="3">
+        <v>375</v>
+      </c>
+      <c r="H63" s="6">
+        <v>60</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
       <c r="B64" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="C64" s="3">
+        <v>719</v>
+      </c>
+      <c r="D64" s="3">
+        <v>7887</v>
+      </c>
+      <c r="E64" s="3">
+        <v>719</v>
+      </c>
+      <c r="F64" s="3">
+        <v>262</v>
+      </c>
+      <c r="G64" s="3">
+        <v>397</v>
+      </c>
+      <c r="H64" s="6">
+        <v>60</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
       <c r="B65" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="C65" s="3">
+        <v>719</v>
+      </c>
+      <c r="D65" s="3">
+        <v>7874</v>
+      </c>
+      <c r="E65" s="3">
+        <v>719</v>
+      </c>
+      <c r="F65" s="3">
+        <v>269</v>
+      </c>
+      <c r="G65" s="3">
+        <v>390</v>
+      </c>
+      <c r="H65" s="6">
+        <v>60</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+      <c r="J65" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
         <v>832</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+      <c r="C66" s="3">
+        <v>894</v>
+      </c>
+      <c r="D66" s="3">
+        <v>7773</v>
+      </c>
+      <c r="E66" s="3">
+        <v>894</v>
+      </c>
+      <c r="F66" s="3">
+        <v>257</v>
+      </c>
+      <c r="G66" s="3">
+        <v>402</v>
+      </c>
+      <c r="H66" s="6">
+        <v>235</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
       <c r="B67" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="2" t="b">
-        <f t="shared" ref="I67:I130" si="1">IF(SUM(F67:H67)=E67,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
+      <c r="C67" s="3">
+        <v>907</v>
+      </c>
+      <c r="D67" s="3">
+        <v>7865</v>
+      </c>
+      <c r="E67" s="3">
+        <v>907</v>
+      </c>
+      <c r="F67" s="3">
+        <v>252</v>
+      </c>
+      <c r="G67" s="3">
+        <v>413</v>
+      </c>
+      <c r="H67" s="6">
+        <v>242</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0</v>
+      </c>
+      <c r="J67" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
       <c r="B68" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+      <c r="C68" s="3">
+        <v>735</v>
+      </c>
+      <c r="D68" s="3">
+        <v>7758</v>
+      </c>
+      <c r="E68" s="3">
+        <v>735</v>
+      </c>
+      <c r="F68" s="3">
+        <v>263</v>
+      </c>
+      <c r="G68" s="3">
+        <v>392</v>
+      </c>
+      <c r="H68" s="6">
+        <v>80</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
       <c r="B69" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
+      <c r="C69" s="3">
+        <v>743</v>
+      </c>
+      <c r="D69" s="3">
+        <v>7840</v>
+      </c>
+      <c r="E69" s="3">
+        <v>743</v>
+      </c>
+      <c r="F69" s="3">
+        <v>252</v>
+      </c>
+      <c r="G69" s="3">
+        <v>411</v>
+      </c>
+      <c r="H69" s="6">
+        <v>80</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0</v>
+      </c>
+      <c r="J69" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
       <c r="B70" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
+      <c r="C70" s="3">
+        <v>788</v>
+      </c>
+      <c r="D70" s="3">
+        <v>7773</v>
+      </c>
+      <c r="E70" s="3">
+        <v>788</v>
+      </c>
+      <c r="F70" s="3">
+        <v>244</v>
+      </c>
+      <c r="G70" s="3">
+        <v>413</v>
+      </c>
+      <c r="H70" s="6">
+        <v>131</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
       <c r="B71" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+      <c r="C71" s="3">
+        <v>786</v>
+      </c>
+      <c r="D71" s="3">
+        <v>7753</v>
+      </c>
+      <c r="E71" s="3">
+        <v>786</v>
+      </c>
+      <c r="F71" s="3">
+        <v>245</v>
+      </c>
+      <c r="G71" s="3">
+        <v>411</v>
+      </c>
+      <c r="H71" s="6">
+        <v>130</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="12"/>
       <c r="B72" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+      <c r="C72" s="3">
+        <v>719</v>
+      </c>
+      <c r="D72" s="3">
+        <v>7779</v>
+      </c>
+      <c r="E72" s="3">
+        <v>719</v>
+      </c>
+      <c r="F72" s="3">
+        <v>260</v>
+      </c>
+      <c r="G72" s="3">
+        <v>399</v>
+      </c>
+      <c r="H72" s="6">
+        <v>60</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="12"/>
       <c r="B73" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="C73" s="3">
+        <v>718</v>
+      </c>
+      <c r="D73" s="3">
+        <v>7771</v>
+      </c>
+      <c r="E73" s="3">
+        <v>718</v>
+      </c>
+      <c r="F73" s="3">
+        <v>244</v>
+      </c>
+      <c r="G73" s="3">
+        <v>414</v>
+      </c>
+      <c r="H73" s="6">
+        <v>60</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+      <c r="J73" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
         <v>833</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+      <c r="C74" s="3">
+        <v>891</v>
+      </c>
+      <c r="D74" s="3">
+        <v>7730</v>
+      </c>
+      <c r="E74" s="3">
+        <v>891</v>
+      </c>
+      <c r="F74" s="3">
+        <v>256</v>
+      </c>
+      <c r="G74" s="3">
+        <v>400</v>
+      </c>
+      <c r="H74" s="6">
+        <v>235</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0</v>
+      </c>
+      <c r="J74" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="12"/>
       <c r="B75" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+      <c r="C75" s="3">
+        <v>874</v>
+      </c>
+      <c r="D75" s="3">
+        <v>7688</v>
+      </c>
+      <c r="E75" s="3">
+        <v>874</v>
+      </c>
+      <c r="F75" s="3">
+        <v>272</v>
+      </c>
+      <c r="G75" s="3">
+        <v>379</v>
+      </c>
+      <c r="H75" s="6">
+        <v>223</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="12"/>
       <c r="B76" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+      <c r="C76" s="3">
+        <v>888</v>
+      </c>
+      <c r="D76" s="3">
+        <v>7677</v>
+      </c>
+      <c r="E76" s="3">
+        <v>888</v>
+      </c>
+      <c r="F76" s="3">
+        <v>245</v>
+      </c>
+      <c r="G76" s="3">
+        <v>406</v>
+      </c>
+      <c r="H76" s="6">
+        <v>237</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="12"/>
       <c r="B77" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
+      <c r="C77" s="3">
+        <v>895</v>
+      </c>
+      <c r="D77" s="3">
+        <v>7713</v>
+      </c>
+      <c r="E77" s="3">
+        <v>895</v>
+      </c>
+      <c r="F77" s="3">
+        <v>242</v>
+      </c>
+      <c r="G77" s="3">
+        <v>411</v>
+      </c>
+      <c r="H77" s="6">
+        <v>242</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
       <c r="B78" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
+      <c r="C78" s="3">
+        <v>738</v>
+      </c>
+      <c r="D78" s="3">
+        <v>7755</v>
+      </c>
+      <c r="E78" s="3">
+        <v>738</v>
+      </c>
+      <c r="F78" s="3">
+        <v>256</v>
+      </c>
+      <c r="G78" s="3">
+        <v>402</v>
+      </c>
+      <c r="H78" s="6">
+        <v>80</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
+      <c r="J78" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
       <c r="B79" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+      <c r="C79" s="3">
+        <v>741</v>
+      </c>
+      <c r="D79" s="3">
+        <v>7798</v>
+      </c>
+      <c r="E79" s="3">
+        <v>741</v>
+      </c>
+      <c r="F79" s="3">
+        <v>254</v>
+      </c>
+      <c r="G79" s="3">
+        <v>407</v>
+      </c>
+      <c r="H79" s="6">
+        <v>80</v>
+      </c>
+      <c r="I79" s="3">
+        <v>0</v>
+      </c>
+      <c r="J79" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="12"/>
       <c r="B80" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
+      <c r="C80" s="3">
+        <v>739</v>
+      </c>
+      <c r="D80" s="3">
+        <v>7771</v>
+      </c>
+      <c r="E80" s="3">
+        <v>739</v>
+      </c>
+      <c r="F80" s="3">
+        <v>258</v>
+      </c>
+      <c r="G80" s="3">
+        <v>401</v>
+      </c>
+      <c r="H80" s="6">
+        <v>80</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0</v>
+      </c>
+      <c r="J80" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="12"/>
       <c r="B81" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
+      <c r="C81" s="3">
+        <v>741</v>
+      </c>
+      <c r="D81" s="3">
+        <v>7801</v>
+      </c>
+      <c r="E81" s="3">
+        <v>741</v>
+      </c>
+      <c r="F81" s="3">
+        <v>250</v>
+      </c>
+      <c r="G81" s="3">
+        <v>411</v>
+      </c>
+      <c r="H81" s="6">
+        <v>80</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="12"/>
       <c r="B82" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
+      <c r="C82" s="3">
+        <v>788</v>
+      </c>
+      <c r="D82" s="3">
+        <v>7781</v>
+      </c>
+      <c r="E82" s="3">
+        <v>788</v>
+      </c>
+      <c r="F82" s="3">
+        <v>245</v>
+      </c>
+      <c r="G82" s="3">
+        <v>412</v>
+      </c>
+      <c r="H82" s="6">
+        <v>131</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0</v>
+      </c>
+      <c r="J82" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
       <c r="B83" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
+      <c r="C83" s="3">
+        <v>780</v>
+      </c>
+      <c r="D83" s="3">
+        <v>7741</v>
+      </c>
+      <c r="E83" s="3">
+        <v>780</v>
+      </c>
+      <c r="F83" s="3">
+        <v>260</v>
+      </c>
+      <c r="G83" s="3">
+        <v>395</v>
+      </c>
+      <c r="H83" s="6">
+        <v>125</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="12"/>
       <c r="B84" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
+      <c r="C84" s="3">
+        <v>786</v>
+      </c>
+      <c r="D84" s="3">
+        <v>7763</v>
+      </c>
+      <c r="E84" s="3">
+        <v>786</v>
+      </c>
+      <c r="F84" s="3">
+        <v>253</v>
+      </c>
+      <c r="G84" s="3">
+        <v>404</v>
+      </c>
+      <c r="H84" s="6">
+        <v>129</v>
+      </c>
+      <c r="I84" s="3">
+        <v>0</v>
+      </c>
+      <c r="J84" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
       <c r="B85" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
+      <c r="C85" s="3">
+        <v>792</v>
+      </c>
+      <c r="D85" s="3">
+        <v>7865</v>
+      </c>
+      <c r="E85" s="3">
+        <v>792</v>
+      </c>
+      <c r="F85" s="3">
+        <v>263</v>
+      </c>
+      <c r="G85" s="3">
+        <v>401</v>
+      </c>
+      <c r="H85" s="6">
+        <v>128</v>
+      </c>
+      <c r="I85" s="3">
+        <v>0</v>
+      </c>
+      <c r="J85" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
       <c r="B86" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
+      <c r="C86" s="3">
+        <v>718</v>
+      </c>
+      <c r="D86" s="3">
+        <v>7769</v>
+      </c>
+      <c r="E86" s="3">
+        <v>718</v>
+      </c>
+      <c r="F86" s="3">
+        <v>252</v>
+      </c>
+      <c r="G86" s="3">
+        <v>406</v>
+      </c>
+      <c r="H86" s="6">
+        <v>60</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0</v>
+      </c>
+      <c r="J86" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
       <c r="B87" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+      <c r="C87" s="3">
+        <v>717</v>
+      </c>
+      <c r="D87" s="3">
+        <v>7752</v>
+      </c>
+      <c r="E87" s="3">
+        <v>717</v>
+      </c>
+      <c r="F87" s="3">
+        <v>225</v>
+      </c>
+      <c r="G87" s="3">
+        <v>432</v>
+      </c>
+      <c r="H87" s="6">
+        <v>60</v>
+      </c>
+      <c r="I87" s="3">
+        <v>0</v>
+      </c>
+      <c r="J87" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
       <c r="B88" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
+      <c r="C88" s="3">
+        <v>715</v>
+      </c>
+      <c r="D88" s="3">
+        <v>7751</v>
+      </c>
+      <c r="E88" s="3">
+        <v>715</v>
+      </c>
+      <c r="F88" s="3">
+        <v>252</v>
+      </c>
+      <c r="G88" s="3">
+        <v>403</v>
+      </c>
+      <c r="H88" s="6">
+        <v>60</v>
+      </c>
+      <c r="I88" s="3">
+        <v>0</v>
+      </c>
+      <c r="J88" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="12"/>
       <c r="B89" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="C89" s="3">
+        <v>710</v>
+      </c>
+      <c r="D89" s="3">
+        <v>7710</v>
+      </c>
+      <c r="E89" s="3">
+        <v>710</v>
+      </c>
+      <c r="F89" s="3">
+        <v>243</v>
+      </c>
+      <c r="G89" s="3">
+        <v>407</v>
+      </c>
+      <c r="H89" s="6">
+        <v>60</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="12">
         <v>841</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+      <c r="C90" s="3">
+        <v>711</v>
+      </c>
+      <c r="D90" s="3">
+        <v>8451</v>
+      </c>
+      <c r="E90" s="3">
+        <v>711</v>
+      </c>
+      <c r="F90" s="3">
+        <v>336</v>
+      </c>
+      <c r="G90" s="3">
+        <v>243</v>
+      </c>
+      <c r="H90" s="6">
+        <v>132</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0</v>
+      </c>
+      <c r="J90" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="12"/>
       <c r="B91" s="3" t="s">
         <v>32</v>
       </c>
@@ -2570,14 +4245,20 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="12"/>
       <c r="B92" s="3" t="s">
         <v>14</v>
       </c>
@@ -2586,14 +4267,20 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="3">
+        <v>0</v>
+      </c>
+      <c r="J92" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="12"/>
       <c r="B93" s="3" t="s">
         <v>33</v>
       </c>
@@ -2602,14 +4289,20 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="3">
+        <v>0</v>
+      </c>
+      <c r="J93" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="12"/>
       <c r="B94" s="3" t="s">
         <v>119</v>
       </c>
@@ -2618,14 +4311,17 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="12"/>
       <c r="B95" s="3" t="s">
         <v>120</v>
       </c>
@@ -2634,14 +4330,17 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="3">
+        <v>0</v>
+      </c>
+      <c r="J95" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="12"/>
       <c r="B96" s="3" t="s">
         <v>121</v>
       </c>
@@ -2650,14 +4349,17 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="12"/>
       <c r="B97" s="3" t="s">
         <v>122</v>
       </c>
@@ -2666,14 +4368,17 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+      <c r="H97" s="6"/>
+      <c r="I97" s="3">
+        <v>0</v>
+      </c>
+      <c r="J97" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
         <v>842</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -2684,14 +4389,17 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="3">
+        <v>0</v>
+      </c>
+      <c r="J98" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="12"/>
       <c r="B99" s="3" t="s">
         <v>124</v>
       </c>
@@ -2700,14 +4408,17 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="3">
+        <v>0</v>
+      </c>
+      <c r="J99" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="12"/>
       <c r="B100" s="3" t="s">
         <v>125</v>
       </c>
@@ -2716,14 +4427,17 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="12"/>
       <c r="B101" s="3" t="s">
         <v>126</v>
       </c>
@@ -2732,14 +4446,17 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+      <c r="H101" s="6"/>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="12">
         <v>843</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -2750,14 +4467,17 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="12"/>
       <c r="B103" s="3" t="s">
         <v>128</v>
       </c>
@@ -2766,14 +4486,17 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="3">
+        <v>0</v>
+      </c>
+      <c r="J103" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
       <c r="B104" s="3" t="s">
         <v>129</v>
       </c>
@@ -2782,14 +4505,17 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="3">
+        <v>0</v>
+      </c>
+      <c r="J104" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="12"/>
       <c r="B105" s="3" t="s">
         <v>130</v>
       </c>
@@ -2798,14 +4524,17 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="3">
+        <v>0</v>
+      </c>
+      <c r="J105" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
       <c r="B106" s="3" t="s">
         <v>131</v>
       </c>
@@ -2814,14 +4543,17 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="3">
+        <v>0</v>
+      </c>
+      <c r="J106" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="12"/>
       <c r="B107" s="3" t="s">
         <v>132</v>
       </c>
@@ -2830,14 +4562,17 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="3">
+        <v>0</v>
+      </c>
+      <c r="J107" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
       <c r="B108" s="3" t="s">
         <v>133</v>
       </c>
@@ -2846,14 +4581,17 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="3">
+        <v>0</v>
+      </c>
+      <c r="J108" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="12"/>
       <c r="B109" s="3" t="s">
         <v>134</v>
       </c>
@@ -2862,14 +4600,17 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
+      <c r="H109" s="6"/>
+      <c r="I109" s="3">
+        <v>0</v>
+      </c>
+      <c r="J109" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="12">
         <v>851</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -2880,14 +4621,17 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="3">
+        <v>0</v>
+      </c>
+      <c r="J110" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="12"/>
       <c r="B111" s="3" t="s">
         <v>34</v>
       </c>
@@ -2896,14 +4640,17 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="3">
+        <v>0</v>
+      </c>
+      <c r="J111" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="12"/>
       <c r="B112" s="3" t="s">
         <v>48</v>
       </c>
@@ -2912,14 +4659,17 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="3">
+        <v>0</v>
+      </c>
+      <c r="J112" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="12"/>
       <c r="B113" s="3" t="s">
         <v>49</v>
       </c>
@@ -2928,14 +4678,17 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="3">
+        <v>0</v>
+      </c>
+      <c r="J113" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="12"/>
       <c r="B114" s="3" t="s">
         <v>16</v>
       </c>
@@ -2944,14 +4697,17 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="3">
+        <v>0</v>
+      </c>
+      <c r="J114" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
       <c r="B115" s="3" t="s">
         <v>35</v>
       </c>
@@ -2960,14 +4716,17 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="3">
+        <v>0</v>
+      </c>
+      <c r="J115" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="12"/>
       <c r="B116" s="3" t="s">
         <v>50</v>
       </c>
@@ -2976,14 +4735,17 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="3">
+        <v>0</v>
+      </c>
+      <c r="J116" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="12"/>
       <c r="B117" s="3" t="s">
         <v>51</v>
       </c>
@@ -2992,14 +4754,17 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="3">
+        <v>0</v>
+      </c>
+      <c r="J117" s="8" t="str">
+        <f t="shared" ref="J117:J179" si="2">IF(SUM(F117:I117)=E117, "Valid", "Error")</f>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="12"/>
       <c r="B118" s="3" t="s">
         <v>17</v>
       </c>
@@ -3008,14 +4773,17 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="3">
+        <v>0</v>
+      </c>
+      <c r="J118" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="12"/>
       <c r="B119" s="3" t="s">
         <v>36</v>
       </c>
@@ -3024,14 +4792,17 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="3">
+        <v>0</v>
+      </c>
+      <c r="J119" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="12"/>
       <c r="B120" s="3" t="s">
         <v>52</v>
       </c>
@@ -3040,14 +4811,17 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="3">
+        <v>0</v>
+      </c>
+      <c r="J120" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="12"/>
       <c r="B121" s="3" t="s">
         <v>53</v>
       </c>
@@ -3056,14 +4830,17 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="3">
+        <v>0</v>
+      </c>
+      <c r="J121" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="12"/>
       <c r="B122" s="3" t="s">
         <v>18</v>
       </c>
@@ -3072,14 +4849,17 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="3">
+        <v>0</v>
+      </c>
+      <c r="J122" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="12"/>
       <c r="B123" s="3" t="s">
         <v>37</v>
       </c>
@@ -3088,14 +4868,17 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="3">
+        <v>0</v>
+      </c>
+      <c r="J123" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="12"/>
       <c r="B124" s="3" t="s">
         <v>54</v>
       </c>
@@ -3104,14 +4887,17 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="3">
+        <v>0</v>
+      </c>
+      <c r="J124" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="12"/>
       <c r="B125" s="3" t="s">
         <v>55</v>
       </c>
@@ -3120,14 +4906,17 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
+      <c r="H125" s="6"/>
+      <c r="I125" s="3">
+        <v>0</v>
+      </c>
+      <c r="J125" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="12">
         <v>852</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -3138,14 +4927,17 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="3">
+        <v>0</v>
+      </c>
+      <c r="J126" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
       <c r="B127" s="3" t="s">
         <v>136</v>
       </c>
@@ -3154,14 +4946,17 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="3">
+        <v>0</v>
+      </c>
+      <c r="J127" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="12"/>
       <c r="B128" s="3" t="s">
         <v>137</v>
       </c>
@@ -3170,14 +4965,17 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="3">
+        <v>0</v>
+      </c>
+      <c r="J128" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="12"/>
       <c r="B129" s="3" t="s">
         <v>138</v>
       </c>
@@ -3186,14 +4984,17 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="3">
+        <v>0</v>
+      </c>
+      <c r="J129" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="12"/>
       <c r="B130" s="3" t="s">
         <v>139</v>
       </c>
@@ -3202,14 +5003,17 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="3">
+        <v>0</v>
+      </c>
+      <c r="J130" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="12"/>
       <c r="B131" s="3" t="s">
         <v>140</v>
       </c>
@@ -3218,14 +5022,17 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="2" t="b">
-        <f t="shared" ref="I131:I179" si="2">IF(SUM(F131:H131)=E131,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="3">
+        <v>0</v>
+      </c>
+      <c r="J131" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="12"/>
       <c r="B132" s="3" t="s">
         <v>141</v>
       </c>
@@ -3234,14 +5041,17 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="3">
+        <v>0</v>
+      </c>
+      <c r="J132" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="12"/>
       <c r="B133" s="3" t="s">
         <v>142</v>
       </c>
@@ -3250,14 +5060,17 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
+      <c r="H133" s="6"/>
+      <c r="I133" s="3">
+        <v>0</v>
+      </c>
+      <c r="J133" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="12">
         <v>853</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -3268,14 +5081,17 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="3">
+        <v>0</v>
+      </c>
+      <c r="J134" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="12"/>
       <c r="B135" s="3" t="s">
         <v>144</v>
       </c>
@@ -3284,14 +5100,17 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="3">
+        <v>0</v>
+      </c>
+      <c r="J135" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="12"/>
       <c r="B136" s="3" t="s">
         <v>145</v>
       </c>
@@ -3300,14 +5119,17 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="3">
+        <v>0</v>
+      </c>
+      <c r="J136" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="12"/>
       <c r="B137" s="3" t="s">
         <v>146</v>
       </c>
@@ -3316,14 +5138,17 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="3">
+        <v>0</v>
+      </c>
+      <c r="J137" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="12"/>
       <c r="B138" s="3" t="s">
         <v>147</v>
       </c>
@@ -3332,14 +5157,17 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="3">
+        <v>0</v>
+      </c>
+      <c r="J138" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
       <c r="B139" s="3" t="s">
         <v>148</v>
       </c>
@@ -3348,14 +5176,17 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="3">
+        <v>0</v>
+      </c>
+      <c r="J139" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
       <c r="B140" s="3" t="s">
         <v>149</v>
       </c>
@@ -3364,14 +5195,17 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="3">
+        <v>0</v>
+      </c>
+      <c r="J140" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="12"/>
       <c r="B141" s="3" t="s">
         <v>150</v>
       </c>
@@ -3380,14 +5214,17 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="3">
+        <v>0</v>
+      </c>
+      <c r="J141" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="12"/>
       <c r="B142" s="3" t="s">
         <v>151</v>
       </c>
@@ -3396,14 +5233,17 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="3">
+        <v>0</v>
+      </c>
+      <c r="J142" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="12"/>
       <c r="B143" s="3" t="s">
         <v>152</v>
       </c>
@@ -3412,14 +5252,17 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="3">
+        <v>0</v>
+      </c>
+      <c r="J143" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="12"/>
       <c r="B144" s="3" t="s">
         <v>153</v>
       </c>
@@ -3428,14 +5271,17 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="3">
+        <v>0</v>
+      </c>
+      <c r="J144" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="12"/>
       <c r="B145" s="3" t="s">
         <v>154</v>
       </c>
@@ -3444,14 +5290,17 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="3">
+        <v>0</v>
+      </c>
+      <c r="J145" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="12"/>
       <c r="B146" s="3" t="s">
         <v>155</v>
       </c>
@@ -3460,14 +5309,17 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="3">
+        <v>0</v>
+      </c>
+      <c r="J146" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="12"/>
       <c r="B147" s="3" t="s">
         <v>156</v>
       </c>
@@ -3476,14 +5328,17 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="3">
+        <v>0</v>
+      </c>
+      <c r="J147" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="12"/>
       <c r="B148" s="3" t="s">
         <v>157</v>
       </c>
@@ -3492,14 +5347,17 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="3">
+        <v>0</v>
+      </c>
+      <c r="J148" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
       <c r="B149" s="3" t="s">
         <v>158</v>
       </c>
@@ -3508,14 +5366,17 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
+      <c r="H149" s="6"/>
+      <c r="I149" s="3">
+        <v>0</v>
+      </c>
+      <c r="J149" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="12">
         <v>861</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -3526,14 +5387,17 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="3">
+        <v>0</v>
+      </c>
+      <c r="J150" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="12"/>
       <c r="B151" s="3" t="s">
         <v>38</v>
       </c>
@@ -3542,14 +5406,17 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="3">
+        <v>0</v>
+      </c>
+      <c r="J151" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
       <c r="B152" s="3" t="s">
         <v>20</v>
       </c>
@@ -3558,14 +5425,17 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="3">
+        <v>0</v>
+      </c>
+      <c r="J152" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="12"/>
       <c r="B153" s="3" t="s">
         <v>39</v>
       </c>
@@ -3574,14 +5444,17 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="3">
+        <v>0</v>
+      </c>
+      <c r="J153" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
       <c r="B154" s="3" t="s">
         <v>159</v>
       </c>
@@ -3590,14 +5463,17 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="3">
+        <v>0</v>
+      </c>
+      <c r="J154" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="12"/>
       <c r="B155" s="3" t="s">
         <v>160</v>
       </c>
@@ -3606,14 +5482,17 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="3">
+        <v>0</v>
+      </c>
+      <c r="J155" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="12"/>
       <c r="B156" s="3" t="s">
         <v>161</v>
       </c>
@@ -3622,14 +5501,17 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="3">
+        <v>0</v>
+      </c>
+      <c r="J156" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="12"/>
       <c r="B157" s="3" t="s">
         <v>162</v>
       </c>
@@ -3638,14 +5520,17 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="4">
+      <c r="H157" s="6"/>
+      <c r="I157" s="3">
+        <v>0</v>
+      </c>
+      <c r="J157" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="12">
         <v>862</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -3656,14 +5541,17 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="3">
+        <v>0</v>
+      </c>
+      <c r="J158" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="12"/>
       <c r="B159" s="3" t="s">
         <v>164</v>
       </c>
@@ -3672,14 +5560,17 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="3">
+        <v>0</v>
+      </c>
+      <c r="J159" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="12"/>
       <c r="B160" s="3" t="s">
         <v>165</v>
       </c>
@@ -3688,14 +5579,17 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="3">
+        <v>0</v>
+      </c>
+      <c r="J160" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="12"/>
       <c r="B161" s="3" t="s">
         <v>166</v>
       </c>
@@ -3704,14 +5598,17 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="4">
+      <c r="H161" s="6"/>
+      <c r="I161" s="3">
+        <v>0</v>
+      </c>
+      <c r="J161" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="12">
         <v>863</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -3722,14 +5619,17 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="3">
+        <v>0</v>
+      </c>
+      <c r="J162" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="12"/>
       <c r="B163" s="3" t="s">
         <v>168</v>
       </c>
@@ -3738,14 +5638,17 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="3">
+        <v>0</v>
+      </c>
+      <c r="J163" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="12"/>
       <c r="B164" s="3" t="s">
         <v>169</v>
       </c>
@@ -3754,14 +5657,17 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="3">
+        <v>0</v>
+      </c>
+      <c r="J164" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="12"/>
       <c r="B165" s="3" t="s">
         <v>170</v>
       </c>
@@ -3770,14 +5676,17 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="3">
+        <v>0</v>
+      </c>
+      <c r="J165" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="12"/>
       <c r="B166" s="3" t="s">
         <v>171</v>
       </c>
@@ -3786,14 +5695,17 @@
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="3">
+        <v>0</v>
+      </c>
+      <c r="J166" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="12"/>
       <c r="B167" s="3" t="s">
         <v>172</v>
       </c>
@@ -3802,14 +5714,17 @@
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="3">
+        <v>0</v>
+      </c>
+      <c r="J167" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="12"/>
       <c r="B168" s="3" t="s">
         <v>173</v>
       </c>
@@ -3818,14 +5733,17 @@
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="3">
+        <v>0</v>
+      </c>
+      <c r="J168" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="12"/>
       <c r="B169" s="3" t="s">
         <v>174</v>
       </c>
@@ -3834,14 +5752,17 @@
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="4">
+      <c r="H169" s="6"/>
+      <c r="I169" s="3">
+        <v>0</v>
+      </c>
+      <c r="J169" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="12">
         <v>871</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -3852,14 +5773,17 @@
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="4"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="3">
+        <v>0</v>
+      </c>
+      <c r="J170" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="12"/>
       <c r="B171" s="3" t="s">
         <v>2</v>
       </c>
@@ -3868,14 +5792,17 @@
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="3">
+        <v>0</v>
+      </c>
+      <c r="J171" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="12"/>
       <c r="B172" s="3" t="s">
         <v>56</v>
       </c>
@@ -3884,14 +5811,17 @@
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="4"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="3">
+        <v>0</v>
+      </c>
+      <c r="J172" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="12"/>
       <c r="B173" s="3" t="s">
         <v>57</v>
       </c>
@@ -3900,14 +5830,17 @@
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="4">
+      <c r="H173" s="6"/>
+      <c r="I173" s="3">
+        <v>0</v>
+      </c>
+      <c r="J173" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="12">
         <v>872</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -3918,14 +5851,17 @@
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="4"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="3">
+        <v>0</v>
+      </c>
+      <c r="J174" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="12"/>
       <c r="B175" s="3" t="s">
         <v>176</v>
       </c>
@@ -3934,14 +5870,17 @@
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="4">
+      <c r="H175" s="6"/>
+      <c r="I175" s="3">
+        <v>0</v>
+      </c>
+      <c r="J175" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="12">
         <v>873</v>
       </c>
       <c r="B176" s="3" t="s">
@@ -3952,14 +5891,17 @@
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="4"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="3">
+        <v>0</v>
+      </c>
+      <c r="J176" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="12"/>
       <c r="B177" s="3" t="s">
         <v>178</v>
       </c>
@@ -3968,14 +5910,17 @@
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="4"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="3">
+        <v>0</v>
+      </c>
+      <c r="J177" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="12"/>
       <c r="B178" s="3" t="s">
         <v>179</v>
       </c>
@@ -3984,14 +5929,17 @@
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="2" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="4"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="3">
+        <v>0</v>
+      </c>
+      <c r="J178" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="12"/>
       <c r="B179" s="3" t="s">
         <v>180</v>
       </c>
@@ -4000,40 +5948,47 @@
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="2" t="b">
-        <f t="shared" si="2"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="3">
+        <v>0</v>
+      </c>
+      <c r="J179" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B180" s="4"/>
+      <c r="B180" s="12"/>
       <c r="C180" s="3">
         <f>SUM(C2:C179)</f>
-        <v>7629</v>
+        <v>69157</v>
       </c>
       <c r="D180" s="3">
-        <f t="shared" ref="D180:H180" si="3">SUM(D2:D179)</f>
-        <v>84160</v>
+        <f t="shared" ref="D180:I180" si="3">SUM(D2:D179)</f>
+        <v>739028</v>
       </c>
       <c r="E180" s="3">
         <f t="shared" si="3"/>
-        <v>7629</v>
+        <v>69157</v>
       </c>
       <c r="F180" s="3">
         <f t="shared" si="3"/>
-        <v>5216</v>
+        <v>40036</v>
       </c>
       <c r="G180" s="3">
         <f t="shared" si="3"/>
-        <v>850</v>
-      </c>
-      <c r="H180" s="3">
+        <v>20303</v>
+      </c>
+      <c r="H180" s="6">
         <f t="shared" si="3"/>
-        <v>630</v>
+        <v>8093</v>
+      </c>
+      <c r="I180" s="3">
+        <f t="shared" si="3"/>
+        <v>725</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/metadata.xlsx
+++ b/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="455" documentId="13_ncr:1_{B1889C02-ECF2-4C3D-B7F8-15C2BDAC12A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{505A0582-C8EA-49F2-AF8E-EF6292764FB1}"/>
+  <xr:revisionPtr revIDLastSave="527" documentId="13_ncr:1_{B1889C02-ECF2-4C3D-B7F8-15C2BDAC12A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54303381-0D7A-44A6-8CEE-0A02ACF98163}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="231">
   <si>
     <t>Label</t>
   </si>
@@ -394,18 +394,6 @@
     <t>8334d</t>
   </si>
   <si>
-    <t>8413a</t>
-  </si>
-  <si>
-    <t>8413b</t>
-  </si>
-  <si>
-    <t>8414a</t>
-  </si>
-  <si>
-    <t>8414b</t>
-  </si>
-  <si>
     <t>8421a</t>
   </si>
   <si>
@@ -430,18 +418,6 @@
     <t>8432b</t>
   </si>
   <si>
-    <t>8433a</t>
-  </si>
-  <si>
-    <t>8433b</t>
-  </si>
-  <si>
-    <t>8434a</t>
-  </si>
-  <si>
-    <t>8434b</t>
-  </si>
-  <si>
     <t>8521a</t>
   </si>
   <si>
@@ -706,16 +682,52 @@
     <t>=IF(CJ3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 833, 110))</t>
   </si>
   <si>
-    <t>=IF(Z3&lt;20, 0, IF(R3="[False, 0, True, 0, False, 0, True, 0]", 841, 101))</t>
-  </si>
-  <si>
-    <t>=IF(AO3&lt;35, 0, IF(R3="[False, 0, True, 0, False, 0, True, 0]", 841, 103))</t>
-  </si>
-  <si>
-    <t>=IF(AF3&lt;20, 0, IF(R3="[True, 0, False, 0, False, 0, True, 0]", 841, 102))</t>
-  </si>
-  <si>
-    <t>=IF(AR3&lt;35, 0, IF(R3="[True, 0, False, 0, False, 0, True, 0]", 841, 104))</t>
+    <t>=IF(AO3&lt;32, 0, IF(R3="[False, 0, True, 0, False, 0, True, 0]", 841, 103))</t>
+  </si>
+  <si>
+    <t>=IF(AR3&lt;32, 0, IF(R3="[True, 0, False, 0, False, 0, True, 0]", 841, 104))</t>
+  </si>
+  <si>
+    <t>=IF(AF3&lt;19, 0, IF(R3="[True, 0, False, 0, False, 0, True, 0]", 841, 102))</t>
+  </si>
+  <si>
+    <t>=IF(Z3&lt;19, 0, IF(R3="[False, 0, True, 0, False, 0, True, 0]", 841, 101))</t>
+  </si>
+  <si>
+    <t>8411c</t>
+  </si>
+  <si>
+    <t>8411d</t>
+  </si>
+  <si>
+    <t>8412c</t>
+  </si>
+  <si>
+    <t>8412d</t>
+  </si>
+  <si>
+    <t>8431c</t>
+  </si>
+  <si>
+    <t>8431d</t>
+  </si>
+  <si>
+    <t>8432c</t>
+  </si>
+  <si>
+    <t>8432d</t>
+  </si>
+  <si>
+    <t>=IF(Z3=17, 0, IF(R3="[False, 0, True, 0, False, 0, True, 0]", 841, 101))</t>
+  </si>
+  <si>
+    <t>=IF(AO3=30, 0, IF(R3="[False, 0, True, 0, False, 0, True, 0]", 841, 103))</t>
+  </si>
+  <si>
+    <t>=IF(AF3=17, 0, IF(R3="[True, 0, False, 0, False, 0, True, 0]", 841, 102))</t>
+  </si>
+  <si>
+    <t>=IF(AR3=30, 0, IF(R3="[True, 0, False, 0, False, 0, True, 0]", 841, 104))</t>
   </si>
 </sst>
 </file>
@@ -1137,8 +1149,8 @@
   <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M81" sqref="M81"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1165,31 +1177,31 @@
         <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1225,7 +1237,7 @@
         <v>Valid</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1259,7 +1271,7 @@
         <v>Valid</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1293,7 +1305,7 @@
         <v>Valid</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1327,7 +1339,7 @@
         <v>Valid</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1361,7 +1373,7 @@
         <v>Valid</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1395,7 +1407,7 @@
         <v>Valid</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1429,7 +1441,7 @@
         <v>Valid</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1463,7 +1475,7 @@
         <v>Valid</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1499,7 +1511,7 @@
         <v>Valid</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1533,7 +1545,7 @@
         <v>Valid</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1567,7 +1579,7 @@
         <v>Valid</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1601,7 +1613,7 @@
         <v>Valid</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1635,7 +1647,7 @@
         <v>Valid</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1669,7 +1681,7 @@
         <v>Valid</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1703,7 +1715,7 @@
         <v>Valid</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1737,7 +1749,7 @@
         <v>Valid</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1773,7 +1785,7 @@
         <v>Valid</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1807,7 +1819,7 @@
         <v>Valid</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1841,7 +1853,7 @@
         <v>Valid</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1875,7 +1887,7 @@
         <v>Valid</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1909,7 +1921,7 @@
         <v>Valid</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1943,7 +1955,7 @@
         <v>Valid</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1977,7 +1989,7 @@
         <v>Valid</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2011,7 +2023,7 @@
         <v>Valid</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2045,7 +2057,7 @@
         <v>Valid</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2079,7 +2091,7 @@
         <v>Valid</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2113,7 +2125,7 @@
         <v>Valid</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2147,7 +2159,7 @@
         <v>Valid</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2181,7 +2193,7 @@
         <v>Valid</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2215,7 +2227,7 @@
         <v>Valid</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2249,7 +2261,7 @@
         <v>Valid</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2283,7 +2295,7 @@
         <v>Valid</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2319,7 +2331,7 @@
         <v>Valid</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2353,7 +2365,7 @@
         <v>Valid</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2387,7 +2399,7 @@
         <v>Valid</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2421,7 +2433,7 @@
         <v>Valid</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2457,7 +2469,7 @@
         <v>Valid</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2491,7 +2503,7 @@
         <v>Valid</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2525,7 +2537,7 @@
         <v>Valid</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2592,7 +2604,7 @@
         <v>Valid</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2626,7 +2638,7 @@
         <v>Valid</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2660,7 +2672,7 @@
         <v>Valid</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2694,7 +2706,7 @@
         <v>Valid</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2728,7 +2740,7 @@
         <v>Valid</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2762,7 +2774,7 @@
         <v>Valid</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2796,7 +2808,7 @@
         <v>Valid</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2830,7 +2842,7 @@
         <v>Valid</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2866,7 +2878,7 @@
         <v>Valid</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2900,7 +2912,7 @@
         <v>Valid</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2934,7 +2946,7 @@
         <v>Valid</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2968,7 +2980,7 @@
         <v>Valid</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3002,7 +3014,7 @@
         <v>Valid</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3036,7 +3048,7 @@
         <v>Valid</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3070,7 +3082,7 @@
         <v>Valid</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3104,7 +3116,7 @@
         <v>Valid</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3138,7 +3150,7 @@
         <v>Valid</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3172,7 +3184,7 @@
         <v>Valid</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3206,7 +3218,7 @@
         <v>Valid</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3240,7 +3252,7 @@
         <v>Valid</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3274,7 +3286,7 @@
         <v>Valid</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3308,7 +3320,7 @@
         <v>Valid</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3342,7 +3354,7 @@
         <v>Valid</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3376,7 +3388,7 @@
         <v>Valid</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3412,7 +3424,7 @@
         <v>Valid</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3446,7 +3458,7 @@
         <v>Valid</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3480,7 +3492,7 @@
         <v>Valid</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3514,7 +3526,7 @@
         <v>Valid</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3548,7 +3560,7 @@
         <v>Valid</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3582,7 +3594,7 @@
         <v>Valid</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3616,7 +3628,7 @@
         <v>Valid</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3650,7 +3662,7 @@
         <v>Valid</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3686,7 +3698,7 @@
         <v>Valid</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3720,7 +3732,7 @@
         <v>Valid</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3754,7 +3766,7 @@
         <v>Valid</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3788,7 +3800,7 @@
         <v>Valid</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3822,7 +3834,7 @@
         <v>Valid</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3856,7 +3868,7 @@
         <v>Valid</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3890,7 +3902,7 @@
         <v>Valid</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3924,7 +3936,7 @@
         <v>Valid</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3958,7 +3970,7 @@
         <v>Valid</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -3992,7 +4004,7 @@
         <v>Valid</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4026,7 +4038,7 @@
         <v>Valid</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4060,7 +4072,7 @@
         <v>Valid</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4094,7 +4106,7 @@
         <v>Valid</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4128,7 +4140,7 @@
         <v>Valid</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4162,7 +4174,7 @@
         <v>Valid</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4196,7 +4208,7 @@
         <v>Valid</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4232,7 +4244,7 @@
         <v>Valid</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4240,12 +4252,24 @@
       <c r="B91" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="6"/>
+      <c r="C91" s="3">
+        <v>691</v>
+      </c>
+      <c r="D91" s="3">
+        <v>8190</v>
+      </c>
+      <c r="E91" s="3">
+        <v>691</v>
+      </c>
+      <c r="F91" s="3">
+        <v>320</v>
+      </c>
+      <c r="G91" s="3">
+        <v>242</v>
+      </c>
+      <c r="H91" s="6">
+        <v>129</v>
+      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4254,20 +4278,32 @@
         <v>Valid</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="C92" s="3">
+        <v>707</v>
+      </c>
+      <c r="D92" s="3">
+        <v>8396</v>
+      </c>
+      <c r="E92" s="3">
+        <v>707</v>
+      </c>
+      <c r="F92" s="3">
+        <v>327</v>
+      </c>
+      <c r="G92" s="3">
+        <v>247</v>
+      </c>
+      <c r="H92" s="6">
+        <v>133</v>
+      </c>
       <c r="I92" s="3">
         <v>0</v>
       </c>
@@ -4276,20 +4312,32 @@
         <v>Valid</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="6"/>
+        <v>220</v>
+      </c>
+      <c r="C93" s="3">
+        <v>690</v>
+      </c>
+      <c r="D93" s="3">
+        <v>8169</v>
+      </c>
+      <c r="E93" s="3">
+        <v>690</v>
+      </c>
+      <c r="F93" s="3">
+        <v>308</v>
+      </c>
+      <c r="G93" s="3">
+        <v>249</v>
+      </c>
+      <c r="H93" s="6">
+        <v>133</v>
+      </c>
       <c r="I93" s="3">
         <v>0</v>
       </c>
@@ -4298,58 +4346,100 @@
         <v>Valid</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C94" s="3">
+        <v>654</v>
+      </c>
+      <c r="D94" s="3">
+        <v>7843</v>
+      </c>
+      <c r="E94" s="3">
+        <v>654</v>
+      </c>
+      <c r="F94" s="3">
+        <v>281</v>
+      </c>
+      <c r="G94" s="3">
+        <v>313</v>
+      </c>
+      <c r="H94" s="6">
+        <v>60</v>
+      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
+      </c>
+      <c r="K94" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="C95" s="3">
+        <v>653</v>
+      </c>
+      <c r="D95" s="3">
+        <v>7949</v>
+      </c>
+      <c r="E95" s="3">
+        <v>653</v>
+      </c>
+      <c r="F95" s="3">
+        <v>262</v>
+      </c>
+      <c r="G95" s="3">
+        <v>331</v>
+      </c>
+      <c r="H95" s="6">
+        <v>60</v>
+      </c>
       <c r="I95" s="3">
         <v>0</v>
       </c>
       <c r="J95" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
+      </c>
+      <c r="K95" s="9" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="C96" s="3">
+        <v>658</v>
+      </c>
+      <c r="D96" s="3">
+        <v>7941</v>
+      </c>
+      <c r="E96" s="3">
+        <v>658</v>
+      </c>
+      <c r="F96" s="3">
+        <v>269</v>
+      </c>
+      <c r="G96" s="3">
+        <v>329</v>
+      </c>
+      <c r="H96" s="6">
+        <v>60</v>
+      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4357,18 +4447,33 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="C97" s="3">
+        <v>669</v>
+      </c>
+      <c r="D97" s="3">
+        <v>7979</v>
+      </c>
+      <c r="E97" s="3">
+        <v>669</v>
+      </c>
+      <c r="F97" s="3">
+        <v>266</v>
+      </c>
+      <c r="G97" s="3">
+        <v>343</v>
+      </c>
+      <c r="H97" s="6">
+        <v>60</v>
+      </c>
       <c r="I97" s="3">
         <v>0</v>
       </c>
@@ -4376,13 +4481,16 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>842</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4398,10 +4506,10 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -4417,10 +4525,10 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -4436,10 +4544,10 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4455,12 +4563,12 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>843</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4476,10 +4584,10 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4495,10 +4603,10 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="3" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4514,10 +4622,10 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="3" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4533,10 +4641,10 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4552,10 +4660,10 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -4571,10 +4679,10 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="3" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -4590,10 +4698,10 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="3" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -4609,7 +4717,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>851</v>
       </c>
@@ -4630,7 +4738,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="3" t="s">
         <v>34</v>
@@ -4649,7 +4757,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="3" t="s">
         <v>48</v>
@@ -4920,7 +5028,7 @@
         <v>852</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -4939,7 +5047,7 @@
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4958,7 +5066,7 @@
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -4977,7 +5085,7 @@
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -4996,7 +5104,7 @@
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -5015,7 +5123,7 @@
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -5034,7 +5142,7 @@
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -5053,7 +5161,7 @@
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -5074,7 +5182,7 @@
         <v>853</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -5093,7 +5201,7 @@
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -5112,7 +5220,7 @@
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -5131,7 +5239,7 @@
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -5150,7 +5258,7 @@
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
       <c r="B138" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -5169,7 +5277,7 @@
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
       <c r="B139" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -5188,7 +5296,7 @@
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
       <c r="B140" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -5207,7 +5315,7 @@
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -5226,7 +5334,7 @@
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -5245,7 +5353,7 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="B143" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -5264,7 +5372,7 @@
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
       <c r="B144" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -5283,7 +5391,7 @@
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -5302,7 +5410,7 @@
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -5321,7 +5429,7 @@
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
       <c r="B147" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -5340,7 +5448,7 @@
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -5359,7 +5467,7 @@
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -5456,7 +5564,7 @@
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -5475,7 +5583,7 @@
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
       <c r="B155" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -5494,7 +5602,7 @@
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -5513,7 +5621,7 @@
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -5534,7 +5642,7 @@
         <v>862</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -5553,7 +5661,7 @@
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="B159" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -5572,7 +5680,7 @@
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -5591,7 +5699,7 @@
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -5612,7 +5720,7 @@
         <v>863</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -5631,7 +5739,7 @@
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
       <c r="B163" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -5650,7 +5758,7 @@
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -5669,7 +5777,7 @@
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -5688,7 +5796,7 @@
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
       <c r="B166" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -5707,7 +5815,7 @@
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
       <c r="B167" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -5726,7 +5834,7 @@
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
       <c r="B168" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -5745,7 +5853,7 @@
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
       <c r="B169" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -5844,7 +5952,7 @@
         <v>872</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -5863,7 +5971,7 @@
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
       <c r="B175" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -5884,7 +5992,7 @@
         <v>873</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -5903,7 +6011,7 @@
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
       <c r="B177" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -5922,7 +6030,7 @@
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="12"/>
       <c r="B178" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -5941,7 +6049,7 @@
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
       <c r="B179" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -5964,27 +6072,27 @@
       <c r="B180" s="12"/>
       <c r="C180" s="3">
         <f>SUM(C2:C179)</f>
-        <v>69157</v>
+        <v>73879</v>
       </c>
       <c r="D180" s="3">
         <f t="shared" ref="D180:I180" si="3">SUM(D2:D179)</f>
-        <v>739028</v>
+        <v>795495</v>
       </c>
       <c r="E180" s="3">
         <f t="shared" si="3"/>
-        <v>69157</v>
+        <v>73879</v>
       </c>
       <c r="F180" s="3">
         <f t="shared" si="3"/>
-        <v>40036</v>
+        <v>42069</v>
       </c>
       <c r="G180" s="3">
         <f t="shared" si="3"/>
-        <v>20303</v>
+        <v>22357</v>
       </c>
       <c r="H180" s="6">
         <f t="shared" si="3"/>
-        <v>8093</v>
+        <v>8728</v>
       </c>
       <c r="I180" s="3">
         <f t="shared" si="3"/>
@@ -5993,11 +6101,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A162:A169"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="A180:B180"/>
     <mergeCell ref="A158:A161"/>
     <mergeCell ref="A42:A49"/>
     <mergeCell ref="A50:A65"/>
@@ -6010,11 +6118,11 @@
     <mergeCell ref="A126:A133"/>
     <mergeCell ref="A134:A149"/>
     <mergeCell ref="A150:A157"/>
-    <mergeCell ref="A162:A169"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/metadata.xlsx
+++ b/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="527" documentId="13_ncr:1_{B1889C02-ECF2-4C3D-B7F8-15C2BDAC12A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54303381-0D7A-44A6-8CEE-0A02ACF98163}"/>
+  <xr:revisionPtr revIDLastSave="675" documentId="13_ncr:1_{B1889C02-ECF2-4C3D-B7F8-15C2BDAC12A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBDB351F-A604-4B21-A857-706DBC1B6CA0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="247">
   <si>
     <t>Label</t>
   </si>
@@ -728,6 +728,54 @@
   </si>
   <si>
     <t>=IF(AR3=30, 0, IF(R3="[True, 0, False, 0, False, 0, True, 0]", 841, 104))</t>
+  </si>
+  <si>
+    <t>=IF(BR3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 842, 105))</t>
+  </si>
+  <si>
+    <t>=IF(BX3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 842, 106))</t>
+  </si>
+  <si>
+    <t>=IF(BR3&lt;27, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 842, 105))</t>
+  </si>
+  <si>
+    <t>=IF(BX3&lt;27, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 842, 106))</t>
+  </si>
+  <si>
+    <t>=IF(CA3&lt;27, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 843, 107))</t>
+  </si>
+  <si>
+    <t>=IF(CD3&lt;27, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 843, 108))</t>
+  </si>
+  <si>
+    <t>=IF(CG3&lt;27, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 843, 109))</t>
+  </si>
+  <si>
+    <t>=IF(CJ3&lt;27, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 843, 110))</t>
+  </si>
+  <si>
+    <t>=IF(CA3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 843, 107))</t>
+  </si>
+  <si>
+    <t>=IF(CD3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 843, 108))</t>
+  </si>
+  <si>
+    <t>=IF(CG3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 843, 109))</t>
+  </si>
+  <si>
+    <t>=IF(CJ3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, False, 0, False, 0]", 843, 110))</t>
+  </si>
+  <si>
+    <t>=IF(Z3=17, 0, IF(AND(C3="20:17:01:16:f0:23", E3="0x3102"), 851, 101))</t>
+  </si>
+  <si>
+    <t>=IF(AO3=30, 0, IF(AND(C3="20:17:01:16:f0:23", E3="0x3102"), 851, 103))</t>
+  </si>
+  <si>
+    <t>=IF(AF3=17, 0, IF(AND(C3="20:17:01:16:f0:32", E3="0x3101"), 851, 102))</t>
+  </si>
+  <si>
+    <t>=IF(AR3=30, 0, IF(AND(C3="20:17:01:16:f0:32", E3="0x3101"), 851, 104))</t>
   </si>
 </sst>
 </file>
@@ -877,10 +925,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1146,11 +1190,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242D98A4-6CBD-4CB3-8207-0942D773A1FC}">
-  <dimension ref="A1:K180"/>
+  <dimension ref="A1:L180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1210,8 @@
     <col min="9" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="109.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="12" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2264,7 +2309,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="3" t="s">
         <v>81</v>
@@ -2298,7 +2343,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>821</v>
       </c>
@@ -2334,7 +2379,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
@@ -2368,7 +2413,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="3" t="s">
         <v>8</v>
@@ -2402,7 +2447,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="3" t="s">
         <v>27</v>
@@ -2436,7 +2481,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>822</v>
       </c>
@@ -2472,7 +2517,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="3" t="s">
         <v>84</v>
@@ -2506,7 +2551,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="4" t="s">
         <v>85</v>
@@ -2536,11 +2581,14 @@
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="L40" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="3" t="s">
         <v>86</v>
@@ -2570,8 +2618,11 @@
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>823</v>
       </c>
@@ -2607,7 +2658,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="3" t="s">
         <v>88</v>
@@ -2641,7 +2692,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="3" t="s">
         <v>89</v>
@@ -2675,7 +2726,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="3" t="s">
         <v>90</v>
@@ -2709,7 +2760,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="3" t="s">
         <v>91</v>
@@ -2743,7 +2794,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="3" t="s">
         <v>92</v>
@@ -2777,7 +2828,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="3" t="s">
         <v>93</v>
@@ -4451,7 +4502,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="3" t="s">
         <v>222</v>
@@ -4485,19 +4536,31 @@
         <v>230</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>842</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="6"/>
+      <c r="C98" s="3">
+        <v>656</v>
+      </c>
+      <c r="D98" s="3">
+        <v>7759</v>
+      </c>
+      <c r="E98" s="3">
+        <v>656</v>
+      </c>
+      <c r="F98" s="3">
+        <v>443</v>
+      </c>
+      <c r="G98" s="3">
+        <v>137</v>
+      </c>
+      <c r="H98" s="6">
+        <v>76</v>
+      </c>
       <c r="I98" s="3">
         <v>0</v>
       </c>
@@ -4505,18 +4568,33 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="6"/>
+      <c r="C99" s="3">
+        <v>661</v>
+      </c>
+      <c r="D99" s="3">
+        <v>7791</v>
+      </c>
+      <c r="E99" s="3">
+        <v>661</v>
+      </c>
+      <c r="F99" s="3">
+        <v>450</v>
+      </c>
+      <c r="G99" s="3">
+        <v>135</v>
+      </c>
+      <c r="H99" s="6">
+        <v>76</v>
+      </c>
       <c r="I99" s="3">
         <v>0</v>
       </c>
@@ -4524,18 +4602,33 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K99" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="6"/>
+      <c r="C100" s="3">
+        <v>660</v>
+      </c>
+      <c r="D100" s="3">
+        <v>7847</v>
+      </c>
+      <c r="E100" s="3">
+        <v>660</v>
+      </c>
+      <c r="F100" s="3">
+        <v>268</v>
+      </c>
+      <c r="G100" s="3">
+        <v>332</v>
+      </c>
+      <c r="H100" s="6">
+        <v>60</v>
+      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4543,18 +4636,33 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K100" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="6"/>
+      <c r="C101" s="3">
+        <v>656</v>
+      </c>
+      <c r="D101" s="3">
+        <v>7734</v>
+      </c>
+      <c r="E101" s="3">
+        <v>656</v>
+      </c>
+      <c r="F101" s="3">
+        <v>249</v>
+      </c>
+      <c r="G101" s="3">
+        <v>347</v>
+      </c>
+      <c r="H101" s="6">
+        <v>60</v>
+      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -4562,20 +4670,35 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K101" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>843</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="6"/>
+      <c r="C102" s="3">
+        <v>659</v>
+      </c>
+      <c r="D102" s="3">
+        <v>7778</v>
+      </c>
+      <c r="E102" s="3">
+        <v>659</v>
+      </c>
+      <c r="F102" s="3">
+        <v>453</v>
+      </c>
+      <c r="G102" s="3">
+        <v>132</v>
+      </c>
+      <c r="H102" s="6">
+        <v>74</v>
+      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4583,18 +4706,33 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K102" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="6"/>
+      <c r="C103" s="3">
+        <v>653</v>
+      </c>
+      <c r="D103" s="3">
+        <v>7718</v>
+      </c>
+      <c r="E103" s="3">
+        <v>653</v>
+      </c>
+      <c r="F103" s="3">
+        <v>454</v>
+      </c>
+      <c r="G103" s="3">
+        <v>126</v>
+      </c>
+      <c r="H103" s="6">
+        <v>73</v>
+      </c>
       <c r="I103" s="3">
         <v>0</v>
       </c>
@@ -4602,18 +4740,33 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K103" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="6"/>
+      <c r="C104" s="3">
+        <v>656</v>
+      </c>
+      <c r="D104" s="3">
+        <v>7734</v>
+      </c>
+      <c r="E104" s="3">
+        <v>656</v>
+      </c>
+      <c r="F104" s="3">
+        <v>433</v>
+      </c>
+      <c r="G104" s="3">
+        <v>144</v>
+      </c>
+      <c r="H104" s="6">
+        <v>79</v>
+      </c>
       <c r="I104" s="3">
         <v>0</v>
       </c>
@@ -4621,18 +4774,33 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="6"/>
+      <c r="C105" s="3">
+        <v>657</v>
+      </c>
+      <c r="D105" s="3">
+        <v>7746</v>
+      </c>
+      <c r="E105" s="3">
+        <v>657</v>
+      </c>
+      <c r="F105" s="3">
+        <v>457</v>
+      </c>
+      <c r="G105" s="3">
+        <v>128</v>
+      </c>
+      <c r="H105" s="6">
+        <v>72</v>
+      </c>
       <c r="I105" s="3">
         <v>0</v>
       </c>
@@ -4640,18 +4808,33 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="6"/>
+      <c r="C106" s="3">
+        <v>655</v>
+      </c>
+      <c r="D106" s="3">
+        <v>7730</v>
+      </c>
+      <c r="E106" s="3">
+        <v>655</v>
+      </c>
+      <c r="F106" s="3">
+        <v>253</v>
+      </c>
+      <c r="G106" s="3">
+        <v>342</v>
+      </c>
+      <c r="H106" s="6">
+        <v>60</v>
+      </c>
       <c r="I106" s="3">
         <v>0</v>
       </c>
@@ -4659,18 +4842,33 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K106" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="6"/>
+      <c r="C107" s="3">
+        <v>656</v>
+      </c>
+      <c r="D107" s="3">
+        <v>7731</v>
+      </c>
+      <c r="E107" s="3">
+        <v>656</v>
+      </c>
+      <c r="F107" s="3">
+        <v>249</v>
+      </c>
+      <c r="G107" s="3">
+        <v>347</v>
+      </c>
+      <c r="H107" s="6">
+        <v>60</v>
+      </c>
       <c r="I107" s="3">
         <v>0</v>
       </c>
@@ -4678,18 +4876,33 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K107" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="6"/>
+      <c r="C108" s="3">
+        <v>654</v>
+      </c>
+      <c r="D108" s="3">
+        <v>7732</v>
+      </c>
+      <c r="E108" s="3">
+        <v>654</v>
+      </c>
+      <c r="F108" s="3">
+        <v>244</v>
+      </c>
+      <c r="G108" s="3">
+        <v>350</v>
+      </c>
+      <c r="H108" s="6">
+        <v>60</v>
+      </c>
       <c r="I108" s="3">
         <v>0</v>
       </c>
@@ -4697,18 +4910,33 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K108" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="6"/>
+      <c r="C109" s="3">
+        <v>657</v>
+      </c>
+      <c r="D109" s="3">
+        <v>7736</v>
+      </c>
+      <c r="E109" s="3">
+        <v>657</v>
+      </c>
+      <c r="F109" s="3">
+        <v>250</v>
+      </c>
+      <c r="G109" s="3">
+        <v>347</v>
+      </c>
+      <c r="H109" s="6">
+        <v>60</v>
+      </c>
       <c r="I109" s="3">
         <v>0</v>
       </c>
@@ -4716,20 +4944,35 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K109" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>851</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="6"/>
+      <c r="C110" s="3">
+        <v>905</v>
+      </c>
+      <c r="D110" s="3">
+        <v>7960</v>
+      </c>
+      <c r="E110" s="3">
+        <v>905</v>
+      </c>
+      <c r="F110" s="3">
+        <v>245</v>
+      </c>
+      <c r="G110" s="3">
+        <v>416</v>
+      </c>
+      <c r="H110" s="6">
+        <v>244</v>
+      </c>
       <c r="I110" s="3">
         <v>0</v>
       </c>
@@ -4737,18 +4980,33 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K110" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="6"/>
+      <c r="C111" s="3">
+        <v>884</v>
+      </c>
+      <c r="D111" s="3">
+        <v>7837</v>
+      </c>
+      <c r="E111" s="3">
+        <v>884</v>
+      </c>
+      <c r="F111" s="3">
+        <v>265</v>
+      </c>
+      <c r="G111" s="3">
+        <v>390</v>
+      </c>
+      <c r="H111" s="6">
+        <v>229</v>
+      </c>
       <c r="I111" s="3">
         <v>0</v>
       </c>
@@ -4756,37 +5014,70 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K111" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="3">
+      <c r="C112" s="4">
+        <v>893</v>
+      </c>
+      <c r="D112" s="4">
+        <v>7898</v>
+      </c>
+      <c r="E112" s="4">
+        <v>893</v>
+      </c>
+      <c r="F112" s="4">
+        <v>267</v>
+      </c>
+      <c r="G112" s="4">
+        <v>393</v>
+      </c>
+      <c r="H112" s="7">
+        <v>233</v>
+      </c>
+      <c r="I112" s="4">
         <v>0</v>
       </c>
       <c r="J112" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="L112" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="6"/>
+      <c r="C113" s="3">
+        <v>880</v>
+      </c>
+      <c r="D113" s="3">
+        <v>7757</v>
+      </c>
+      <c r="E113" s="3">
+        <v>880</v>
+      </c>
+      <c r="F113" s="3">
+        <v>254</v>
+      </c>
+      <c r="G113" s="3">
+        <v>395</v>
+      </c>
+      <c r="H113" s="6">
+        <v>231</v>
+      </c>
       <c r="I113" s="3">
         <v>0</v>
       </c>
@@ -4794,8 +5085,11 @@
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="3" t="s">
         <v>16</v>
@@ -4814,7 +5108,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="3" t="s">
         <v>35</v>
@@ -4833,7 +5127,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="3" t="s">
         <v>50</v>
@@ -4852,7 +5146,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="3" t="s">
         <v>51</v>
@@ -4871,7 +5165,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="3" t="s">
         <v>17</v>
@@ -4890,7 +5184,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="3" t="s">
         <v>36</v>
@@ -4909,7 +5203,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="3" t="s">
         <v>52</v>
@@ -4928,7 +5222,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="3" t="s">
         <v>53</v>
@@ -4947,7 +5241,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="3" t="s">
         <v>18</v>
@@ -4966,7 +5260,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="3" t="s">
         <v>37</v>
@@ -4985,7 +5279,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="3" t="s">
         <v>54</v>
@@ -5004,7 +5298,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="3" t="s">
         <v>55</v>
@@ -5023,7 +5317,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>852</v>
       </c>
@@ -5044,7 +5338,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="3" t="s">
         <v>128</v>
@@ -5063,7 +5357,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="3" t="s">
         <v>129</v>
@@ -6072,27 +6366,27 @@
       <c r="B180" s="12"/>
       <c r="C180" s="3">
         <f>SUM(C2:C179)</f>
-        <v>73879</v>
+        <v>85321</v>
       </c>
       <c r="D180" s="3">
         <f t="shared" ref="D180:I180" si="3">SUM(D2:D179)</f>
-        <v>795495</v>
+        <v>919983</v>
       </c>
       <c r="E180" s="3">
         <f t="shared" si="3"/>
-        <v>73879</v>
+        <v>85321</v>
       </c>
       <c r="F180" s="3">
         <f t="shared" si="3"/>
-        <v>42069</v>
+        <v>47303</v>
       </c>
       <c r="G180" s="3">
         <f t="shared" si="3"/>
-        <v>22357</v>
+        <v>26818</v>
       </c>
       <c r="H180" s="6">
         <f t="shared" si="3"/>
-        <v>8728</v>
+        <v>10475</v>
       </c>
       <c r="I180" s="3">
         <f t="shared" si="3"/>
@@ -6101,11 +6395,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A162:A169"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="A158:A161"/>
     <mergeCell ref="A42:A49"/>
     <mergeCell ref="A50:A65"/>
@@ -6118,11 +6412,11 @@
     <mergeCell ref="A126:A133"/>
     <mergeCell ref="A134:A149"/>
     <mergeCell ref="A150:A157"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A162:A169"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="A180:B180"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/metadata.xlsx
+++ b/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="675" documentId="13_ncr:1_{B1889C02-ECF2-4C3D-B7F8-15C2BDAC12A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBDB351F-A604-4B21-A857-706DBC1B6CA0}"/>
+  <xr:revisionPtr revIDLastSave="862" documentId="13_ncr:1_{B1889C02-ECF2-4C3D-B7F8-15C2BDAC12A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F841337B-A734-4F4F-8C8A-0EF69548EF78}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="253">
   <si>
     <t>Label</t>
   </si>
@@ -776,6 +776,24 @@
   </si>
   <si>
     <t>=IF(AR3=30, 0, IF(AND(C3="20:17:01:16:f0:32", E3="0x3101"), 851, 104))</t>
+  </si>
+  <si>
+    <t>=IF(BR3=26, 0, IF(R3="[True, 0, True, 0, True, 0, False, 0, False, 0, False, 0, False, 0]", 852, 105))</t>
+  </si>
+  <si>
+    <t>=IF(BX3=26, 0, IF(R3="[True, 0, True, 0, True, 0, False, 0, False, 0, False, 0, False, 0]", 852, 106))</t>
+  </si>
+  <si>
+    <t>=IF(CA3=26, 0, IF(R3="[False, 0, True, 0, False, 0, True, 0, True, 0, False, 0, False, 0]", 853, 107))</t>
+  </si>
+  <si>
+    <t>=IF(CD3=26, 0, IF(R3="[False, 0, True, 0, False, 0, True, 0, True, 0, False, 0, False, 0]", 853, 108))</t>
+  </si>
+  <si>
+    <t>=IF(CG3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, True, 0, True, 0]", 853, 109))</t>
+  </si>
+  <si>
+    <t>=IF(CJ3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, True, 0, True, 0]", 853, 110))</t>
   </si>
 </sst>
 </file>
@@ -925,6 +943,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1193,8 +1215,8 @@
   <dimension ref="A1:L180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H114" sqref="H114"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5094,18 +5116,33 @@
       <c r="B114" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="6"/>
+      <c r="C114" s="3">
+        <v>738</v>
+      </c>
+      <c r="D114" s="3">
+        <v>7882</v>
+      </c>
+      <c r="E114" s="3">
+        <v>738</v>
+      </c>
+      <c r="F114" s="3">
+        <v>265</v>
+      </c>
+      <c r="G114" s="3">
+        <v>393</v>
+      </c>
+      <c r="H114" s="6">
+        <v>80</v>
+      </c>
       <c r="I114" s="3">
         <v>0</v>
       </c>
       <c r="J114" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5113,18 +5150,33 @@
       <c r="B115" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="6"/>
+      <c r="C115" s="3">
+        <v>734</v>
+      </c>
+      <c r="D115" s="3">
+        <v>7861</v>
+      </c>
+      <c r="E115" s="3">
+        <v>734</v>
+      </c>
+      <c r="F115" s="3">
+        <v>254</v>
+      </c>
+      <c r="G115" s="3">
+        <v>400</v>
+      </c>
+      <c r="H115" s="6">
+        <v>80</v>
+      </c>
       <c r="I115" s="3">
         <v>0</v>
       </c>
       <c r="J115" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
+      </c>
+      <c r="K115" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5132,18 +5184,33 @@
       <c r="B116" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="6"/>
+      <c r="C116" s="3">
+        <v>738</v>
+      </c>
+      <c r="D116" s="3">
+        <v>7854</v>
+      </c>
+      <c r="E116" s="3">
+        <v>738</v>
+      </c>
+      <c r="F116" s="3">
+        <v>249</v>
+      </c>
+      <c r="G116" s="3">
+        <v>409</v>
+      </c>
+      <c r="H116" s="6">
+        <v>80</v>
+      </c>
       <c r="I116" s="3">
         <v>0</v>
       </c>
       <c r="J116" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
+      </c>
+      <c r="K116" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5151,18 +5218,33 @@
       <c r="B117" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="6"/>
+      <c r="C117" s="3">
+        <v>742</v>
+      </c>
+      <c r="D117" s="3">
+        <v>7908</v>
+      </c>
+      <c r="E117" s="3">
+        <v>742</v>
+      </c>
+      <c r="F117" s="3">
+        <v>255</v>
+      </c>
+      <c r="G117" s="3">
+        <v>407</v>
+      </c>
+      <c r="H117" s="6">
+        <v>80</v>
+      </c>
       <c r="I117" s="3">
         <v>0</v>
       </c>
       <c r="J117" s="8" t="str">
         <f t="shared" ref="J117:J179" si="2">IF(SUM(F117:I117)=E117, "Valid", "Error")</f>
         <v>Valid</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -5170,18 +5252,33 @@
       <c r="B118" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="6"/>
+      <c r="C118" s="3">
+        <v>785</v>
+      </c>
+      <c r="D118" s="3">
+        <v>7829</v>
+      </c>
+      <c r="E118" s="3">
+        <v>785</v>
+      </c>
+      <c r="F118" s="3">
+        <v>249</v>
+      </c>
+      <c r="G118" s="3">
+        <v>406</v>
+      </c>
+      <c r="H118" s="6">
+        <v>130</v>
+      </c>
       <c r="I118" s="3">
         <v>0</v>
       </c>
       <c r="J118" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
+      </c>
+      <c r="K118" s="9" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -5189,18 +5286,33 @@
       <c r="B119" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="6"/>
+      <c r="C119" s="3">
+        <v>784</v>
+      </c>
+      <c r="D119" s="3">
+        <v>7849</v>
+      </c>
+      <c r="E119" s="3">
+        <v>784</v>
+      </c>
+      <c r="F119" s="3">
+        <v>249</v>
+      </c>
+      <c r="G119" s="3">
+        <v>406</v>
+      </c>
+      <c r="H119" s="6">
+        <v>129</v>
+      </c>
       <c r="I119" s="3">
         <v>0</v>
       </c>
       <c r="J119" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -5208,18 +5320,33 @@
       <c r="B120" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="6"/>
+      <c r="C120" s="3">
+        <v>784</v>
+      </c>
+      <c r="D120" s="3">
+        <v>7843</v>
+      </c>
+      <c r="E120" s="3">
+        <v>784</v>
+      </c>
+      <c r="F120" s="3">
+        <v>247</v>
+      </c>
+      <c r="G120" s="3">
+        <v>407</v>
+      </c>
+      <c r="H120" s="6">
+        <v>130</v>
+      </c>
       <c r="I120" s="3">
         <v>0</v>
       </c>
       <c r="J120" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -5227,18 +5354,33 @@
       <c r="B121" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="6"/>
+      <c r="C121" s="3">
+        <v>778</v>
+      </c>
+      <c r="D121" s="3">
+        <v>7806</v>
+      </c>
+      <c r="E121" s="3">
+        <v>778</v>
+      </c>
+      <c r="F121" s="3">
+        <v>254</v>
+      </c>
+      <c r="G121" s="3">
+        <v>398</v>
+      </c>
+      <c r="H121" s="6">
+        <v>126</v>
+      </c>
       <c r="I121" s="3">
         <v>0</v>
       </c>
       <c r="J121" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5246,18 +5388,33 @@
       <c r="B122" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="6"/>
+      <c r="C122" s="3">
+        <v>715</v>
+      </c>
+      <c r="D122" s="3">
+        <v>7870</v>
+      </c>
+      <c r="E122" s="3">
+        <v>715</v>
+      </c>
+      <c r="F122" s="3">
+        <v>249</v>
+      </c>
+      <c r="G122" s="3">
+        <v>406</v>
+      </c>
+      <c r="H122" s="6">
+        <v>60</v>
+      </c>
       <c r="I122" s="3">
         <v>0</v>
       </c>
       <c r="J122" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5265,18 +5422,33 @@
       <c r="B123" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="6"/>
+      <c r="C123" s="3">
+        <v>718</v>
+      </c>
+      <c r="D123" s="3">
+        <v>7895</v>
+      </c>
+      <c r="E123" s="3">
+        <v>718</v>
+      </c>
+      <c r="F123" s="3">
+        <v>235</v>
+      </c>
+      <c r="G123" s="3">
+        <v>423</v>
+      </c>
+      <c r="H123" s="6">
+        <v>60</v>
+      </c>
       <c r="I123" s="3">
         <v>0</v>
       </c>
       <c r="J123" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5284,18 +5456,33 @@
       <c r="B124" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="6"/>
+      <c r="C124" s="3">
+        <v>720</v>
+      </c>
+      <c r="D124" s="3">
+        <v>7902</v>
+      </c>
+      <c r="E124" s="3">
+        <v>720</v>
+      </c>
+      <c r="F124" s="3">
+        <v>249</v>
+      </c>
+      <c r="G124" s="3">
+        <v>411</v>
+      </c>
+      <c r="H124" s="6">
+        <v>60</v>
+      </c>
       <c r="I124" s="3">
         <v>0</v>
       </c>
       <c r="J124" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
+      </c>
+      <c r="K124" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5303,18 +5490,33 @@
       <c r="B125" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="6"/>
+      <c r="C125" s="3">
+        <v>722</v>
+      </c>
+      <c r="D125" s="3">
+        <v>7910</v>
+      </c>
+      <c r="E125" s="3">
+        <v>722</v>
+      </c>
+      <c r="F125" s="3">
+        <v>249</v>
+      </c>
+      <c r="G125" s="3">
+        <v>413</v>
+      </c>
+      <c r="H125" s="6">
+        <v>60</v>
+      </c>
       <c r="I125" s="3">
         <v>0</v>
       </c>
       <c r="J125" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
+      </c>
+      <c r="K125" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5324,18 +5526,33 @@
       <c r="B126" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="6"/>
+      <c r="C126" s="3">
+        <v>893</v>
+      </c>
+      <c r="D126" s="3">
+        <v>7701</v>
+      </c>
+      <c r="E126" s="3">
+        <v>893</v>
+      </c>
+      <c r="F126" s="3">
+        <v>241</v>
+      </c>
+      <c r="G126" s="3">
+        <v>410</v>
+      </c>
+      <c r="H126" s="6">
+        <v>242</v>
+      </c>
       <c r="I126" s="3">
         <v>0</v>
       </c>
       <c r="J126" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5343,18 +5560,33 @@
       <c r="B127" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="6"/>
+      <c r="C127" s="3">
+        <v>893</v>
+      </c>
+      <c r="D127" s="3">
+        <v>7708</v>
+      </c>
+      <c r="E127" s="3">
+        <v>893</v>
+      </c>
+      <c r="F127" s="3">
+        <v>246</v>
+      </c>
+      <c r="G127" s="3">
+        <v>408</v>
+      </c>
+      <c r="H127" s="6">
+        <v>239</v>
+      </c>
       <c r="I127" s="3">
         <v>0</v>
       </c>
       <c r="J127" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5362,12 +5594,24 @@
       <c r="B128" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="6"/>
+      <c r="C128" s="3">
+        <v>744</v>
+      </c>
+      <c r="D128" s="3">
+        <v>7859</v>
+      </c>
+      <c r="E128" s="3">
+        <v>744</v>
+      </c>
+      <c r="F128" s="3">
+        <v>226</v>
+      </c>
+      <c r="G128" s="3">
+        <v>438</v>
+      </c>
+      <c r="H128" s="6">
+        <v>80</v>
+      </c>
       <c r="I128" s="3">
         <v>0</v>
       </c>
@@ -5375,18 +5619,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="6"/>
+      <c r="C129" s="3">
+        <v>745</v>
+      </c>
+      <c r="D129" s="3">
+        <v>7866</v>
+      </c>
+      <c r="E129" s="3">
+        <v>745</v>
+      </c>
+      <c r="F129" s="3">
+        <v>235</v>
+      </c>
+      <c r="G129" s="3">
+        <v>430</v>
+      </c>
+      <c r="H129" s="6">
+        <v>80</v>
+      </c>
       <c r="I129" s="3">
         <v>0</v>
       </c>
@@ -5394,18 +5653,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="6"/>
+      <c r="C130" s="3">
+        <v>793</v>
+      </c>
+      <c r="D130" s="3">
+        <v>7831</v>
+      </c>
+      <c r="E130" s="3">
+        <v>793</v>
+      </c>
+      <c r="F130" s="3">
+        <v>245</v>
+      </c>
+      <c r="G130" s="3">
+        <v>416</v>
+      </c>
+      <c r="H130" s="6">
+        <v>132</v>
+      </c>
       <c r="I130" s="3">
         <v>0</v>
       </c>
@@ -5413,18 +5687,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="6"/>
+      <c r="C131" s="3">
+        <v>784</v>
+      </c>
+      <c r="D131" s="3">
+        <v>7716</v>
+      </c>
+      <c r="E131" s="3">
+        <v>784</v>
+      </c>
+      <c r="F131" s="3">
+        <v>248</v>
+      </c>
+      <c r="G131" s="3">
+        <v>406</v>
+      </c>
+      <c r="H131" s="6">
+        <v>130</v>
+      </c>
       <c r="I131" s="3">
         <v>0</v>
       </c>
@@ -5432,18 +5721,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="6"/>
+      <c r="C132" s="3">
+        <v>718</v>
+      </c>
+      <c r="D132" s="3">
+        <v>7783</v>
+      </c>
+      <c r="E132" s="3">
+        <v>718</v>
+      </c>
+      <c r="F132" s="3">
+        <v>252</v>
+      </c>
+      <c r="G132" s="3">
+        <v>406</v>
+      </c>
+      <c r="H132" s="6">
+        <v>60</v>
+      </c>
       <c r="I132" s="3">
         <v>0</v>
       </c>
@@ -5451,18 +5755,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="6"/>
+      <c r="C133" s="3">
+        <v>719</v>
+      </c>
+      <c r="D133" s="3">
+        <v>7794</v>
+      </c>
+      <c r="E133" s="3">
+        <v>719</v>
+      </c>
+      <c r="F133" s="3">
+        <v>247</v>
+      </c>
+      <c r="G133" s="3">
+        <v>412</v>
+      </c>
+      <c r="H133" s="6">
+        <v>60</v>
+      </c>
       <c r="I133" s="3">
         <v>0</v>
       </c>
@@ -5470,20 +5789,35 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>853</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="6"/>
+      <c r="C134" s="3">
+        <v>892</v>
+      </c>
+      <c r="D134" s="3">
+        <v>7509</v>
+      </c>
+      <c r="E134" s="3">
+        <v>892</v>
+      </c>
+      <c r="F134" s="3">
+        <v>277</v>
+      </c>
+      <c r="G134" s="3">
+        <v>388</v>
+      </c>
+      <c r="H134" s="6">
+        <v>227</v>
+      </c>
       <c r="I134" s="3">
         <v>0</v>
       </c>
@@ -5491,18 +5825,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="6"/>
+      <c r="C135" s="3">
+        <v>895</v>
+      </c>
+      <c r="D135" s="3">
+        <v>7760</v>
+      </c>
+      <c r="E135" s="3">
+        <v>895</v>
+      </c>
+      <c r="F135" s="3">
+        <v>253</v>
+      </c>
+      <c r="G135" s="3">
+        <v>405</v>
+      </c>
+      <c r="H135" s="6">
+        <v>237</v>
+      </c>
       <c r="I135" s="3">
         <v>0</v>
       </c>
@@ -5510,18 +5859,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="6"/>
+      <c r="C136" s="3">
+        <v>885</v>
+      </c>
+      <c r="D136" s="3">
+        <v>7635</v>
+      </c>
+      <c r="E136" s="3">
+        <v>885</v>
+      </c>
+      <c r="F136" s="3">
+        <v>240</v>
+      </c>
+      <c r="G136" s="3">
+        <v>406</v>
+      </c>
+      <c r="H136" s="6">
+        <v>239</v>
+      </c>
       <c r="I136" s="3">
         <v>0</v>
       </c>
@@ -5529,18 +5893,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="6"/>
+      <c r="C137" s="3">
+        <v>888</v>
+      </c>
+      <c r="D137" s="3">
+        <v>7696</v>
+      </c>
+      <c r="E137" s="3">
+        <v>888</v>
+      </c>
+      <c r="F137" s="3">
+        <v>250</v>
+      </c>
+      <c r="G137" s="3">
+        <v>402</v>
+      </c>
+      <c r="H137" s="6">
+        <v>236</v>
+      </c>
       <c r="I137" s="3">
         <v>0</v>
       </c>
@@ -5548,18 +5927,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
       <c r="B138" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="6"/>
+      <c r="C138" s="3">
+        <v>733</v>
+      </c>
+      <c r="D138" s="3">
+        <v>7736</v>
+      </c>
+      <c r="E138" s="3">
+        <v>733</v>
+      </c>
+      <c r="F138" s="3">
+        <v>248</v>
+      </c>
+      <c r="G138" s="3">
+        <v>405</v>
+      </c>
+      <c r="H138" s="6">
+        <v>80</v>
+      </c>
       <c r="I138" s="3">
         <v>0</v>
       </c>
@@ -5567,18 +5961,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
       <c r="B139" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="6"/>
+      <c r="C139" s="3">
+        <v>731</v>
+      </c>
+      <c r="D139" s="3">
+        <v>7701</v>
+      </c>
+      <c r="E139" s="3">
+        <v>731</v>
+      </c>
+      <c r="F139" s="3">
+        <v>246</v>
+      </c>
+      <c r="G139" s="3">
+        <v>405</v>
+      </c>
+      <c r="H139" s="6">
+        <v>80</v>
+      </c>
       <c r="I139" s="3">
         <v>0</v>
       </c>
@@ -5586,8 +5995,11 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
       <c r="B140" s="3" t="s">
         <v>141</v>
@@ -5597,16 +6009,21 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="6"/>
+      <c r="H140" s="6">
+        <v>80</v>
+      </c>
       <c r="I140" s="3">
         <v>0</v>
       </c>
       <c r="J140" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Error</v>
+      </c>
+      <c r="K140" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="3" t="s">
         <v>142</v>
@@ -5616,16 +6033,21 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
-      <c r="H141" s="6"/>
+      <c r="H141" s="6">
+        <v>80</v>
+      </c>
       <c r="I141" s="3">
         <v>0</v>
       </c>
       <c r="J141" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Error</v>
+      </c>
+      <c r="K141" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="3" t="s">
         <v>143</v>
@@ -5643,8 +6065,11 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="B143" s="3" t="s">
         <v>144</v>
@@ -5662,8 +6087,11 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
       <c r="B144" s="3" t="s">
         <v>145</v>
@@ -5681,8 +6109,11 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="3" t="s">
         <v>146</v>
@@ -5700,8 +6131,11 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="3" t="s">
         <v>147</v>
@@ -5711,16 +6145,21 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="6"/>
+      <c r="H146" s="6">
+        <v>60</v>
+      </c>
       <c r="I146" s="3">
         <v>0</v>
       </c>
       <c r="J146" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Error</v>
+      </c>
+      <c r="K146" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
       <c r="B147" s="3" t="s">
         <v>148</v>
@@ -5730,16 +6169,21 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="6"/>
+      <c r="H147" s="6">
+        <v>60</v>
+      </c>
       <c r="I147" s="3">
         <v>0</v>
       </c>
       <c r="J147" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Error</v>
+      </c>
+      <c r="K147" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="3" t="s">
         <v>149</v>
@@ -5749,16 +6193,21 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="6"/>
+      <c r="H148" s="6">
+        <v>60</v>
+      </c>
       <c r="I148" s="3">
         <v>0</v>
       </c>
       <c r="J148" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Error</v>
+      </c>
+      <c r="K148" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="3" t="s">
         <v>150</v>
@@ -5768,16 +6217,21 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
-      <c r="H149" s="6"/>
+      <c r="H149" s="6">
+        <v>60</v>
+      </c>
       <c r="I149" s="3">
         <v>0</v>
       </c>
       <c r="J149" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>Error</v>
+      </c>
+      <c r="K149" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <v>861</v>
       </c>
@@ -5798,7 +6252,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="3" t="s">
         <v>38</v>
@@ -5817,7 +6271,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="3" t="s">
         <v>20</v>
@@ -5836,7 +6290,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="3" t="s">
         <v>39</v>
@@ -5855,7 +6309,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="3" t="s">
         <v>151</v>
@@ -5874,7 +6328,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
       <c r="B155" s="3" t="s">
         <v>152</v>
@@ -5893,7 +6347,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="3" t="s">
         <v>153</v>
@@ -5912,7 +6366,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="3" t="s">
         <v>154</v>
@@ -5931,7 +6385,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>862</v>
       </c>
@@ -5952,7 +6406,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="B159" s="3" t="s">
         <v>156</v>
@@ -5971,7 +6425,7 @@
         <v>Valid</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="3" t="s">
         <v>157</v>
@@ -6366,27 +6820,27 @@
       <c r="B180" s="12"/>
       <c r="C180" s="3">
         <f>SUM(C2:C179)</f>
-        <v>85321</v>
+        <v>105592</v>
       </c>
       <c r="D180" s="3">
         <f t="shared" ref="D180:I180" si="3">SUM(D2:D179)</f>
-        <v>919983</v>
+        <v>1122687</v>
       </c>
       <c r="E180" s="3">
         <f t="shared" si="3"/>
-        <v>85321</v>
+        <v>105592</v>
       </c>
       <c r="F180" s="3">
         <f t="shared" si="3"/>
-        <v>47303</v>
+        <v>53761</v>
       </c>
       <c r="G180" s="3">
         <f t="shared" si="3"/>
-        <v>26818</v>
+        <v>37434</v>
       </c>
       <c r="H180" s="6">
         <f t="shared" si="3"/>
-        <v>10475</v>
+        <v>14072</v>
       </c>
       <c r="I180" s="3">
         <f t="shared" si="3"/>
@@ -6395,11 +6849,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A162:A169"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="A180:B180"/>
     <mergeCell ref="A158:A161"/>
     <mergeCell ref="A42:A49"/>
     <mergeCell ref="A50:A65"/>
@@ -6412,11 +6866,11 @@
     <mergeCell ref="A126:A133"/>
     <mergeCell ref="A134:A149"/>
     <mergeCell ref="A150:A157"/>
-    <mergeCell ref="A162:A169"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/metadata.xlsx
+++ b/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="862" documentId="13_ncr:1_{B1889C02-ECF2-4C3D-B7F8-15C2BDAC12A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F841337B-A734-4F4F-8C8A-0EF69548EF78}"/>
+  <xr:revisionPtr revIDLastSave="1117" documentId="13_ncr:1_{B1889C02-ECF2-4C3D-B7F8-15C2BDAC12A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FB3DEFD-3626-4ABC-9A1B-21D3D678A9A8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="275">
   <si>
     <t>Label</t>
   </si>
@@ -490,18 +490,6 @@
     <t>8534d</t>
   </si>
   <si>
-    <t>8613a</t>
-  </si>
-  <si>
-    <t>8613b</t>
-  </si>
-  <si>
-    <t>8614a</t>
-  </si>
-  <si>
-    <t>8614b</t>
-  </si>
-  <si>
     <t>8621a</t>
   </si>
   <si>
@@ -526,18 +514,6 @@
     <t>8632b</t>
   </si>
   <si>
-    <t>8633a</t>
-  </si>
-  <si>
-    <t>8633b</t>
-  </si>
-  <si>
-    <t>8634a</t>
-  </si>
-  <si>
-    <t>8634b</t>
-  </si>
-  <si>
     <t>872a</t>
   </si>
   <si>
@@ -794,6 +770,96 @@
   </si>
   <si>
     <t>=IF(CJ3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, True, 0, True, 0]", 853, 110))</t>
+  </si>
+  <si>
+    <t>=IF(AF3=17, 0, IF(AND(E3="0x3101", R3="[True, 0, True, 0, True, 0, False, 0]"), 861, 103))</t>
+  </si>
+  <si>
+    <t>=IF(AR3=30, 0, IF(AND(E3="0x3101", R3="[True, 0, True, 0, True, 0, False, 0]"), 861, 104))</t>
+  </si>
+  <si>
+    <t>8611c</t>
+  </si>
+  <si>
+    <t>8611d</t>
+  </si>
+  <si>
+    <t>8612c</t>
+  </si>
+  <si>
+    <t>8612d</t>
+  </si>
+  <si>
+    <t>8631c</t>
+  </si>
+  <si>
+    <t>8631d</t>
+  </si>
+  <si>
+    <t>8632c</t>
+  </si>
+  <si>
+    <t>8632d</t>
+  </si>
+  <si>
+    <t>=IF(Z3=17, 0, IF(AND(E3="0x3102", R3="[True, 0, True, 0, True, 0, False, 0]"), 861, 101))</t>
+  </si>
+  <si>
+    <t>=IF(AO3=30, 0, IF(AND(E3="0x3102", R3="[True, 0, True, 0, True, 0, False, 0]"), 861, 102))</t>
+  </si>
+  <si>
+    <t>=IF(AND(AF3&gt;0, AF3&lt;19), 0, IF(AND(E3="0x3101", R3="[True, 0, True, 0, True, 0, False, 0]"), 861, 103))</t>
+  </si>
+  <si>
+    <t>=IF(AND(Z3&gt;0, Z3&lt;19), 0, IF(AND(E3="0x3102", R3="[True, 0, True, 0, True, 0, False, 0]"), 861, 101))</t>
+  </si>
+  <si>
+    <t>=IF(BR3=26, 0, IF(R3="[True, 0, True, 0, True, 0, False, 0, False, 0, False, 0, False, 0]", 862, 105))</t>
+  </si>
+  <si>
+    <t>=IF(BX3=26, 0, IF(R3="[True, 0, True, 0, True, 0, False, 0, False, 0, False, 0, False, 0]", 862, 106))</t>
+  </si>
+  <si>
+    <t>=IF(CA3=26, 0, IF(R3="[False, 0, True, 0, False, 0, True, 0, True, 0, False, 0, False, 0]", 863, 107))</t>
+  </si>
+  <si>
+    <t>=IF(CD3=26, 0, IF(R3="[False, 0, True, 0, False, 0, True, 0, True, 0, False, 0, False, 0]", 863, 108))</t>
+  </si>
+  <si>
+    <t>=IF(CG3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, True, 0, True, 0]", 863, 109))</t>
+  </si>
+  <si>
+    <t>=IF(CJ3=26, 0, IF(R3="[False, 0, True, 0, False, 0, False, 0, False, 0, True, 0, True, 0]", 863, 110))</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
 </sst>
 </file>
@@ -1215,8 +1281,8 @@
   <dimension ref="A1:L180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G140" sqref="G140"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K176" sqref="K176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1244,31 +1310,31 @@
         <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1304,7 +1370,7 @@
         <v>Valid</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1338,7 +1404,7 @@
         <v>Valid</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1372,7 +1438,7 @@
         <v>Valid</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1406,7 +1472,7 @@
         <v>Valid</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1440,7 +1506,7 @@
         <v>Valid</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1474,7 +1540,7 @@
         <v>Valid</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1508,7 +1574,7 @@
         <v>Valid</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1542,7 +1608,7 @@
         <v>Valid</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1578,7 +1644,7 @@
         <v>Valid</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1612,7 +1678,7 @@
         <v>Valid</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1646,7 +1712,7 @@
         <v>Valid</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1680,7 +1746,7 @@
         <v>Valid</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1714,7 +1780,7 @@
         <v>Valid</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1748,7 +1814,7 @@
         <v>Valid</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1782,7 +1848,7 @@
         <v>Valid</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1816,7 +1882,7 @@
         <v>Valid</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1852,7 +1918,7 @@
         <v>Valid</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1886,7 +1952,7 @@
         <v>Valid</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1920,7 +1986,7 @@
         <v>Valid</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1954,7 +2020,7 @@
         <v>Valid</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1988,7 +2054,7 @@
         <v>Valid</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2022,7 +2088,7 @@
         <v>Valid</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2056,7 +2122,7 @@
         <v>Valid</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2090,7 +2156,7 @@
         <v>Valid</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2124,7 +2190,7 @@
         <v>Valid</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2158,7 +2224,7 @@
         <v>Valid</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2192,7 +2258,7 @@
         <v>Valid</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2226,7 +2292,7 @@
         <v>Valid</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2260,7 +2326,7 @@
         <v>Valid</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2294,7 +2360,7 @@
         <v>Valid</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2328,7 +2394,7 @@
         <v>Valid</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2362,7 +2428,7 @@
         <v>Valid</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2398,7 +2464,7 @@
         <v>Valid</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2432,7 +2498,7 @@
         <v>Valid</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2466,7 +2532,7 @@
         <v>Valid</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2500,7 +2566,7 @@
         <v>Valid</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2536,7 +2602,7 @@
         <v>Valid</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2570,7 +2636,7 @@
         <v>Valid</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2604,10 +2670,10 @@
         <v>Valid</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2641,7 +2707,7 @@
         <v>Valid</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2677,7 +2743,7 @@
         <v>Valid</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2711,7 +2777,7 @@
         <v>Valid</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2745,7 +2811,7 @@
         <v>Valid</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2779,7 +2845,7 @@
         <v>Valid</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2813,7 +2879,7 @@
         <v>Valid</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2847,7 +2913,7 @@
         <v>Valid</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2881,7 +2947,7 @@
         <v>Valid</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2915,7 +2981,7 @@
         <v>Valid</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2951,7 +3017,7 @@
         <v>Valid</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2985,7 +3051,7 @@
         <v>Valid</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3019,7 +3085,7 @@
         <v>Valid</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3053,7 +3119,7 @@
         <v>Valid</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3087,7 +3153,7 @@
         <v>Valid</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3121,7 +3187,7 @@
         <v>Valid</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3155,7 +3221,7 @@
         <v>Valid</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3189,7 +3255,7 @@
         <v>Valid</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3223,7 +3289,7 @@
         <v>Valid</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3257,7 +3323,7 @@
         <v>Valid</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3291,7 +3357,7 @@
         <v>Valid</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3325,7 +3391,7 @@
         <v>Valid</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3359,7 +3425,7 @@
         <v>Valid</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3393,7 +3459,7 @@
         <v>Valid</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3427,7 +3493,7 @@
         <v>Valid</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3461,7 +3527,7 @@
         <v>Valid</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3497,7 +3563,7 @@
         <v>Valid</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3531,7 +3597,7 @@
         <v>Valid</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3565,7 +3631,7 @@
         <v>Valid</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3599,7 +3665,7 @@
         <v>Valid</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3633,7 +3699,7 @@
         <v>Valid</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3667,7 +3733,7 @@
         <v>Valid</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3701,7 +3767,7 @@
         <v>Valid</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3735,7 +3801,7 @@
         <v>Valid</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3771,7 +3837,7 @@
         <v>Valid</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3805,7 +3871,7 @@
         <v>Valid</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3839,7 +3905,7 @@
         <v>Valid</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3873,7 +3939,7 @@
         <v>Valid</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3907,7 +3973,7 @@
         <v>Valid</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3941,7 +4007,7 @@
         <v>Valid</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3975,7 +4041,7 @@
         <v>Valid</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4009,7 +4075,7 @@
         <v>Valid</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4043,7 +4109,7 @@
         <v>Valid</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4077,7 +4143,7 @@
         <v>Valid</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4111,7 +4177,7 @@
         <v>Valid</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4145,7 +4211,7 @@
         <v>Valid</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4179,7 +4245,7 @@
         <v>Valid</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4213,7 +4279,7 @@
         <v>Valid</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4247,7 +4313,7 @@
         <v>Valid</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4281,7 +4347,7 @@
         <v>Valid</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4317,7 +4383,7 @@
         <v>Valid</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4351,13 +4417,13 @@
         <v>Valid</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C92" s="3">
         <v>707</v>
@@ -4385,13 +4451,13 @@
         <v>Valid</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C93" s="3">
         <v>690</v>
@@ -4419,7 +4485,7 @@
         <v>Valid</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4453,7 +4519,7 @@
         <v>Valid</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4487,13 +4553,13 @@
         <v>Valid</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C96" s="3">
         <v>658</v>
@@ -4521,13 +4587,13 @@
         <v>Valid</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C97" s="3">
         <v>669</v>
@@ -4555,7 +4621,7 @@
         <v>Valid</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4591,7 +4657,7 @@
         <v>Valid</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4625,7 +4691,7 @@
         <v>Valid</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4659,7 +4725,7 @@
         <v>Valid</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4693,7 +4759,7 @@
         <v>Valid</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4729,7 +4795,7 @@
         <v>Valid</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4763,13 +4829,13 @@
         <v>Valid</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C104" s="3">
         <v>656</v>
@@ -4797,13 +4863,13 @@
         <v>Valid</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C105" s="3">
         <v>657</v>
@@ -4831,7 +4897,7 @@
         <v>Valid</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4865,7 +4931,7 @@
         <v>Valid</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4899,13 +4965,13 @@
         <v>Valid</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C108" s="3">
         <v>654</v>
@@ -4933,13 +4999,13 @@
         <v>Valid</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C109" s="3">
         <v>657</v>
@@ -4967,7 +5033,7 @@
         <v>Valid</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -5003,7 +5069,7 @@
         <v>Valid</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -5037,7 +5103,7 @@
         <v>Valid</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -5071,10 +5137,10 @@
         <v>Valid</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -5108,7 +5174,7 @@
         <v>Valid</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -5142,7 +5208,7 @@
         <v>Valid</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5176,7 +5242,7 @@
         <v>Valid</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5210,7 +5276,7 @@
         <v>Valid</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5244,7 +5310,7 @@
         <v>Valid</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -5278,7 +5344,7 @@
         <v>Valid</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -5312,7 +5378,7 @@
         <v>Valid</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -5346,7 +5412,7 @@
         <v>Valid</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -5380,7 +5446,7 @@
         <v>Valid</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5414,7 +5480,7 @@
         <v>Valid</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5448,7 +5514,7 @@
         <v>Valid</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5482,7 +5548,7 @@
         <v>Valid</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5516,7 +5582,7 @@
         <v>Valid</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5552,7 +5618,7 @@
         <v>Valid</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5586,7 +5652,7 @@
         <v>Valid</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5620,7 +5686,7 @@
         <v>Valid</v>
       </c>
       <c r="K128" s="9" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -5654,7 +5720,7 @@
         <v>Valid</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5688,7 +5754,7 @@
         <v>Valid</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -5722,7 +5788,7 @@
         <v>Valid</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -5756,7 +5822,7 @@
         <v>Valid</v>
       </c>
       <c r="K132" s="9" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -5790,7 +5856,7 @@
         <v>Valid</v>
       </c>
       <c r="K133" s="9" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5826,7 +5892,7 @@
         <v>Valid</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5860,7 +5926,7 @@
         <v>Valid</v>
       </c>
       <c r="K135" s="9" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5894,7 +5960,7 @@
         <v>Valid</v>
       </c>
       <c r="K136" s="9" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5928,7 +5994,7 @@
         <v>Valid</v>
       </c>
       <c r="K137" s="9" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5962,7 +6028,7 @@
         <v>Valid</v>
       </c>
       <c r="K138" s="9" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -5996,7 +6062,7 @@
         <v>Valid</v>
       </c>
       <c r="K139" s="9" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -6004,11 +6070,21 @@
       <c r="B140" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
+      <c r="C140" s="3">
+        <v>733</v>
+      </c>
+      <c r="D140" s="3">
+        <v>7711</v>
+      </c>
+      <c r="E140" s="3">
+        <v>733</v>
+      </c>
+      <c r="F140" s="3">
+        <v>252</v>
+      </c>
+      <c r="G140" s="3">
+        <v>401</v>
+      </c>
       <c r="H140" s="6">
         <v>80</v>
       </c>
@@ -6017,10 +6093,10 @@
       </c>
       <c r="J140" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="K140" s="9" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -6028,11 +6104,21 @@
       <c r="B141" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
+      <c r="C141" s="3">
+        <v>734</v>
+      </c>
+      <c r="D141" s="3">
+        <v>7717</v>
+      </c>
+      <c r="E141" s="3">
+        <v>734</v>
+      </c>
+      <c r="F141" s="3">
+        <v>236</v>
+      </c>
+      <c r="G141" s="3">
+        <v>418</v>
+      </c>
       <c r="H141" s="6">
         <v>80</v>
       </c>
@@ -6041,10 +6127,10 @@
       </c>
       <c r="J141" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -6052,12 +6138,24 @@
       <c r="B142" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="6"/>
+      <c r="C142" s="3">
+        <v>781</v>
+      </c>
+      <c r="D142" s="3">
+        <v>7681</v>
+      </c>
+      <c r="E142" s="3">
+        <v>781</v>
+      </c>
+      <c r="F142" s="3">
+        <v>240</v>
+      </c>
+      <c r="G142" s="3">
+        <v>410</v>
+      </c>
+      <c r="H142" s="6">
+        <v>131</v>
+      </c>
       <c r="I142" s="3">
         <v>0</v>
       </c>
@@ -6066,7 +6164,7 @@
         <v>Valid</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -6074,12 +6172,24 @@
       <c r="B143" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="6"/>
+      <c r="C143" s="3">
+        <v>782</v>
+      </c>
+      <c r="D143" s="3">
+        <v>7693</v>
+      </c>
+      <c r="E143" s="3">
+        <v>782</v>
+      </c>
+      <c r="F143" s="3">
+        <v>244</v>
+      </c>
+      <c r="G143" s="3">
+        <v>409</v>
+      </c>
+      <c r="H143" s="6">
+        <v>129</v>
+      </c>
       <c r="I143" s="3">
         <v>0</v>
       </c>
@@ -6088,7 +6198,7 @@
         <v>Valid</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -6096,12 +6206,24 @@
       <c r="B144" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="6"/>
+      <c r="C144" s="3">
+        <v>780</v>
+      </c>
+      <c r="D144" s="3">
+        <v>7698</v>
+      </c>
+      <c r="E144" s="3">
+        <v>780</v>
+      </c>
+      <c r="F144" s="3">
+        <v>250</v>
+      </c>
+      <c r="G144" s="3">
+        <v>402</v>
+      </c>
+      <c r="H144" s="6">
+        <v>128</v>
+      </c>
       <c r="I144" s="3">
         <v>0</v>
       </c>
@@ -6110,20 +6232,32 @@
         <v>Valid</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="6"/>
+      <c r="C145" s="3">
+        <v>775</v>
+      </c>
+      <c r="D145" s="3">
+        <v>7697</v>
+      </c>
+      <c r="E145" s="3">
+        <v>775</v>
+      </c>
+      <c r="F145" s="3">
+        <v>268</v>
+      </c>
+      <c r="G145" s="3">
+        <v>385</v>
+      </c>
+      <c r="H145" s="6">
+        <v>122</v>
+      </c>
       <c r="I145" s="3">
         <v>0</v>
       </c>
@@ -6132,19 +6266,29 @@
         <v>Valid</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
+      <c r="C146" s="3">
+        <v>714</v>
+      </c>
+      <c r="D146" s="3">
+        <v>7726</v>
+      </c>
+      <c r="E146" s="3">
+        <v>714</v>
+      </c>
+      <c r="F146" s="3">
+        <v>245</v>
+      </c>
+      <c r="G146" s="3">
+        <v>409</v>
+      </c>
       <c r="H146" s="6">
         <v>60</v>
       </c>
@@ -6153,22 +6297,32 @@
       </c>
       <c r="J146" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="K146" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
       <c r="B147" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
+      <c r="C147" s="3">
+        <v>713</v>
+      </c>
+      <c r="D147" s="3">
+        <v>7707</v>
+      </c>
+      <c r="E147" s="3">
+        <v>713</v>
+      </c>
+      <c r="F147" s="3">
+        <v>244</v>
+      </c>
+      <c r="G147" s="3">
+        <v>409</v>
+      </c>
       <c r="H147" s="6">
         <v>60</v>
       </c>
@@ -6177,22 +6331,32 @@
       </c>
       <c r="J147" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="K147" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
+      <c r="C148" s="3">
+        <v>710</v>
+      </c>
+      <c r="D148" s="3">
+        <v>7726</v>
+      </c>
+      <c r="E148" s="3">
+        <v>710</v>
+      </c>
+      <c r="F148" s="3">
+        <v>244</v>
+      </c>
+      <c r="G148" s="3">
+        <v>406</v>
+      </c>
       <c r="H148" s="6">
         <v>60</v>
       </c>
@@ -6201,22 +6365,32 @@
       </c>
       <c r="J148" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
+      <c r="C149" s="3">
+        <v>712</v>
+      </c>
+      <c r="D149" s="3">
+        <v>7713</v>
+      </c>
+      <c r="E149" s="3">
+        <v>712</v>
+      </c>
+      <c r="F149" s="3">
+        <v>240</v>
+      </c>
+      <c r="G149" s="3">
+        <v>412</v>
+      </c>
       <c r="H149" s="6">
         <v>60</v>
       </c>
@@ -6225,25 +6399,37 @@
       </c>
       <c r="J149" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>Error</v>
+        <v>Valid</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <v>861</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="6"/>
+      <c r="C150" s="3">
+        <v>678</v>
+      </c>
+      <c r="D150" s="3">
+        <v>7934</v>
+      </c>
+      <c r="E150" s="3">
+        <v>678</v>
+      </c>
+      <c r="F150" s="3">
+        <v>270</v>
+      </c>
+      <c r="G150" s="3">
+        <v>271</v>
+      </c>
+      <c r="H150" s="6">
+        <v>137</v>
+      </c>
       <c r="I150" s="3">
         <v>0</v>
       </c>
@@ -6251,18 +6437,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K150" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="6"/>
+      <c r="C151" s="3">
+        <v>673</v>
+      </c>
+      <c r="D151" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E151" s="3">
+        <v>673</v>
+      </c>
+      <c r="F151" s="3">
+        <v>261</v>
+      </c>
+      <c r="G151" s="3">
+        <v>272</v>
+      </c>
+      <c r="H151" s="6">
+        <v>140</v>
+      </c>
       <c r="I151" s="3">
         <v>0</v>
       </c>
@@ -6270,18 +6471,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K151" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="C152" s="3">
+        <v>676</v>
+      </c>
+      <c r="D152" s="3">
+        <v>8108</v>
+      </c>
+      <c r="E152" s="3">
+        <v>676</v>
+      </c>
+      <c r="F152" s="3">
+        <v>263</v>
+      </c>
+      <c r="G152" s="3">
+        <v>272</v>
+      </c>
+      <c r="H152" s="6">
+        <v>141</v>
+      </c>
       <c r="I152" s="3">
         <v>0</v>
       </c>
@@ -6289,18 +6505,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K152" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="6"/>
+        <v>248</v>
+      </c>
+      <c r="C153" s="3">
+        <v>681</v>
+      </c>
+      <c r="D153" s="3">
+        <v>7912</v>
+      </c>
+      <c r="E153" s="3">
+        <v>681</v>
+      </c>
+      <c r="F153" s="3">
+        <v>255</v>
+      </c>
+      <c r="G153" s="3">
+        <v>282</v>
+      </c>
+      <c r="H153" s="6">
+        <v>144</v>
+      </c>
       <c r="I153" s="3">
         <v>0</v>
       </c>
@@ -6308,56 +6539,107 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K153" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
-      <c r="B154" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="3">
+      <c r="B154" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="4">
+        <v>676</v>
+      </c>
+      <c r="D154" s="4">
+        <v>7913</v>
+      </c>
+      <c r="E154" s="4">
+        <v>676</v>
+      </c>
+      <c r="F154" s="4">
+        <v>247</v>
+      </c>
+      <c r="G154" s="4">
+        <v>369</v>
+      </c>
+      <c r="H154" s="7">
+        <v>60</v>
+      </c>
+      <c r="I154" s="4">
         <v>0</v>
       </c>
       <c r="J154" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K154" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="L154" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
-      <c r="B155" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="3">
+      <c r="B155" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C155" s="4">
+        <v>679</v>
+      </c>
+      <c r="D155" s="4">
+        <v>7941</v>
+      </c>
+      <c r="E155" s="4">
+        <v>679</v>
+      </c>
+      <c r="F155" s="4">
+        <v>258</v>
+      </c>
+      <c r="G155" s="4">
+        <v>361</v>
+      </c>
+      <c r="H155" s="7">
+        <v>60</v>
+      </c>
+      <c r="I155" s="4">
         <v>0</v>
       </c>
       <c r="J155" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K155" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="L155" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="6"/>
+        <v>249</v>
+      </c>
+      <c r="C156" s="3">
+        <v>681</v>
+      </c>
+      <c r="D156" s="3">
+        <v>7938</v>
+      </c>
+      <c r="E156" s="3">
+        <v>681</v>
+      </c>
+      <c r="F156" s="3">
+        <v>252</v>
+      </c>
+      <c r="G156" s="3">
+        <v>369</v>
+      </c>
+      <c r="H156" s="6">
+        <v>60</v>
+      </c>
       <c r="I156" s="3">
         <v>0</v>
       </c>
@@ -6365,18 +6647,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K156" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="6"/>
+        <v>250</v>
+      </c>
+      <c r="C157" s="3">
+        <v>678</v>
+      </c>
+      <c r="D157" s="3">
+        <v>7909</v>
+      </c>
+      <c r="E157" s="3">
+        <v>678</v>
+      </c>
+      <c r="F157" s="3">
+        <v>256</v>
+      </c>
+      <c r="G157" s="3">
+        <v>362</v>
+      </c>
+      <c r="H157" s="6">
+        <v>60</v>
+      </c>
       <c r="I157" s="3">
         <v>0</v>
       </c>
@@ -6384,20 +6681,35 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K157" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>862</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="C158" s="3">
+        <v>656</v>
+      </c>
+      <c r="D158" s="3">
+        <v>7747</v>
+      </c>
+      <c r="E158" s="3">
+        <v>656</v>
+      </c>
+      <c r="F158" s="3">
+        <v>280</v>
+      </c>
+      <c r="G158" s="3">
+        <v>245</v>
+      </c>
+      <c r="H158" s="6">
+        <v>131</v>
+      </c>
       <c r="I158" s="3">
         <v>0</v>
       </c>
@@ -6405,18 +6717,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K158" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="B159" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="C159" s="3">
+        <v>657</v>
+      </c>
+      <c r="D159" s="3">
+        <v>7740</v>
+      </c>
+      <c r="E159" s="3">
+        <v>657</v>
+      </c>
+      <c r="F159" s="3">
+        <v>248</v>
+      </c>
+      <c r="G159" s="3">
+        <v>267</v>
+      </c>
+      <c r="H159" s="6">
+        <v>142</v>
+      </c>
       <c r="I159" s="3">
         <v>0</v>
       </c>
@@ -6424,18 +6751,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K159" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="C160" s="3">
+        <v>660</v>
+      </c>
+      <c r="D160" s="3">
+        <v>7783</v>
+      </c>
+      <c r="E160" s="3">
+        <v>660</v>
+      </c>
+      <c r="F160" s="3">
+        <v>246</v>
+      </c>
+      <c r="G160" s="3">
+        <v>354</v>
+      </c>
+      <c r="H160" s="6">
+        <v>60</v>
+      </c>
       <c r="I160" s="3">
         <v>0</v>
       </c>
@@ -6443,18 +6785,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="6"/>
+        <v>154</v>
+      </c>
+      <c r="C161" s="3">
+        <v>662</v>
+      </c>
+      <c r="D161" s="3">
+        <v>7779</v>
+      </c>
+      <c r="E161" s="3">
+        <v>662</v>
+      </c>
+      <c r="F161" s="3">
+        <v>270</v>
+      </c>
+      <c r="G161" s="3">
+        <v>332</v>
+      </c>
+      <c r="H161" s="6">
+        <v>60</v>
+      </c>
       <c r="I161" s="3">
         <v>0</v>
       </c>
@@ -6462,20 +6819,35 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
         <v>863</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="C162" s="3">
+        <v>654</v>
+      </c>
+      <c r="D162" s="3">
+        <v>7738</v>
+      </c>
+      <c r="E162" s="3">
+        <v>654</v>
+      </c>
+      <c r="F162" s="3">
+        <v>266</v>
+      </c>
+      <c r="G162" s="3">
+        <v>254</v>
+      </c>
+      <c r="H162" s="6">
+        <v>134</v>
+      </c>
       <c r="I162" s="3">
         <v>0</v>
       </c>
@@ -6483,18 +6855,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
       <c r="B163" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="6"/>
+        <v>156</v>
+      </c>
+      <c r="C163" s="3">
+        <v>658</v>
+      </c>
+      <c r="D163" s="3">
+        <v>7781</v>
+      </c>
+      <c r="E163" s="3">
+        <v>658</v>
+      </c>
+      <c r="F163" s="3">
+        <v>274</v>
+      </c>
+      <c r="G163" s="3">
+        <v>250</v>
+      </c>
+      <c r="H163" s="6">
+        <v>134</v>
+      </c>
       <c r="I163" s="3">
         <v>0</v>
       </c>
@@ -6502,18 +6889,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="6"/>
+        <v>251</v>
+      </c>
+      <c r="C164" s="3">
+        <v>658</v>
+      </c>
+      <c r="D164" s="3">
+        <v>7769</v>
+      </c>
+      <c r="E164" s="3">
+        <v>658</v>
+      </c>
+      <c r="F164" s="3">
+        <v>245</v>
+      </c>
+      <c r="G164" s="3">
+        <v>270</v>
+      </c>
+      <c r="H164" s="6">
+        <v>143</v>
+      </c>
       <c r="I164" s="3">
         <v>0</v>
       </c>
@@ -6521,18 +6923,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="6"/>
+        <v>252</v>
+      </c>
+      <c r="C165" s="3">
+        <v>687</v>
+      </c>
+      <c r="D165" s="3">
+        <v>7757</v>
+      </c>
+      <c r="E165" s="3">
+        <v>687</v>
+      </c>
+      <c r="F165" s="3">
+        <v>300</v>
+      </c>
+      <c r="G165" s="3">
+        <v>252</v>
+      </c>
+      <c r="H165" s="6">
+        <v>135</v>
+      </c>
       <c r="I165" s="3">
         <v>0</v>
       </c>
@@ -6540,18 +6957,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
       <c r="B166" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="6"/>
+        <v>157</v>
+      </c>
+      <c r="C166" s="3">
+        <v>656</v>
+      </c>
+      <c r="D166" s="3">
+        <v>7451</v>
+      </c>
+      <c r="E166" s="3">
+        <v>656</v>
+      </c>
+      <c r="F166" s="3">
+        <v>309</v>
+      </c>
+      <c r="G166" s="3">
+        <v>287</v>
+      </c>
+      <c r="H166" s="6">
+        <v>60</v>
+      </c>
       <c r="I166" s="3">
         <v>0</v>
       </c>
@@ -6559,56 +6991,107 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
-      <c r="B167" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="6"/>
-      <c r="I167" s="3">
+      <c r="B167" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C167" s="4">
+        <v>655</v>
+      </c>
+      <c r="D167" s="4">
+        <v>7717</v>
+      </c>
+      <c r="E167" s="4">
+        <v>655</v>
+      </c>
+      <c r="F167" s="4">
+        <v>247</v>
+      </c>
+      <c r="G167" s="4">
+        <v>349</v>
+      </c>
+      <c r="H167" s="7">
+        <v>59</v>
+      </c>
+      <c r="I167" s="4">
         <v>0</v>
       </c>
       <c r="J167" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="L167" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
-      <c r="B168" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="3">
+      <c r="B168" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C168" s="4">
+        <v>657</v>
+      </c>
+      <c r="D168" s="4">
+        <v>7749</v>
+      </c>
+      <c r="E168" s="4">
+        <v>657</v>
+      </c>
+      <c r="F168" s="4">
+        <v>246</v>
+      </c>
+      <c r="G168" s="4">
+        <v>352</v>
+      </c>
+      <c r="H168" s="7">
+        <v>59</v>
+      </c>
+      <c r="I168" s="4">
         <v>0</v>
       </c>
       <c r="J168" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="L168" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
       <c r="B169" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="6"/>
+        <v>254</v>
+      </c>
+      <c r="C169" s="3">
+        <v>652</v>
+      </c>
+      <c r="D169" s="3">
+        <v>7703</v>
+      </c>
+      <c r="E169" s="3">
+        <v>652</v>
+      </c>
+      <c r="F169" s="3">
+        <v>246</v>
+      </c>
+      <c r="G169" s="3">
+        <v>346</v>
+      </c>
+      <c r="H169" s="6">
+        <v>60</v>
+      </c>
       <c r="I169" s="3">
         <v>0</v>
       </c>
@@ -6616,20 +7099,35 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>871</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="6"/>
+      <c r="C170" s="3">
+        <v>659</v>
+      </c>
+      <c r="D170" s="3">
+        <v>8885</v>
+      </c>
+      <c r="E170" s="3">
+        <v>659</v>
+      </c>
+      <c r="F170" s="3">
+        <v>279</v>
+      </c>
+      <c r="G170" s="3">
+        <v>380</v>
+      </c>
+      <c r="H170" s="6">
+        <v>0</v>
+      </c>
       <c r="I170" s="3">
         <v>0</v>
       </c>
@@ -6637,18 +7135,33 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="6"/>
+      <c r="C171" s="3">
+        <v>658</v>
+      </c>
+      <c r="D171" s="3">
+        <v>8869</v>
+      </c>
+      <c r="E171" s="3">
+        <v>658</v>
+      </c>
+      <c r="F171" s="3">
+        <v>277</v>
+      </c>
+      <c r="G171" s="3">
+        <v>381</v>
+      </c>
+      <c r="H171" s="6">
+        <v>0</v>
+      </c>
       <c r="I171" s="3">
         <v>0</v>
       </c>
@@ -6656,8 +7169,11 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
       <c r="B172" s="3" t="s">
         <v>56</v>
@@ -6667,7 +7183,9 @@
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
-      <c r="H172" s="6"/>
+      <c r="H172" s="6">
+        <v>0</v>
+      </c>
       <c r="I172" s="3">
         <v>0</v>
       </c>
@@ -6675,8 +7193,11 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
       <c r="B173" s="3" t="s">
         <v>57</v>
@@ -6686,7 +7207,9 @@
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
-      <c r="H173" s="6"/>
+      <c r="H173" s="6">
+        <v>0</v>
+      </c>
       <c r="I173" s="3">
         <v>0</v>
       </c>
@@ -6694,20 +7217,25 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K173" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>872</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
-      <c r="H174" s="6"/>
+      <c r="H174" s="6">
+        <v>0</v>
+      </c>
       <c r="I174" s="3">
         <v>0</v>
       </c>
@@ -6715,18 +7243,23 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K174" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
       <c r="B175" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
-      <c r="H175" s="6"/>
+      <c r="H175" s="6">
+        <v>0</v>
+      </c>
       <c r="I175" s="3">
         <v>0</v>
       </c>
@@ -6734,20 +7267,25 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <v>873</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
-      <c r="H176" s="6"/>
+      <c r="H176" s="6">
+        <v>0</v>
+      </c>
       <c r="I176" s="3">
         <v>0</v>
       </c>
@@ -6755,18 +7293,23 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K176" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
       <c r="B177" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
-      <c r="H177" s="6"/>
+      <c r="H177" s="6">
+        <v>0</v>
+      </c>
       <c r="I177" s="3">
         <v>0</v>
       </c>
@@ -6774,18 +7317,23 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K177" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="12"/>
       <c r="B178" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
-      <c r="H178" s="6"/>
+      <c r="H178" s="6">
+        <v>0</v>
+      </c>
       <c r="I178" s="3">
         <v>0</v>
       </c>
@@ -6793,18 +7341,23 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K178" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
       <c r="B179" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
-      <c r="H179" s="6"/>
+      <c r="H179" s="6">
+        <v>0</v>
+      </c>
       <c r="I179" s="3">
         <v>0</v>
       </c>
@@ -6812,35 +7365,38 @@
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K179" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B180" s="12"/>
       <c r="C180" s="3">
         <f>SUM(C2:C179)</f>
-        <v>105592</v>
+        <v>127677</v>
       </c>
       <c r="D180" s="3">
         <f t="shared" ref="D180:I180" si="3">SUM(D2:D179)</f>
-        <v>1122687</v>
+        <v>1373779</v>
       </c>
       <c r="E180" s="3">
         <f t="shared" si="3"/>
-        <v>105592</v>
+        <v>127677</v>
       </c>
       <c r="F180" s="3">
         <f t="shared" si="3"/>
-        <v>53761</v>
+        <v>62019</v>
       </c>
       <c r="G180" s="3">
         <f t="shared" si="3"/>
-        <v>37434</v>
+        <v>48372</v>
       </c>
       <c r="H180" s="6">
         <f t="shared" si="3"/>
-        <v>14072</v>
+        <v>16561</v>
       </c>
       <c r="I180" s="3">
         <f t="shared" si="3"/>
@@ -6849,11 +7405,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A162:A169"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="A158:A161"/>
     <mergeCell ref="A42:A49"/>
     <mergeCell ref="A50:A65"/>
@@ -6866,12 +7422,15 @@
     <mergeCell ref="A126:A133"/>
     <mergeCell ref="A134:A149"/>
     <mergeCell ref="A150:A157"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A162:A169"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="A180:B180"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="K170:K179" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/metadata.xlsx
+++ b/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/metadata.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1117" documentId="13_ncr:1_{B1889C02-ECF2-4C3D-B7F8-15C2BDAC12A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FB3DEFD-3626-4ABC-9A1B-21D3D678A9A8}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{228AE550-B25F-4AF9-87BB-13233C72D6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D658BBC8-CC28-416A-BD2E-65D59D0988E5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="274">
   <si>
     <t>Label</t>
   </si>
@@ -584,9 +584,6 @@
   </si>
   <si>
     <t>=IF(R3="[False, 0, True, 0, True, 0, False, 0, False, 0, False, 0, False, 0]", 822, IF(BX3=0,  106, 0))</t>
-  </si>
-  <si>
-    <t>Need to generate and collect again</t>
   </si>
   <si>
     <t>=IF(R3="[False, 0, True, 0, False, 0, True, 0, False, 0, False, 0, False, 0]", 823, IF(CA3=0,  107, 0))</t>
@@ -883,7 +880,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -904,12 +900,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -945,11 +941,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -960,31 +969,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,11 +1293,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242D98A4-6CBD-4CB3-8207-0942D773A1FC}">
-  <dimension ref="A1:L180"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K176" sqref="K176"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J180" sqref="J180:K180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1295,9 +1311,9 @@
     <col min="6" max="6" width="9.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="109.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="109.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1324,17 +1340,17 @@
       <c r="G1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>170</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>203</v>
+      <c r="K1" s="8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1359,17 +1375,17 @@
       <c r="G2" s="3">
         <v>193</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>120</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="8" t="str">
+      <c r="J2" s="9" t="str">
         <f t="shared" ref="J2:J51" si="0">IF(SUM(F2:I2)=E2, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1393,17 +1409,17 @@
       <c r="G3" s="3">
         <v>193</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>120</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="J3" s="8" t="str">
+      <c r="J3" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1427,17 +1443,17 @@
       <c r="G4" s="3">
         <v>96</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>120</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="8" t="str">
+      <c r="J4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1461,17 +1477,17 @@
       <c r="G5" s="3">
         <v>95</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>120</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="8" t="str">
+      <c r="J5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1495,17 +1511,17 @@
       <c r="G6" s="3">
         <v>93</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>45</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="8" t="str">
+      <c r="J6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1529,17 +1545,17 @@
       <c r="G7" s="3">
         <v>92</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>45</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="8" t="str">
+      <c r="J7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1563,17 +1579,17 @@
       <c r="G8" s="3">
         <v>43</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>30</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="8" t="str">
+      <c r="J8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1597,17 +1613,17 @@
       <c r="G9" s="3">
         <v>45</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>30</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="8" t="str">
+      <c r="J9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1633,17 +1649,17 @@
       <c r="G10" s="3">
         <v>192</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>120</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="8" t="str">
+      <c r="J10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1667,17 +1683,17 @@
       <c r="G11" s="3">
         <v>192</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>120</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="8" t="str">
+      <c r="J11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1701,17 +1717,17 @@
       <c r="G12" s="3">
         <v>93</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>120</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="8" t="str">
+      <c r="J12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1735,17 +1751,17 @@
       <c r="G13" s="3">
         <v>95</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>120</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="8" t="str">
+      <c r="J13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1769,17 +1785,17 @@
       <c r="G14" s="3">
         <v>93</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>45</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="8" t="str">
+      <c r="J14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1803,17 +1819,17 @@
       <c r="G15" s="3">
         <v>92</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>45</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="8" t="str">
+      <c r="J15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1837,17 +1853,17 @@
       <c r="G16" s="3">
         <v>43</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>30</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
-      <c r="J16" s="8" t="str">
+      <c r="J16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1871,17 +1887,17 @@
       <c r="G17" s="3">
         <v>44</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>30</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="8" t="str">
+      <c r="J17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="8" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1907,17 +1923,17 @@
       <c r="G18" s="3">
         <v>190</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>120</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="8" t="str">
+      <c r="J18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="8" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1941,17 +1957,17 @@
       <c r="G19" s="3">
         <v>195</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>120</v>
       </c>
       <c r="I19" s="3">
         <v>0</v>
       </c>
-      <c r="J19" s="8" t="str">
+      <c r="J19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="8" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1975,17 +1991,17 @@
       <c r="G20" s="3">
         <v>194</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>120</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="8" t="str">
+      <c r="J20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="8" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2009,17 +2025,17 @@
       <c r="G21" s="3">
         <v>189</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>120</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="8" t="str">
+      <c r="J21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="8" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2043,17 +2059,17 @@
       <c r="G22" s="3">
         <v>96</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>120</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="8" t="str">
+      <c r="J22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="8" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2077,17 +2093,17 @@
       <c r="G23" s="3">
         <v>95</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>120</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="8" t="str">
+      <c r="J23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2111,17 +2127,17 @@
       <c r="G24" s="3">
         <v>97</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>120</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="8" t="str">
+      <c r="J24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="8" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2145,17 +2161,17 @@
       <c r="G25" s="3">
         <v>96</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>120</v>
       </c>
       <c r="I25" s="3">
         <v>0</v>
       </c>
-      <c r="J25" s="8" t="str">
+      <c r="J25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="8" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2179,17 +2195,17 @@
       <c r="G26" s="3">
         <v>93</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>45</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="8" t="str">
+      <c r="J26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="8" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2213,17 +2229,17 @@
       <c r="G27" s="3">
         <v>94</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>45</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="8" t="str">
+      <c r="J27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="8" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2247,17 +2263,17 @@
       <c r="G28" s="3">
         <v>93</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>45</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
       </c>
-      <c r="J28" s="8" t="str">
+      <c r="J28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="8" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2281,17 +2297,17 @@
       <c r="G29" s="3">
         <v>93</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>45</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="8" t="str">
+      <c r="J29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="8" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2315,17 +2331,17 @@
       <c r="G30" s="3">
         <v>42</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>30</v>
       </c>
       <c r="I30" s="3">
         <v>0</v>
       </c>
-      <c r="J30" s="8" t="str">
+      <c r="J30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="8" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2349,17 +2365,17 @@
       <c r="G31" s="3">
         <v>40</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>30</v>
       </c>
       <c r="I31" s="3">
         <v>0</v>
       </c>
-      <c r="J31" s="8" t="str">
+      <c r="J31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="8" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2383,21 +2399,21 @@
       <c r="G32" s="3">
         <v>43</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>30</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="8" t="str">
+      <c r="J32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="3" t="s">
         <v>81</v>
@@ -2417,21 +2433,21 @@
       <c r="G33" s="3">
         <v>43</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>30</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="8" t="str">
+      <c r="J33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>821</v>
       </c>
@@ -2448,26 +2464,26 @@
         <v>725</v>
       </c>
       <c r="F34" s="3">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="G34" s="3">
-        <v>68</v>
-      </c>
-      <c r="H34" s="6">
+        <v>54</v>
+      </c>
+      <c r="H34" s="5">
         <v>30</v>
       </c>
       <c r="I34" s="3">
         <v>0</v>
       </c>
-      <c r="J34" s="8" t="str">
+      <c r="J34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
@@ -2482,26 +2498,26 @@
         <v>683</v>
       </c>
       <c r="F35" s="3">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="G35" s="3">
-        <v>65</v>
-      </c>
-      <c r="H35" s="6">
+        <v>54</v>
+      </c>
+      <c r="H35" s="5">
         <v>30</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" s="8" t="str">
+      <c r="J35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="3" t="s">
         <v>8</v>
@@ -2516,26 +2532,26 @@
         <v>727</v>
       </c>
       <c r="F36" s="3">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="G36" s="3">
-        <v>46</v>
-      </c>
-      <c r="H36" s="6">
+        <v>27</v>
+      </c>
+      <c r="H36" s="5">
         <v>30</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
       </c>
-      <c r="J36" s="8" t="str">
+      <c r="J36" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="3" t="s">
         <v>27</v>
@@ -2550,26 +2566,26 @@
         <v>689</v>
       </c>
       <c r="F37" s="3">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="G37" s="3">
-        <v>47</v>
-      </c>
-      <c r="H37" s="6">
+        <v>25</v>
+      </c>
+      <c r="H37" s="5">
         <v>30</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
       </c>
-      <c r="J37" s="8" t="str">
+      <c r="J37" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>822</v>
       </c>
@@ -2586,26 +2602,26 @@
         <v>674</v>
       </c>
       <c r="F38" s="3">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="G38" s="3">
-        <v>63</v>
-      </c>
-      <c r="H38" s="6">
+        <v>54</v>
+      </c>
+      <c r="H38" s="5">
         <v>30</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
       </c>
-      <c r="J38" s="8" t="str">
+      <c r="J38" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="3" t="s">
         <v>84</v>
@@ -2620,63 +2636,60 @@
         <v>687</v>
       </c>
       <c r="F39" s="3">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="G39" s="3">
-        <v>63</v>
-      </c>
-      <c r="H39" s="6">
+        <v>54</v>
+      </c>
+      <c r="H39" s="5">
         <v>30</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
       </c>
-      <c r="J39" s="8" t="str">
+      <c r="J39" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="4">
-        <v>644</v>
-      </c>
-      <c r="D40" s="4">
-        <v>7367</v>
-      </c>
-      <c r="E40" s="4">
-        <v>644</v>
-      </c>
-      <c r="F40" s="4">
-        <v>600</v>
-      </c>
-      <c r="G40" s="4">
-        <v>14</v>
-      </c>
-      <c r="H40" s="7">
+      <c r="C40" s="10">
+        <v>640</v>
+      </c>
+      <c r="D40" s="10">
+        <v>7602</v>
+      </c>
+      <c r="E40" s="10">
+        <v>640</v>
+      </c>
+      <c r="F40" s="10">
+        <v>581</v>
+      </c>
+      <c r="G40" s="10">
+        <v>29</v>
+      </c>
+      <c r="H40" s="11">
         <v>30</v>
       </c>
-      <c r="I40" s="4">
-        <v>0</v>
-      </c>
-      <c r="J40" s="8" t="str">
+      <c r="I40" s="10">
+        <v>0</v>
+      </c>
+      <c r="J40" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="L40" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="3" t="s">
         <v>86</v>
@@ -2691,26 +2704,26 @@
         <v>641</v>
       </c>
       <c r="F41" s="3">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="G41" s="3">
-        <v>43</v>
-      </c>
-      <c r="H41" s="6">
+        <v>26</v>
+      </c>
+      <c r="H41" s="5">
         <v>30</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="8" t="str">
+      <c r="J41" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>823</v>
       </c>
@@ -2727,26 +2740,26 @@
         <v>673</v>
       </c>
       <c r="F42" s="3">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="G42" s="3">
-        <v>63</v>
-      </c>
-      <c r="H42" s="6">
+        <v>54</v>
+      </c>
+      <c r="H42" s="5">
         <v>30</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
-      <c r="J42" s="8" t="str">
+      <c r="J42" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K42" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K42" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="3" t="s">
         <v>88</v>
@@ -2761,26 +2774,26 @@
         <v>668</v>
       </c>
       <c r="F43" s="3">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="G43" s="3">
-        <v>64</v>
-      </c>
-      <c r="H43" s="6">
+        <v>54</v>
+      </c>
+      <c r="H43" s="5">
         <v>30</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="8" t="str">
+      <c r="J43" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K43" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K43" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="3" t="s">
         <v>89</v>
@@ -2795,26 +2808,26 @@
         <v>678</v>
       </c>
       <c r="F44" s="3">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="G44" s="3">
-        <v>63</v>
-      </c>
-      <c r="H44" s="6">
+        <v>54</v>
+      </c>
+      <c r="H44" s="5">
         <v>30</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="8" t="str">
+      <c r="J44" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K44" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K44" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="3" t="s">
         <v>90</v>
@@ -2829,26 +2842,26 @@
         <v>680</v>
       </c>
       <c r="F45" s="3">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="G45" s="3">
-        <v>65</v>
-      </c>
-      <c r="H45" s="6">
+        <v>54</v>
+      </c>
+      <c r="H45" s="5">
         <v>30</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="8" t="str">
+      <c r="J45" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K45" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="3" t="s">
         <v>91</v>
@@ -2863,26 +2876,26 @@
         <v>644</v>
       </c>
       <c r="F46" s="3">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="G46" s="3">
-        <v>41</v>
-      </c>
-      <c r="H46" s="6">
+        <v>25</v>
+      </c>
+      <c r="H46" s="5">
         <v>30</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="8" t="str">
+      <c r="J46" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K46" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K46" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="3" t="s">
         <v>92</v>
@@ -2897,26 +2910,26 @@
         <v>645</v>
       </c>
       <c r="F47" s="3">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="G47" s="3">
-        <v>43</v>
-      </c>
-      <c r="H47" s="6">
+        <v>27</v>
+      </c>
+      <c r="H47" s="5">
         <v>30</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="8" t="str">
+      <c r="J47" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K47" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K47" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="3" t="s">
         <v>93</v>
@@ -2931,23 +2944,23 @@
         <v>643</v>
       </c>
       <c r="F48" s="3">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="G48" s="3">
-        <v>42</v>
-      </c>
-      <c r="H48" s="6">
+        <v>26</v>
+      </c>
+      <c r="H48" s="5">
         <v>30</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="8" t="str">
+      <c r="J48" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K48" s="9" t="s">
-        <v>186</v>
+      <c r="K48" s="8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2965,23 +2978,23 @@
         <v>643</v>
       </c>
       <c r="F49" s="3">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="G49" s="3">
-        <v>42</v>
-      </c>
-      <c r="H49" s="6">
+        <v>26</v>
+      </c>
+      <c r="H49" s="5">
         <v>30</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="8" t="str">
+      <c r="J49" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K49" s="9" t="s">
-        <v>187</v>
+      <c r="K49" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3006,18 +3019,18 @@
       <c r="G50" s="3">
         <v>370</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="5">
         <v>219</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="6">
         <v>101</v>
       </c>
-      <c r="J50" s="8" t="str">
+      <c r="J50" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K50" s="9" t="s">
-        <v>188</v>
+      <c r="K50" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3040,18 +3053,18 @@
       <c r="G51" s="3">
         <v>373</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="5">
         <v>220</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="6">
         <v>92</v>
       </c>
-      <c r="J51" s="8" t="str">
+      <c r="J51" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K51" s="9" t="s">
-        <v>191</v>
+      <c r="K51" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3074,18 +3087,18 @@
       <c r="G52" s="3">
         <v>385</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="5">
         <v>228</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="6">
         <v>94</v>
       </c>
-      <c r="J52" s="8" t="str">
+      <c r="J52" s="9" t="str">
         <f>IF(SUM(F52:I52)=E52, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
-      <c r="K52" s="9" t="s">
-        <v>192</v>
+      <c r="K52" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3108,18 +3121,18 @@
       <c r="G53" s="3">
         <v>375</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="5">
         <v>222</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I53" s="6">
         <v>95</v>
       </c>
-      <c r="J53" s="8" t="str">
+      <c r="J53" s="9" t="str">
         <f t="shared" ref="J53:J116" si="1">IF(SUM(F53:I53)=E53, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
-      <c r="K53" s="9" t="s">
-        <v>193</v>
+      <c r="K53" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3142,18 +3155,18 @@
       <c r="G54" s="3">
         <v>381</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="5">
         <v>80</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="J54" s="8" t="str">
+      <c r="J54" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K54" s="9" t="s">
-        <v>188</v>
+      <c r="K54" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3176,18 +3189,18 @@
       <c r="G55" s="3">
         <v>378</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="5">
         <v>80</v>
       </c>
       <c r="I55" s="3">
         <v>0</v>
       </c>
-      <c r="J55" s="8" t="str">
+      <c r="J55" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K55" s="9" t="s">
-        <v>191</v>
+      <c r="K55" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3210,18 +3223,18 @@
       <c r="G56" s="3">
         <v>387</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="5">
         <v>80</v>
       </c>
       <c r="I56" s="3">
         <v>0</v>
       </c>
-      <c r="J56" s="8" t="str">
+      <c r="J56" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K56" s="9" t="s">
-        <v>192</v>
+      <c r="K56" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3244,18 +3257,18 @@
       <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="5">
         <v>80</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="8" t="str">
+      <c r="J57" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K57" s="9" t="s">
-        <v>193</v>
+      <c r="K57" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3278,18 +3291,18 @@
       <c r="G58" s="3">
         <v>378</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="5">
         <v>121</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="6">
         <v>68</v>
       </c>
-      <c r="J58" s="8" t="str">
+      <c r="J58" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K58" s="9" t="s">
-        <v>188</v>
+      <c r="K58" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3312,18 +3325,18 @@
       <c r="G59" s="3">
         <v>378</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="5">
         <v>120</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="6">
         <v>79</v>
       </c>
-      <c r="J59" s="8" t="str">
+      <c r="J59" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K59" s="9" t="s">
-        <v>191</v>
+      <c r="K59" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3346,18 +3359,18 @@
       <c r="G60" s="3">
         <v>380</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="5">
         <v>122</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="6">
         <v>95</v>
       </c>
-      <c r="J60" s="8" t="str">
+      <c r="J60" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K60" s="9" t="s">
-        <v>192</v>
+      <c r="K60" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3380,18 +3393,18 @@
       <c r="G61" s="3">
         <v>380</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="5">
         <v>121</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="6">
         <v>101</v>
       </c>
-      <c r="J61" s="8" t="str">
+      <c r="J61" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K61" s="9" t="s">
-        <v>193</v>
+      <c r="K61" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3414,18 +3427,18 @@
       <c r="G62" s="3">
         <v>382</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62" s="5">
         <v>60</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="8" t="str">
+      <c r="J62" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K62" s="9" t="s">
-        <v>188</v>
+      <c r="K62" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3448,18 +3461,18 @@
       <c r="G63" s="3">
         <v>375</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="5">
         <v>60</v>
       </c>
       <c r="I63" s="3">
         <v>0</v>
       </c>
-      <c r="J63" s="8" t="str">
+      <c r="J63" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K63" s="9" t="s">
-        <v>191</v>
+      <c r="K63" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3482,18 +3495,18 @@
       <c r="G64" s="3">
         <v>397</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64" s="5">
         <v>60</v>
       </c>
       <c r="I64" s="3">
         <v>0</v>
       </c>
-      <c r="J64" s="8" t="str">
+      <c r="J64" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K64" s="9" t="s">
-        <v>192</v>
+      <c r="K64" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3516,18 +3529,18 @@
       <c r="G65" s="3">
         <v>390</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65" s="5">
         <v>60</v>
       </c>
       <c r="I65" s="3">
         <v>0</v>
       </c>
-      <c r="J65" s="8" t="str">
+      <c r="J65" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K65" s="9" t="s">
-        <v>193</v>
+      <c r="K65" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3552,18 +3565,18 @@
       <c r="G66" s="3">
         <v>402</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66" s="5">
         <v>235</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
       </c>
-      <c r="J66" s="8" t="str">
+      <c r="J66" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K66" s="9" t="s">
-        <v>195</v>
+      <c r="K66" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3586,18 +3599,18 @@
       <c r="G67" s="3">
         <v>413</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H67" s="5">
         <v>242</v>
       </c>
       <c r="I67" s="3">
         <v>0</v>
       </c>
-      <c r="J67" s="8" t="str">
+      <c r="J67" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K67" s="9" t="s">
-        <v>196</v>
+      <c r="K67" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3620,18 +3633,18 @@
       <c r="G68" s="3">
         <v>392</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H68" s="5">
         <v>80</v>
       </c>
       <c r="I68" s="3">
         <v>0</v>
       </c>
-      <c r="J68" s="8" t="str">
+      <c r="J68" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K68" s="9" t="s">
-        <v>194</v>
+      <c r="K68" s="8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3654,18 +3667,18 @@
       <c r="G69" s="3">
         <v>411</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69" s="5">
         <v>80</v>
       </c>
       <c r="I69" s="3">
         <v>0</v>
       </c>
-      <c r="J69" s="8" t="str">
+      <c r="J69" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K69" s="9" t="s">
-        <v>197</v>
+      <c r="K69" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3688,18 +3701,18 @@
       <c r="G70" s="3">
         <v>413</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H70" s="5">
         <v>131</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
-      <c r="J70" s="8" t="str">
+      <c r="J70" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K70" s="9" t="s">
-        <v>195</v>
+      <c r="K70" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3722,18 +3735,18 @@
       <c r="G71" s="3">
         <v>411</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H71" s="5">
         <v>130</v>
       </c>
       <c r="I71" s="3">
         <v>0</v>
       </c>
-      <c r="J71" s="8" t="str">
+      <c r="J71" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K71" s="9" t="s">
-        <v>196</v>
+      <c r="K71" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3756,18 +3769,18 @@
       <c r="G72" s="3">
         <v>399</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H72" s="5">
         <v>60</v>
       </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="8" t="str">
+      <c r="J72" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K72" s="9" t="s">
-        <v>194</v>
+      <c r="K72" s="8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3790,18 +3803,18 @@
       <c r="G73" s="3">
         <v>414</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H73" s="5">
         <v>60</v>
       </c>
       <c r="I73" s="3">
         <v>0</v>
       </c>
-      <c r="J73" s="8" t="str">
+      <c r="J73" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K73" s="9" t="s">
-        <v>197</v>
+      <c r="K73" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3826,18 +3839,18 @@
       <c r="G74" s="3">
         <v>400</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H74" s="5">
         <v>235</v>
       </c>
       <c r="I74" s="3">
         <v>0</v>
       </c>
-      <c r="J74" s="8" t="str">
+      <c r="J74" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K74" s="9" t="s">
-        <v>199</v>
+      <c r="K74" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3860,18 +3873,18 @@
       <c r="G75" s="3">
         <v>379</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H75" s="5">
         <v>223</v>
       </c>
       <c r="I75" s="3">
         <v>0</v>
       </c>
-      <c r="J75" s="8" t="str">
+      <c r="J75" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K75" s="9" t="s">
-        <v>200</v>
+      <c r="K75" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3894,18 +3907,18 @@
       <c r="G76" s="3">
         <v>406</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H76" s="5">
         <v>237</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="J76" s="8" t="str">
+      <c r="J76" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K76" s="9" t="s">
-        <v>201</v>
+      <c r="K76" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3928,18 +3941,18 @@
       <c r="G77" s="3">
         <v>411</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H77" s="5">
         <v>242</v>
       </c>
       <c r="I77" s="3">
         <v>0</v>
       </c>
-      <c r="J77" s="8" t="str">
+      <c r="J77" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K77" s="9" t="s">
-        <v>202</v>
+      <c r="K77" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3962,18 +3975,18 @@
       <c r="G78" s="3">
         <v>402</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H78" s="5">
         <v>80</v>
       </c>
       <c r="I78" s="3">
         <v>0</v>
       </c>
-      <c r="J78" s="8" t="str">
+      <c r="J78" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K78" s="9" t="s">
-        <v>198</v>
+      <c r="K78" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3996,18 +4009,18 @@
       <c r="G79" s="3">
         <v>407</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H79" s="5">
         <v>80</v>
       </c>
       <c r="I79" s="3">
         <v>0</v>
       </c>
-      <c r="J79" s="8" t="str">
+      <c r="J79" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K79" s="9" t="s">
-        <v>204</v>
+      <c r="K79" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4030,18 +4043,18 @@
       <c r="G80" s="3">
         <v>401</v>
       </c>
-      <c r="H80" s="6">
+      <c r="H80" s="5">
         <v>80</v>
       </c>
       <c r="I80" s="3">
         <v>0</v>
       </c>
-      <c r="J80" s="8" t="str">
+      <c r="J80" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K80" s="9" t="s">
-        <v>205</v>
+      <c r="K80" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4064,18 +4077,18 @@
       <c r="G81" s="3">
         <v>411</v>
       </c>
-      <c r="H81" s="6">
+      <c r="H81" s="5">
         <v>80</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
-      <c r="J81" s="8" t="str">
+      <c r="J81" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K81" s="9" t="s">
-        <v>206</v>
+      <c r="K81" s="8" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4098,18 +4111,18 @@
       <c r="G82" s="3">
         <v>412</v>
       </c>
-      <c r="H82" s="6">
+      <c r="H82" s="5">
         <v>131</v>
       </c>
       <c r="I82" s="3">
         <v>0</v>
       </c>
-      <c r="J82" s="8" t="str">
+      <c r="J82" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K82" s="9" t="s">
-        <v>199</v>
+      <c r="K82" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4132,18 +4145,18 @@
       <c r="G83" s="3">
         <v>395</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H83" s="5">
         <v>125</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="8" t="str">
+      <c r="J83" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K83" s="9" t="s">
-        <v>200</v>
+      <c r="K83" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4166,18 +4179,18 @@
       <c r="G84" s="3">
         <v>404</v>
       </c>
-      <c r="H84" s="6">
+      <c r="H84" s="5">
         <v>129</v>
       </c>
       <c r="I84" s="3">
         <v>0</v>
       </c>
-      <c r="J84" s="8" t="str">
+      <c r="J84" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K84" s="9" t="s">
-        <v>201</v>
+      <c r="K84" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4200,18 +4213,18 @@
       <c r="G85" s="3">
         <v>401</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H85" s="5">
         <v>128</v>
       </c>
       <c r="I85" s="3">
         <v>0</v>
       </c>
-      <c r="J85" s="8" t="str">
+      <c r="J85" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K85" s="9" t="s">
-        <v>202</v>
+      <c r="K85" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4234,18 +4247,18 @@
       <c r="G86" s="3">
         <v>406</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H86" s="5">
         <v>60</v>
       </c>
       <c r="I86" s="3">
         <v>0</v>
       </c>
-      <c r="J86" s="8" t="str">
+      <c r="J86" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K86" s="9" t="s">
-        <v>198</v>
+      <c r="K86" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4268,18 +4281,18 @@
       <c r="G87" s="3">
         <v>432</v>
       </c>
-      <c r="H87" s="6">
+      <c r="H87" s="5">
         <v>60</v>
       </c>
       <c r="I87" s="3">
         <v>0</v>
       </c>
-      <c r="J87" s="8" t="str">
+      <c r="J87" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K87" s="9" t="s">
-        <v>204</v>
+      <c r="K87" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4302,18 +4315,18 @@
       <c r="G88" s="3">
         <v>403</v>
       </c>
-      <c r="H88" s="6">
+      <c r="H88" s="5">
         <v>60</v>
       </c>
       <c r="I88" s="3">
         <v>0</v>
       </c>
-      <c r="J88" s="8" t="str">
+      <c r="J88" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K88" s="9" t="s">
-        <v>205</v>
+      <c r="K88" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4336,18 +4349,18 @@
       <c r="G89" s="3">
         <v>407</v>
       </c>
-      <c r="H89" s="6">
+      <c r="H89" s="5">
         <v>60</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
-      <c r="J89" s="8" t="str">
+      <c r="J89" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K89" s="9" t="s">
-        <v>206</v>
+      <c r="K89" s="8" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4372,18 +4385,18 @@
       <c r="G90" s="3">
         <v>243</v>
       </c>
-      <c r="H90" s="6">
+      <c r="H90" s="5">
         <v>132</v>
       </c>
       <c r="I90" s="3">
         <v>0</v>
       </c>
-      <c r="J90" s="8" t="str">
+      <c r="J90" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K90" s="9" t="s">
-        <v>210</v>
+      <c r="K90" s="8" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4406,24 +4419,24 @@
       <c r="G91" s="3">
         <v>242</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H91" s="5">
         <v>129</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="8" t="str">
+      <c r="J91" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K91" s="9" t="s">
-        <v>207</v>
+      <c r="K91" s="8" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C92" s="3">
         <v>707</v>
@@ -4440,24 +4453,24 @@
       <c r="G92" s="3">
         <v>247</v>
       </c>
-      <c r="H92" s="6">
+      <c r="H92" s="5">
         <v>133</v>
       </c>
       <c r="I92" s="3">
         <v>0</v>
       </c>
-      <c r="J92" s="8" t="str">
+      <c r="J92" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K92" s="9" t="s">
-        <v>209</v>
+      <c r="K92" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C93" s="3">
         <v>690</v>
@@ -4474,18 +4487,18 @@
       <c r="G93" s="3">
         <v>249</v>
       </c>
-      <c r="H93" s="6">
+      <c r="H93" s="5">
         <v>133</v>
       </c>
       <c r="I93" s="3">
         <v>0</v>
       </c>
-      <c r="J93" s="8" t="str">
+      <c r="J93" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K93" s="9" t="s">
-        <v>208</v>
+      <c r="K93" s="8" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4508,18 +4521,18 @@
       <c r="G94" s="3">
         <v>313</v>
       </c>
-      <c r="H94" s="6">
+      <c r="H94" s="5">
         <v>60</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="8" t="str">
+      <c r="J94" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K94" s="9" t="s">
-        <v>219</v>
+      <c r="K94" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4542,24 +4555,24 @@
       <c r="G95" s="3">
         <v>331</v>
       </c>
-      <c r="H95" s="6">
+      <c r="H95" s="5">
         <v>60</v>
       </c>
       <c r="I95" s="3">
         <v>0</v>
       </c>
-      <c r="J95" s="8" t="str">
+      <c r="J95" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K95" s="9" t="s">
-        <v>220</v>
+      <c r="K95" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C96" s="3">
         <v>658</v>
@@ -4576,24 +4589,24 @@
       <c r="G96" s="3">
         <v>329</v>
       </c>
-      <c r="H96" s="6">
+      <c r="H96" s="5">
         <v>60</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
-      <c r="J96" s="8" t="str">
+      <c r="J96" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K96" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K96" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C97" s="3">
         <v>669</v>
@@ -4610,21 +4623,21 @@
       <c r="G97" s="3">
         <v>343</v>
       </c>
-      <c r="H97" s="6">
+      <c r="H97" s="5">
         <v>60</v>
       </c>
       <c r="I97" s="3">
         <v>0</v>
       </c>
-      <c r="J97" s="8" t="str">
+      <c r="J97" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K97" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K97" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>842</v>
       </c>
@@ -4646,21 +4659,21 @@
       <c r="G98" s="3">
         <v>137</v>
       </c>
-      <c r="H98" s="6">
+      <c r="H98" s="5">
         <v>76</v>
       </c>
       <c r="I98" s="3">
         <v>0</v>
       </c>
-      <c r="J98" s="8" t="str">
+      <c r="J98" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K98" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K98" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="3" t="s">
         <v>120</v>
@@ -4680,21 +4693,21 @@
       <c r="G99" s="3">
         <v>135</v>
       </c>
-      <c r="H99" s="6">
+      <c r="H99" s="5">
         <v>76</v>
       </c>
       <c r="I99" s="3">
         <v>0</v>
       </c>
-      <c r="J99" s="8" t="str">
+      <c r="J99" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K99" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K99" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="3" t="s">
         <v>121</v>
@@ -4714,21 +4727,21 @@
       <c r="G100" s="3">
         <v>332</v>
       </c>
-      <c r="H100" s="6">
+      <c r="H100" s="5">
         <v>60</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="8" t="str">
+      <c r="J100" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K100" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K100" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="3" t="s">
         <v>122</v>
@@ -4748,21 +4761,21 @@
       <c r="G101" s="3">
         <v>347</v>
       </c>
-      <c r="H101" s="6">
+      <c r="H101" s="5">
         <v>60</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="8" t="str">
+      <c r="J101" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K101" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K101" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>843</v>
       </c>
@@ -4784,21 +4797,21 @@
       <c r="G102" s="3">
         <v>132</v>
       </c>
-      <c r="H102" s="6">
+      <c r="H102" s="5">
         <v>74</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="8" t="str">
+      <c r="J102" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K102" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K102" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="3" t="s">
         <v>124</v>
@@ -4818,24 +4831,24 @@
       <c r="G103" s="3">
         <v>126</v>
       </c>
-      <c r="H103" s="6">
+      <c r="H103" s="5">
         <v>73</v>
       </c>
       <c r="I103" s="3">
         <v>0</v>
       </c>
-      <c r="J103" s="8" t="str">
+      <c r="J103" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K103" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K103" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C104" s="3">
         <v>656</v>
@@ -4852,24 +4865,24 @@
       <c r="G104" s="3">
         <v>144</v>
       </c>
-      <c r="H104" s="6">
+      <c r="H104" s="5">
         <v>79</v>
       </c>
       <c r="I104" s="3">
         <v>0</v>
       </c>
-      <c r="J104" s="8" t="str">
+      <c r="J104" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K104" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K104" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C105" s="3">
         <v>657</v>
@@ -4886,21 +4899,21 @@
       <c r="G105" s="3">
         <v>128</v>
       </c>
-      <c r="H105" s="6">
+      <c r="H105" s="5">
         <v>72</v>
       </c>
       <c r="I105" s="3">
         <v>0</v>
       </c>
-      <c r="J105" s="8" t="str">
+      <c r="J105" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K105" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K105" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="3" t="s">
         <v>125</v>
@@ -4920,21 +4933,21 @@
       <c r="G106" s="3">
         <v>342</v>
       </c>
-      <c r="H106" s="6">
+      <c r="H106" s="5">
         <v>60</v>
       </c>
       <c r="I106" s="3">
         <v>0</v>
       </c>
-      <c r="J106" s="8" t="str">
+      <c r="J106" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K106" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K106" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="3" t="s">
         <v>126</v>
@@ -4954,24 +4967,24 @@
       <c r="G107" s="3">
         <v>347</v>
       </c>
-      <c r="H107" s="6">
+      <c r="H107" s="5">
         <v>60</v>
       </c>
       <c r="I107" s="3">
         <v>0</v>
       </c>
-      <c r="J107" s="8" t="str">
+      <c r="J107" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K107" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K107" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C108" s="3">
         <v>654</v>
@@ -4988,24 +5001,24 @@
       <c r="G108" s="3">
         <v>350</v>
       </c>
-      <c r="H108" s="6">
+      <c r="H108" s="5">
         <v>60</v>
       </c>
       <c r="I108" s="3">
         <v>0</v>
       </c>
-      <c r="J108" s="8" t="str">
+      <c r="J108" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K108" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K108" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C109" s="3">
         <v>657</v>
@@ -5022,21 +5035,21 @@
       <c r="G109" s="3">
         <v>347</v>
       </c>
-      <c r="H109" s="6">
+      <c r="H109" s="5">
         <v>60</v>
       </c>
       <c r="I109" s="3">
         <v>0</v>
       </c>
-      <c r="J109" s="8" t="str">
+      <c r="J109" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K109" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K109" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>851</v>
       </c>
@@ -5058,21 +5071,21 @@
       <c r="G110" s="3">
         <v>416</v>
       </c>
-      <c r="H110" s="6">
+      <c r="H110" s="5">
         <v>244</v>
       </c>
       <c r="I110" s="3">
         <v>0</v>
       </c>
-      <c r="J110" s="8" t="str">
+      <c r="J110" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K110" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K110" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="3" t="s">
         <v>34</v>
@@ -5092,55 +5105,52 @@
       <c r="G111" s="3">
         <v>390</v>
       </c>
-      <c r="H111" s="6">
+      <c r="H111" s="5">
         <v>229</v>
       </c>
       <c r="I111" s="3">
         <v>0</v>
       </c>
-      <c r="J111" s="8" t="str">
+      <c r="J111" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K111" s="9" t="s">
+      <c r="K111" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="12"/>
+      <c r="B112" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C112" s="10">
+        <v>884</v>
+      </c>
+      <c r="D112" s="10">
+        <v>7925</v>
+      </c>
+      <c r="E112" s="10">
+        <v>884</v>
+      </c>
+      <c r="F112" s="10">
+        <v>282</v>
+      </c>
+      <c r="G112" s="10">
+        <v>377</v>
+      </c>
+      <c r="H112" s="11">
+        <v>225</v>
+      </c>
+      <c r="I112" s="10">
+        <v>0</v>
+      </c>
+      <c r="J112" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Valid</v>
+      </c>
+      <c r="K112" s="8" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C112" s="4">
-        <v>893</v>
-      </c>
-      <c r="D112" s="4">
-        <v>7898</v>
-      </c>
-      <c r="E112" s="4">
-        <v>893</v>
-      </c>
-      <c r="F112" s="4">
-        <v>267</v>
-      </c>
-      <c r="G112" s="4">
-        <v>393</v>
-      </c>
-      <c r="H112" s="7">
-        <v>233</v>
-      </c>
-      <c r="I112" s="4">
-        <v>0</v>
-      </c>
-      <c r="J112" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Valid</v>
-      </c>
-      <c r="K112" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="L112" s="10" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -5163,18 +5173,18 @@
       <c r="G113" s="3">
         <v>395</v>
       </c>
-      <c r="H113" s="6">
+      <c r="H113" s="5">
         <v>231</v>
       </c>
       <c r="I113" s="3">
         <v>0</v>
       </c>
-      <c r="J113" s="8" t="str">
+      <c r="J113" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K113" s="9" t="s">
-        <v>238</v>
+      <c r="K113" s="8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -5197,18 +5207,18 @@
       <c r="G114" s="3">
         <v>393</v>
       </c>
-      <c r="H114" s="6">
+      <c r="H114" s="5">
         <v>80</v>
       </c>
       <c r="I114" s="3">
         <v>0</v>
       </c>
-      <c r="J114" s="8" t="str">
+      <c r="J114" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K114" s="9" t="s">
-        <v>235</v>
+      <c r="K114" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5231,18 +5241,18 @@
       <c r="G115" s="3">
         <v>400</v>
       </c>
-      <c r="H115" s="6">
+      <c r="H115" s="5">
         <v>80</v>
       </c>
       <c r="I115" s="3">
         <v>0</v>
       </c>
-      <c r="J115" s="8" t="str">
+      <c r="J115" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K115" s="9" t="s">
-        <v>236</v>
+      <c r="K115" s="8" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5265,18 +5275,18 @@
       <c r="G116" s="3">
         <v>409</v>
       </c>
-      <c r="H116" s="6">
+      <c r="H116" s="5">
         <v>80</v>
       </c>
       <c r="I116" s="3">
         <v>0</v>
       </c>
-      <c r="J116" s="8" t="str">
+      <c r="J116" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K116" s="9" t="s">
-        <v>237</v>
+      <c r="K116" s="8" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5299,18 +5309,18 @@
       <c r="G117" s="3">
         <v>407</v>
       </c>
-      <c r="H117" s="6">
+      <c r="H117" s="5">
         <v>80</v>
       </c>
       <c r="I117" s="3">
         <v>0</v>
       </c>
-      <c r="J117" s="8" t="str">
+      <c r="J117" s="9" t="str">
         <f t="shared" ref="J117:J179" si="2">IF(SUM(F117:I117)=E117, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
-      <c r="K117" s="9" t="s">
-        <v>238</v>
+      <c r="K117" s="8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -5333,18 +5343,18 @@
       <c r="G118" s="3">
         <v>406</v>
       </c>
-      <c r="H118" s="6">
+      <c r="H118" s="5">
         <v>130</v>
       </c>
       <c r="I118" s="3">
         <v>0</v>
       </c>
-      <c r="J118" s="8" t="str">
+      <c r="J118" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K118" s="9" t="s">
-        <v>235</v>
+      <c r="K118" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -5367,18 +5377,18 @@
       <c r="G119" s="3">
         <v>406</v>
       </c>
-      <c r="H119" s="6">
+      <c r="H119" s="5">
         <v>129</v>
       </c>
       <c r="I119" s="3">
         <v>0</v>
       </c>
-      <c r="J119" s="8" t="str">
+      <c r="J119" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K119" s="9" t="s">
-        <v>236</v>
+      <c r="K119" s="8" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -5401,18 +5411,18 @@
       <c r="G120" s="3">
         <v>407</v>
       </c>
-      <c r="H120" s="6">
+      <c r="H120" s="5">
         <v>130</v>
       </c>
       <c r="I120" s="3">
         <v>0</v>
       </c>
-      <c r="J120" s="8" t="str">
+      <c r="J120" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K120" s="9" t="s">
-        <v>237</v>
+      <c r="K120" s="8" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -5435,18 +5445,18 @@
       <c r="G121" s="3">
         <v>398</v>
       </c>
-      <c r="H121" s="6">
+      <c r="H121" s="5">
         <v>126</v>
       </c>
       <c r="I121" s="3">
         <v>0</v>
       </c>
-      <c r="J121" s="8" t="str">
+      <c r="J121" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K121" s="9" t="s">
-        <v>238</v>
+      <c r="K121" s="8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5469,18 +5479,18 @@
       <c r="G122" s="3">
         <v>406</v>
       </c>
-      <c r="H122" s="6">
+      <c r="H122" s="5">
         <v>60</v>
       </c>
       <c r="I122" s="3">
         <v>0</v>
       </c>
-      <c r="J122" s="8" t="str">
+      <c r="J122" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K122" s="9" t="s">
-        <v>235</v>
+      <c r="K122" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5503,18 +5513,18 @@
       <c r="G123" s="3">
         <v>423</v>
       </c>
-      <c r="H123" s="6">
+      <c r="H123" s="5">
         <v>60</v>
       </c>
       <c r="I123" s="3">
         <v>0</v>
       </c>
-      <c r="J123" s="8" t="str">
+      <c r="J123" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K123" s="9" t="s">
-        <v>236</v>
+      <c r="K123" s="8" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5537,18 +5547,18 @@
       <c r="G124" s="3">
         <v>411</v>
       </c>
-      <c r="H124" s="6">
+      <c r="H124" s="5">
         <v>60</v>
       </c>
       <c r="I124" s="3">
         <v>0</v>
       </c>
-      <c r="J124" s="8" t="str">
+      <c r="J124" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K124" s="9" t="s">
-        <v>237</v>
+      <c r="K124" s="8" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5571,18 +5581,18 @@
       <c r="G125" s="3">
         <v>413</v>
       </c>
-      <c r="H125" s="6">
+      <c r="H125" s="5">
         <v>60</v>
       </c>
       <c r="I125" s="3">
         <v>0</v>
       </c>
-      <c r="J125" s="8" t="str">
+      <c r="J125" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K125" s="9" t="s">
-        <v>238</v>
+      <c r="K125" s="8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5607,18 +5617,18 @@
       <c r="G126" s="3">
         <v>410</v>
       </c>
-      <c r="H126" s="6">
+      <c r="H126" s="5">
         <v>242</v>
       </c>
       <c r="I126" s="3">
         <v>0</v>
       </c>
-      <c r="J126" s="8" t="str">
+      <c r="J126" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K126" s="9" t="s">
-        <v>239</v>
+      <c r="K126" s="8" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5641,18 +5651,18 @@
       <c r="G127" s="3">
         <v>408</v>
       </c>
-      <c r="H127" s="6">
+      <c r="H127" s="5">
         <v>239</v>
       </c>
       <c r="I127" s="3">
         <v>0</v>
       </c>
-      <c r="J127" s="8" t="str">
+      <c r="J127" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K127" s="9" t="s">
-        <v>240</v>
+      <c r="K127" s="8" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5675,18 +5685,18 @@
       <c r="G128" s="3">
         <v>438</v>
       </c>
-      <c r="H128" s="6">
+      <c r="H128" s="5">
         <v>80</v>
       </c>
       <c r="I128" s="3">
         <v>0</v>
       </c>
-      <c r="J128" s="8" t="str">
+      <c r="J128" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K128" s="9" t="s">
-        <v>239</v>
+      <c r="K128" s="8" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -5709,18 +5719,18 @@
       <c r="G129" s="3">
         <v>430</v>
       </c>
-      <c r="H129" s="6">
+      <c r="H129" s="5">
         <v>80</v>
       </c>
       <c r="I129" s="3">
         <v>0</v>
       </c>
-      <c r="J129" s="8" t="str">
+      <c r="J129" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K129" s="9" t="s">
-        <v>240</v>
+      <c r="K129" s="8" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5743,18 +5753,18 @@
       <c r="G130" s="3">
         <v>416</v>
       </c>
-      <c r="H130" s="6">
+      <c r="H130" s="5">
         <v>132</v>
       </c>
       <c r="I130" s="3">
         <v>0</v>
       </c>
-      <c r="J130" s="8" t="str">
+      <c r="J130" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K130" s="9" t="s">
-        <v>239</v>
+      <c r="K130" s="8" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -5777,18 +5787,18 @@
       <c r="G131" s="3">
         <v>406</v>
       </c>
-      <c r="H131" s="6">
+      <c r="H131" s="5">
         <v>130</v>
       </c>
       <c r="I131" s="3">
         <v>0</v>
       </c>
-      <c r="J131" s="8" t="str">
+      <c r="J131" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K131" s="9" t="s">
-        <v>240</v>
+      <c r="K131" s="8" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -5811,18 +5821,18 @@
       <c r="G132" s="3">
         <v>406</v>
       </c>
-      <c r="H132" s="6">
+      <c r="H132" s="5">
         <v>60</v>
       </c>
       <c r="I132" s="3">
         <v>0</v>
       </c>
-      <c r="J132" s="8" t="str">
+      <c r="J132" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K132" s="9" t="s">
-        <v>239</v>
+      <c r="K132" s="8" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -5845,18 +5855,18 @@
       <c r="G133" s="3">
         <v>412</v>
       </c>
-      <c r="H133" s="6">
+      <c r="H133" s="5">
         <v>60</v>
       </c>
       <c r="I133" s="3">
         <v>0</v>
       </c>
-      <c r="J133" s="8" t="str">
+      <c r="J133" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K133" s="9" t="s">
-        <v>240</v>
+      <c r="K133" s="8" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5881,18 +5891,18 @@
       <c r="G134" s="3">
         <v>388</v>
       </c>
-      <c r="H134" s="6">
+      <c r="H134" s="5">
         <v>227</v>
       </c>
       <c r="I134" s="3">
         <v>0</v>
       </c>
-      <c r="J134" s="8" t="str">
+      <c r="J134" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K134" s="9" t="s">
-        <v>241</v>
+      <c r="K134" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5915,18 +5925,18 @@
       <c r="G135" s="3">
         <v>405</v>
       </c>
-      <c r="H135" s="6">
+      <c r="H135" s="5">
         <v>237</v>
       </c>
       <c r="I135" s="3">
         <v>0</v>
       </c>
-      <c r="J135" s="8" t="str">
+      <c r="J135" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K135" s="9" t="s">
-        <v>242</v>
+      <c r="K135" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5949,18 +5959,18 @@
       <c r="G136" s="3">
         <v>406</v>
       </c>
-      <c r="H136" s="6">
+      <c r="H136" s="5">
         <v>239</v>
       </c>
       <c r="I136" s="3">
         <v>0</v>
       </c>
-      <c r="J136" s="8" t="str">
+      <c r="J136" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K136" s="9" t="s">
-        <v>243</v>
+      <c r="K136" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5983,18 +5993,18 @@
       <c r="G137" s="3">
         <v>402</v>
       </c>
-      <c r="H137" s="6">
+      <c r="H137" s="5">
         <v>236</v>
       </c>
       <c r="I137" s="3">
         <v>0</v>
       </c>
-      <c r="J137" s="8" t="str">
+      <c r="J137" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K137" s="9" t="s">
-        <v>244</v>
+      <c r="K137" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -6017,18 +6027,18 @@
       <c r="G138" s="3">
         <v>405</v>
       </c>
-      <c r="H138" s="6">
+      <c r="H138" s="5">
         <v>80</v>
       </c>
       <c r="I138" s="3">
         <v>0</v>
       </c>
-      <c r="J138" s="8" t="str">
+      <c r="J138" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K138" s="9" t="s">
-        <v>241</v>
+      <c r="K138" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -6051,18 +6061,18 @@
       <c r="G139" s="3">
         <v>405</v>
       </c>
-      <c r="H139" s="6">
+      <c r="H139" s="5">
         <v>80</v>
       </c>
       <c r="I139" s="3">
         <v>0</v>
       </c>
-      <c r="J139" s="8" t="str">
+      <c r="J139" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K139" s="9" t="s">
-        <v>242</v>
+      <c r="K139" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -6085,18 +6095,18 @@
       <c r="G140" s="3">
         <v>401</v>
       </c>
-      <c r="H140" s="6">
+      <c r="H140" s="5">
         <v>80</v>
       </c>
       <c r="I140" s="3">
         <v>0</v>
       </c>
-      <c r="J140" s="8" t="str">
+      <c r="J140" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K140" s="9" t="s">
-        <v>243</v>
+      <c r="K140" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -6119,18 +6129,18 @@
       <c r="G141" s="3">
         <v>418</v>
       </c>
-      <c r="H141" s="6">
+      <c r="H141" s="5">
         <v>80</v>
       </c>
       <c r="I141" s="3">
         <v>0</v>
       </c>
-      <c r="J141" s="8" t="str">
+      <c r="J141" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K141" s="9" t="s">
-        <v>244</v>
+      <c r="K141" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -6153,18 +6163,18 @@
       <c r="G142" s="3">
         <v>410</v>
       </c>
-      <c r="H142" s="6">
+      <c r="H142" s="5">
         <v>131</v>
       </c>
       <c r="I142" s="3">
         <v>0</v>
       </c>
-      <c r="J142" s="8" t="str">
+      <c r="J142" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K142" s="9" t="s">
-        <v>241</v>
+      <c r="K142" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -6187,18 +6197,18 @@
       <c r="G143" s="3">
         <v>409</v>
       </c>
-      <c r="H143" s="6">
+      <c r="H143" s="5">
         <v>129</v>
       </c>
       <c r="I143" s="3">
         <v>0</v>
       </c>
-      <c r="J143" s="8" t="str">
+      <c r="J143" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K143" s="9" t="s">
-        <v>242</v>
+      <c r="K143" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -6221,21 +6231,21 @@
       <c r="G144" s="3">
         <v>402</v>
       </c>
-      <c r="H144" s="6">
+      <c r="H144" s="5">
         <v>128</v>
       </c>
       <c r="I144" s="3">
         <v>0</v>
       </c>
-      <c r="J144" s="8" t="str">
+      <c r="J144" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K144" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K144" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="3" t="s">
         <v>146</v>
@@ -6255,21 +6265,21 @@
       <c r="G145" s="3">
         <v>385</v>
       </c>
-      <c r="H145" s="6">
+      <c r="H145" s="5">
         <v>122</v>
       </c>
       <c r="I145" s="3">
         <v>0</v>
       </c>
-      <c r="J145" s="8" t="str">
+      <c r="J145" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K145" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K145" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="3" t="s">
         <v>147</v>
@@ -6289,21 +6299,21 @@
       <c r="G146" s="3">
         <v>409</v>
       </c>
-      <c r="H146" s="6">
+      <c r="H146" s="5">
         <v>60</v>
       </c>
       <c r="I146" s="3">
         <v>0</v>
       </c>
-      <c r="J146" s="8" t="str">
+      <c r="J146" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K146" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K146" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
       <c r="B147" s="3" t="s">
         <v>148</v>
@@ -6323,21 +6333,21 @@
       <c r="G147" s="3">
         <v>409</v>
       </c>
-      <c r="H147" s="6">
+      <c r="H147" s="5">
         <v>60</v>
       </c>
       <c r="I147" s="3">
         <v>0</v>
       </c>
-      <c r="J147" s="8" t="str">
+      <c r="J147" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K147" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K147" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="3" t="s">
         <v>149</v>
@@ -6357,21 +6367,21 @@
       <c r="G148" s="3">
         <v>406</v>
       </c>
-      <c r="H148" s="6">
+      <c r="H148" s="5">
         <v>60</v>
       </c>
       <c r="I148" s="3">
         <v>0</v>
       </c>
-      <c r="J148" s="8" t="str">
+      <c r="J148" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K148" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K148" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="3" t="s">
         <v>150</v>
@@ -6391,21 +6401,21 @@
       <c r="G149" s="3">
         <v>412</v>
       </c>
-      <c r="H149" s="6">
+      <c r="H149" s="5">
         <v>60</v>
       </c>
       <c r="I149" s="3">
         <v>0</v>
       </c>
-      <c r="J149" s="8" t="str">
+      <c r="J149" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K149" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K149" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <v>861</v>
       </c>
@@ -6427,21 +6437,21 @@
       <c r="G150" s="3">
         <v>271</v>
       </c>
-      <c r="H150" s="6">
+      <c r="H150" s="5">
         <v>137</v>
       </c>
       <c r="I150" s="3">
         <v>0</v>
       </c>
-      <c r="J150" s="8" t="str">
+      <c r="J150" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K150" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K150" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="3" t="s">
         <v>38</v>
@@ -6461,24 +6471,24 @@
       <c r="G151" s="3">
         <v>272</v>
       </c>
-      <c r="H151" s="6">
+      <c r="H151" s="5">
         <v>140</v>
       </c>
       <c r="I151" s="3">
         <v>0</v>
       </c>
-      <c r="J151" s="8" t="str">
+      <c r="J151" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K151" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K151" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C152" s="3">
         <v>676</v>
@@ -6495,24 +6505,24 @@
       <c r="G152" s="3">
         <v>272</v>
       </c>
-      <c r="H152" s="6">
+      <c r="H152" s="5">
         <v>141</v>
       </c>
       <c r="I152" s="3">
         <v>0</v>
       </c>
-      <c r="J152" s="8" t="str">
+      <c r="J152" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K152" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K152" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C153" s="3">
         <v>681</v>
@@ -6529,98 +6539,92 @@
       <c r="G153" s="3">
         <v>282</v>
       </c>
-      <c r="H153" s="6">
+      <c r="H153" s="5">
         <v>144</v>
       </c>
       <c r="I153" s="3">
         <v>0</v>
       </c>
-      <c r="J153" s="8" t="str">
+      <c r="J153" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K153" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K153" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C154" s="4">
-        <v>676</v>
-      </c>
-      <c r="D154" s="4">
-        <v>7913</v>
-      </c>
-      <c r="E154" s="4">
-        <v>676</v>
-      </c>
-      <c r="F154" s="4">
-        <v>247</v>
-      </c>
-      <c r="G154" s="4">
-        <v>369</v>
-      </c>
-      <c r="H154" s="7">
+      <c r="C154" s="13">
+        <v>670</v>
+      </c>
+      <c r="D154" s="13">
+        <v>7953</v>
+      </c>
+      <c r="E154" s="13">
+        <v>670</v>
+      </c>
+      <c r="F154" s="13">
+        <v>283</v>
+      </c>
+      <c r="G154" s="13">
+        <v>327</v>
+      </c>
+      <c r="H154" s="14">
         <v>60</v>
       </c>
-      <c r="I154" s="4">
-        <v>0</v>
-      </c>
-      <c r="J154" s="8" t="str">
+      <c r="I154" s="13">
+        <v>0</v>
+      </c>
+      <c r="J154" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K154" s="9" t="s">
+      <c r="K154" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="12"/>
+      <c r="B155" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C155" s="13">
+        <v>689</v>
+      </c>
+      <c r="D155" s="13">
+        <v>8163</v>
+      </c>
+      <c r="E155" s="13">
+        <v>689</v>
+      </c>
+      <c r="F155" s="13">
+        <v>282</v>
+      </c>
+      <c r="G155" s="13">
+        <v>347</v>
+      </c>
+      <c r="H155" s="14">
+        <v>60</v>
+      </c>
+      <c r="I155" s="13">
+        <v>0</v>
+      </c>
+      <c r="J155" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+      <c r="K155" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="L154" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="12"/>
-      <c r="B155" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C155" s="4">
-        <v>679</v>
-      </c>
-      <c r="D155" s="4">
-        <v>7941</v>
-      </c>
-      <c r="E155" s="4">
-        <v>679</v>
-      </c>
-      <c r="F155" s="4">
-        <v>258</v>
-      </c>
-      <c r="G155" s="4">
-        <v>361</v>
-      </c>
-      <c r="H155" s="7">
-        <v>60</v>
-      </c>
-      <c r="I155" s="4">
-        <v>0</v>
-      </c>
-      <c r="J155" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-      <c r="K155" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="L155" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C156" s="3">
         <v>681</v>
@@ -6637,24 +6641,24 @@
       <c r="G156" s="3">
         <v>369</v>
       </c>
-      <c r="H156" s="6">
+      <c r="H156" s="5">
         <v>60</v>
       </c>
       <c r="I156" s="3">
         <v>0</v>
       </c>
-      <c r="J156" s="8" t="str">
+      <c r="J156" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K156" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K156" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C157" s="3">
         <v>678</v>
@@ -6671,21 +6675,21 @@
       <c r="G157" s="3">
         <v>362</v>
       </c>
-      <c r="H157" s="6">
+      <c r="H157" s="5">
         <v>60</v>
       </c>
       <c r="I157" s="3">
         <v>0</v>
       </c>
-      <c r="J157" s="8" t="str">
+      <c r="J157" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K157" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K157" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>862</v>
       </c>
@@ -6707,21 +6711,21 @@
       <c r="G158" s="3">
         <v>245</v>
       </c>
-      <c r="H158" s="6">
+      <c r="H158" s="5">
         <v>131</v>
       </c>
       <c r="I158" s="3">
         <v>0</v>
       </c>
-      <c r="J158" s="8" t="str">
+      <c r="J158" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K158" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K158" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="B159" s="3" t="s">
         <v>152</v>
@@ -6741,21 +6745,21 @@
       <c r="G159" s="3">
         <v>267</v>
       </c>
-      <c r="H159" s="6">
+      <c r="H159" s="5">
         <v>142</v>
       </c>
       <c r="I159" s="3">
         <v>0</v>
       </c>
-      <c r="J159" s="8" t="str">
+      <c r="J159" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K159" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K159" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="3" t="s">
         <v>153</v>
@@ -6775,21 +6779,21 @@
       <c r="G160" s="3">
         <v>354</v>
       </c>
-      <c r="H160" s="6">
+      <c r="H160" s="5">
         <v>60</v>
       </c>
       <c r="I160" s="3">
         <v>0</v>
       </c>
-      <c r="J160" s="8" t="str">
+      <c r="J160" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K160" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K160" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="3" t="s">
         <v>154</v>
@@ -6809,21 +6813,21 @@
       <c r="G161" s="3">
         <v>332</v>
       </c>
-      <c r="H161" s="6">
+      <c r="H161" s="5">
         <v>60</v>
       </c>
       <c r="I161" s="3">
         <v>0</v>
       </c>
-      <c r="J161" s="8" t="str">
+      <c r="J161" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K161" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K161" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
         <v>863</v>
       </c>
@@ -6845,21 +6849,21 @@
       <c r="G162" s="3">
         <v>254</v>
       </c>
-      <c r="H162" s="6">
+      <c r="H162" s="5">
         <v>134</v>
       </c>
       <c r="I162" s="3">
         <v>0</v>
       </c>
-      <c r="J162" s="8" t="str">
+      <c r="J162" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K162" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K162" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
       <c r="B163" s="3" t="s">
         <v>156</v>
@@ -6879,24 +6883,24 @@
       <c r="G163" s="3">
         <v>250</v>
       </c>
-      <c r="H163" s="6">
+      <c r="H163" s="5">
         <v>134</v>
       </c>
       <c r="I163" s="3">
         <v>0</v>
       </c>
-      <c r="J163" s="8" t="str">
+      <c r="J163" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K163" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K163" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C164" s="3">
         <v>658</v>
@@ -6913,24 +6917,24 @@
       <c r="G164" s="3">
         <v>270</v>
       </c>
-      <c r="H164" s="6">
+      <c r="H164" s="5">
         <v>143</v>
       </c>
       <c r="I164" s="3">
         <v>0</v>
       </c>
-      <c r="J164" s="8" t="str">
+      <c r="J164" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K164" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K164" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C165" s="3">
         <v>687</v>
@@ -6947,21 +6951,21 @@
       <c r="G165" s="3">
         <v>252</v>
       </c>
-      <c r="H165" s="6">
+      <c r="H165" s="5">
         <v>135</v>
       </c>
       <c r="I165" s="3">
         <v>0</v>
       </c>
-      <c r="J165" s="8" t="str">
+      <c r="J165" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K165" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K165" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
       <c r="B166" s="3" t="s">
         <v>157</v>
@@ -6981,98 +6985,92 @@
       <c r="G166" s="3">
         <v>287</v>
       </c>
-      <c r="H166" s="6">
+      <c r="H166" s="5">
         <v>60</v>
       </c>
       <c r="I166" s="3">
         <v>0</v>
       </c>
-      <c r="J166" s="8" t="str">
+      <c r="J166" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K166" s="9" t="s">
+      <c r="K166" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="12"/>
+      <c r="B167" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C167" s="13">
+        <v>649</v>
+      </c>
+      <c r="D167" s="13">
+        <v>7761</v>
+      </c>
+      <c r="E167" s="13">
+        <v>649</v>
+      </c>
+      <c r="F167" s="13">
+        <v>246</v>
+      </c>
+      <c r="G167" s="13">
+        <v>343</v>
+      </c>
+      <c r="H167" s="14">
+        <v>60</v>
+      </c>
+      <c r="I167" s="13">
+        <v>0</v>
+      </c>
+      <c r="J167" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+      <c r="K167" s="8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="12"/>
-      <c r="B167" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C167" s="4">
-        <v>655</v>
-      </c>
-      <c r="D167" s="4">
-        <v>7717</v>
-      </c>
-      <c r="E167" s="4">
-        <v>655</v>
-      </c>
-      <c r="F167" s="4">
-        <v>247</v>
-      </c>
-      <c r="G167" s="4">
-        <v>349</v>
-      </c>
-      <c r="H167" s="7">
-        <v>59</v>
-      </c>
-      <c r="I167" s="4">
-        <v>0</v>
-      </c>
-      <c r="J167" s="8" t="str">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="12"/>
+      <c r="B168" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C168" s="13">
+        <v>651</v>
+      </c>
+      <c r="D168" s="13">
+        <v>7798</v>
+      </c>
+      <c r="E168" s="13">
+        <v>651</v>
+      </c>
+      <c r="F168" s="13">
+        <v>232</v>
+      </c>
+      <c r="G168" s="13">
+        <v>359</v>
+      </c>
+      <c r="H168" s="14">
+        <v>60</v>
+      </c>
+      <c r="I168" s="13">
+        <v>0</v>
+      </c>
+      <c r="J168" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K167" s="9" t="s">
+      <c r="K168" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="L167" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="12"/>
-      <c r="B168" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C168" s="4">
-        <v>657</v>
-      </c>
-      <c r="D168" s="4">
-        <v>7749</v>
-      </c>
-      <c r="E168" s="4">
-        <v>657</v>
-      </c>
-      <c r="F168" s="4">
-        <v>246</v>
-      </c>
-      <c r="G168" s="4">
-        <v>352</v>
-      </c>
-      <c r="H168" s="7">
-        <v>59</v>
-      </c>
-      <c r="I168" s="4">
-        <v>0</v>
-      </c>
-      <c r="J168" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Valid</v>
-      </c>
-      <c r="K168" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="L168" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
       <c r="B169" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C169" s="3">
         <v>652</v>
@@ -7089,21 +7087,21 @@
       <c r="G169" s="3">
         <v>346</v>
       </c>
-      <c r="H169" s="6">
+      <c r="H169" s="5">
         <v>60</v>
       </c>
       <c r="I169" s="3">
         <v>0</v>
       </c>
-      <c r="J169" s="8" t="str">
+      <c r="J169" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K169" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K169" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>871</v>
       </c>
@@ -7125,21 +7123,21 @@
       <c r="G170" s="3">
         <v>380</v>
       </c>
-      <c r="H170" s="6">
+      <c r="H170" s="5">
         <v>0</v>
       </c>
       <c r="I170" s="3">
         <v>0</v>
       </c>
-      <c r="J170" s="8" t="str">
+      <c r="J170" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K170" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K170" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="3" t="s">
         <v>2</v>
@@ -7159,142 +7157,192 @@
       <c r="G171" s="3">
         <v>381</v>
       </c>
-      <c r="H171" s="6">
+      <c r="H171" s="5">
         <v>0</v>
       </c>
       <c r="I171" s="3">
         <v>0</v>
       </c>
-      <c r="J171" s="8" t="str">
+      <c r="J171" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K171" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K171" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
       <c r="B172" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="6">
+      <c r="C172" s="3">
+        <v>661</v>
+      </c>
+      <c r="D172" s="3">
+        <v>8867</v>
+      </c>
+      <c r="E172" s="3">
+        <v>661</v>
+      </c>
+      <c r="F172" s="3">
+        <v>283</v>
+      </c>
+      <c r="G172" s="3">
+        <v>378</v>
+      </c>
+      <c r="H172" s="5">
         <v>0</v>
       </c>
       <c r="I172" s="3">
         <v>0</v>
       </c>
-      <c r="J172" s="8" t="str">
+      <c r="J172" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K172" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K172" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
       <c r="B173" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="6">
+      <c r="C173" s="3">
+        <v>659</v>
+      </c>
+      <c r="D173" s="3">
+        <v>8855</v>
+      </c>
+      <c r="E173" s="3">
+        <v>659</v>
+      </c>
+      <c r="F173" s="3">
+        <v>284</v>
+      </c>
+      <c r="G173" s="3">
+        <v>375</v>
+      </c>
+      <c r="H173" s="5">
         <v>0</v>
       </c>
       <c r="I173" s="3">
         <v>0</v>
       </c>
-      <c r="J173" s="8" t="str">
+      <c r="J173" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K173" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K173" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>872</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="6">
+      <c r="C174" s="3">
+        <v>628</v>
+      </c>
+      <c r="D174" s="3">
+        <v>8387</v>
+      </c>
+      <c r="E174" s="3">
+        <v>628</v>
+      </c>
+      <c r="F174" s="3">
+        <v>184</v>
+      </c>
+      <c r="G174" s="3">
+        <v>444</v>
+      </c>
+      <c r="H174" s="5">
         <v>0</v>
       </c>
       <c r="I174" s="3">
         <v>0</v>
       </c>
-      <c r="J174" s="8" t="str">
+      <c r="J174" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K174" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K174" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
       <c r="B175" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="6">
+      <c r="C175" s="3">
+        <v>613</v>
+      </c>
+      <c r="D175" s="3">
+        <v>8220</v>
+      </c>
+      <c r="E175" s="3">
+        <v>613</v>
+      </c>
+      <c r="F175" s="3">
+        <v>181</v>
+      </c>
+      <c r="G175" s="3">
+        <v>432</v>
+      </c>
+      <c r="H175" s="5">
         <v>0</v>
       </c>
       <c r="I175" s="3">
         <v>0</v>
       </c>
-      <c r="J175" s="8" t="str">
+      <c r="J175" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K175" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K175" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <v>873</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="6">
+      <c r="C176" s="3">
+        <v>601</v>
+      </c>
+      <c r="D176" s="3">
+        <v>8092</v>
+      </c>
+      <c r="E176" s="3">
+        <v>601</v>
+      </c>
+      <c r="F176" s="3">
+        <v>223</v>
+      </c>
+      <c r="G176" s="3">
+        <v>378</v>
+      </c>
+      <c r="H176" s="5">
         <v>0</v>
       </c>
       <c r="I176" s="3">
         <v>0</v>
       </c>
-      <c r="J176" s="8" t="str">
+      <c r="J176" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K176" s="9" t="s">
-        <v>271</v>
+      <c r="K176" s="8" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -7302,23 +7350,33 @@
       <c r="B177" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="6">
+      <c r="C177" s="3">
+        <v>597</v>
+      </c>
+      <c r="D177" s="3">
+        <v>8016</v>
+      </c>
+      <c r="E177" s="3">
+        <v>597</v>
+      </c>
+      <c r="F177" s="3">
+        <v>181</v>
+      </c>
+      <c r="G177" s="3">
+        <v>416</v>
+      </c>
+      <c r="H177" s="5">
         <v>0</v>
       </c>
       <c r="I177" s="3">
         <v>0</v>
       </c>
-      <c r="J177" s="8" t="str">
+      <c r="J177" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K177" s="9" t="s">
-        <v>272</v>
+      <c r="K177" s="8" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -7326,23 +7384,33 @@
       <c r="B178" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="6">
+      <c r="C178" s="3">
+        <v>597</v>
+      </c>
+      <c r="D178" s="3">
+        <v>8072</v>
+      </c>
+      <c r="E178" s="3">
+        <v>597</v>
+      </c>
+      <c r="F178" s="3">
+        <v>199</v>
+      </c>
+      <c r="G178" s="3">
+        <v>398</v>
+      </c>
+      <c r="H178" s="5">
         <v>0</v>
       </c>
       <c r="I178" s="3">
         <v>0</v>
       </c>
-      <c r="J178" s="8" t="str">
+      <c r="J178" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K178" s="9" t="s">
-        <v>273</v>
+      <c r="K178" s="8" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -7350,66 +7418,82 @@
       <c r="B179" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="6">
+      <c r="C179" s="3">
+        <v>601</v>
+      </c>
+      <c r="D179" s="3">
+        <v>8056</v>
+      </c>
+      <c r="E179" s="3">
+        <v>601</v>
+      </c>
+      <c r="F179" s="3">
+        <v>198</v>
+      </c>
+      <c r="G179" s="3">
+        <v>403</v>
+      </c>
+      <c r="H179" s="5">
         <v>0</v>
       </c>
       <c r="I179" s="3">
         <v>0</v>
       </c>
-      <c r="J179" s="8" t="str">
+      <c r="J179" s="9" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K179" s="9" t="s">
-        <v>274</v>
+      <c r="K179" s="8" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B180" s="12"/>
+      <c r="A180" s="3">
+        <v>21</v>
+      </c>
+      <c r="B180" s="3">
+        <v>178</v>
+      </c>
       <c r="C180" s="3">
         <f>SUM(C2:C179)</f>
-        <v>127677</v>
+        <v>132613</v>
       </c>
       <c r="D180" s="3">
         <f t="shared" ref="D180:I180" si="3">SUM(D2:D179)</f>
-        <v>1373779</v>
+        <v>1440961</v>
       </c>
       <c r="E180" s="3">
         <f t="shared" si="3"/>
-        <v>127677</v>
+        <v>132613</v>
       </c>
       <c r="F180" s="3">
         <f t="shared" si="3"/>
-        <v>62019</v>
+        <v>63997</v>
       </c>
       <c r="G180" s="3">
         <f t="shared" si="3"/>
-        <v>48372</v>
-      </c>
-      <c r="H180" s="6">
+        <v>51336</v>
+      </c>
+      <c r="H180" s="5">
         <f t="shared" si="3"/>
-        <v>16561</v>
+        <v>16555</v>
       </c>
       <c r="I180" s="3">
         <f t="shared" si="3"/>
         <v>725</v>
       </c>
+      <c r="J180" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K180" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A162:A169"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="J180:K180"/>
     <mergeCell ref="A158:A161"/>
     <mergeCell ref="A42:A49"/>
     <mergeCell ref="A50:A65"/>
@@ -7422,13 +7506,14 @@
     <mergeCell ref="A126:A133"/>
     <mergeCell ref="A134:A149"/>
     <mergeCell ref="A150:A157"/>
-    <mergeCell ref="A162:A169"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="K170:K179" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/metadata.xlsx
+++ b/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{228AE550-B25F-4AF9-87BB-13233C72D6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D658BBC8-CC28-416A-BD2E-65D59D0988E5}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{228AE550-B25F-4AF9-87BB-13233C72D6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8AB9330-318F-47AB-8295-FFC34A1CF6C1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="276">
   <si>
     <t>Label</t>
   </si>
@@ -857,13 +857,19 @@
   </si>
   <si>
     <t>110</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Benign-behaviour-only sceanrios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,8 +890,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -904,8 +918,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -928,37 +948,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -967,12 +961,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,22 +972,25 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1294,11 +1285,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242D98A4-6CBD-4CB3-8207-0942D773A1FC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K180"/>
+  <dimension ref="A1:K192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J180" sqref="J180:K180"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1312,10 +1303,9 @@
     <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="109.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="109.140625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1340,21 +1330,21 @@
       <c r="G1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>170</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="8">
         <v>811</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1375,22 +1365,22 @@
       <c r="G2" s="3">
         <v>193</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>120</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="9" t="str">
+      <c r="J2" s="12" t="str">
         <f t="shared" ref="J2:J51" si="0">IF(SUM(F2:I2)=E2, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1409,22 +1399,22 @@
       <c r="G3" s="3">
         <v>193</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>120</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="J3" s="9" t="str">
+      <c r="J3" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1443,22 +1433,22 @@
       <c r="G4" s="3">
         <v>96</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>120</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="9" t="str">
+      <c r="J4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1477,22 +1467,22 @@
       <c r="G5" s="3">
         <v>95</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>120</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="9" t="str">
+      <c r="J5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1511,22 +1501,22 @@
       <c r="G6" s="3">
         <v>93</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>45</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="9" t="str">
+      <c r="J6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1545,22 +1535,22 @@
       <c r="G7" s="3">
         <v>92</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>45</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="9" t="str">
+      <c r="J7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1579,22 +1569,22 @@
       <c r="G8" s="3">
         <v>43</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>30</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="9" t="str">
+      <c r="J8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1613,22 +1603,22 @@
       <c r="G9" s="3">
         <v>45</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>30</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="9" t="str">
+      <c r="J9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="8">
         <v>812</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1649,22 +1639,22 @@
       <c r="G10" s="3">
         <v>192</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>120</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="9" t="str">
+      <c r="J10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>59</v>
       </c>
@@ -1683,22 +1673,22 @@
       <c r="G11" s="3">
         <v>192</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>120</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="9" t="str">
+      <c r="J11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="3" t="s">
         <v>60</v>
       </c>
@@ -1717,22 +1707,22 @@
       <c r="G12" s="3">
         <v>93</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>120</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="9" t="str">
+      <c r="J12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
@@ -1751,22 +1741,22 @@
       <c r="G13" s="3">
         <v>95</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>120</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="9" t="str">
+      <c r="J13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>62</v>
       </c>
@@ -1785,22 +1775,22 @@
       <c r="G14" s="3">
         <v>93</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>45</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="9" t="str">
+      <c r="J14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="3" t="s">
         <v>63</v>
       </c>
@@ -1819,22 +1809,22 @@
       <c r="G15" s="3">
         <v>92</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>45</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="9" t="str">
+      <c r="J15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="3" t="s">
         <v>64</v>
       </c>
@@ -1853,22 +1843,22 @@
       <c r="G16" s="3">
         <v>43</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <v>30</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
-      <c r="J16" s="9" t="str">
+      <c r="J16" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
         <v>65</v>
       </c>
@@ -1887,22 +1877,22 @@
       <c r="G17" s="3">
         <v>44</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <v>30</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="9" t="str">
+      <c r="J17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="8">
         <v>813</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1923,22 +1913,22 @@
       <c r="G18" s="3">
         <v>190</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>120</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="9" t="str">
+      <c r="J18" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="3" t="s">
         <v>67</v>
       </c>
@@ -1957,22 +1947,22 @@
       <c r="G19" s="3">
         <v>195</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>120</v>
       </c>
       <c r="I19" s="3">
         <v>0</v>
       </c>
-      <c r="J19" s="9" t="str">
+      <c r="J19" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="3" t="s">
         <v>74</v>
       </c>
@@ -1991,22 +1981,22 @@
       <c r="G20" s="3">
         <v>194</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>120</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="9" t="str">
+      <c r="J20" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="3" t="s">
         <v>78</v>
       </c>
@@ -2025,22 +2015,22 @@
       <c r="G21" s="3">
         <v>189</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <v>120</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="9" t="str">
+      <c r="J21" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="3" t="s">
         <v>68</v>
       </c>
@@ -2059,22 +2049,22 @@
       <c r="G22" s="3">
         <v>96</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="3">
         <v>120</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="9" t="str">
+      <c r="J22" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="3" t="s">
         <v>69</v>
       </c>
@@ -2093,22 +2083,22 @@
       <c r="G23" s="3">
         <v>95</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <v>120</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="9" t="str">
+      <c r="J23" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="3" t="s">
         <v>75</v>
       </c>
@@ -2127,22 +2117,22 @@
       <c r="G24" s="3">
         <v>97</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="3">
         <v>120</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="9" t="str">
+      <c r="J24" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
@@ -2161,22 +2151,22 @@
       <c r="G25" s="3">
         <v>96</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="3">
         <v>120</v>
       </c>
       <c r="I25" s="3">
         <v>0</v>
       </c>
-      <c r="J25" s="9" t="str">
+      <c r="J25" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="3" t="s">
         <v>70</v>
       </c>
@@ -2195,22 +2185,22 @@
       <c r="G26" s="3">
         <v>93</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="3">
         <v>45</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="9" t="str">
+      <c r="J26" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="3" t="s">
         <v>71</v>
       </c>
@@ -2229,22 +2219,22 @@
       <c r="G27" s="3">
         <v>94</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="3">
         <v>45</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="9" t="str">
+      <c r="J27" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="3" t="s">
         <v>76</v>
       </c>
@@ -2263,22 +2253,22 @@
       <c r="G28" s="3">
         <v>93</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="3">
         <v>45</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
       </c>
-      <c r="J28" s="9" t="str">
+      <c r="J28" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="3" t="s">
         <v>80</v>
       </c>
@@ -2297,22 +2287,22 @@
       <c r="G29" s="3">
         <v>93</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="3">
         <v>45</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="9" t="str">
+      <c r="J29" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="3" t="s">
         <v>72</v>
       </c>
@@ -2331,22 +2321,22 @@
       <c r="G30" s="3">
         <v>42</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="3">
         <v>30</v>
       </c>
       <c r="I30" s="3">
         <v>0</v>
       </c>
-      <c r="J30" s="9" t="str">
+      <c r="J30" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="3" t="s">
         <v>73</v>
       </c>
@@ -2365,22 +2355,22 @@
       <c r="G31" s="3">
         <v>40</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="3">
         <v>30</v>
       </c>
       <c r="I31" s="3">
         <v>0</v>
       </c>
-      <c r="J31" s="9" t="str">
+      <c r="J31" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="3" t="s">
         <v>77</v>
       </c>
@@ -2399,22 +2389,22 @@
       <c r="G32" s="3">
         <v>43</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="3">
         <v>30</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="9" t="str">
+      <c r="J32" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="3" t="s">
         <v>81</v>
       </c>
@@ -2433,22 +2423,22 @@
       <c r="G33" s="3">
         <v>43</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="3">
         <v>30</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="9" t="str">
+      <c r="J33" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="A34" s="8">
         <v>821</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2469,22 +2459,22 @@
       <c r="G34" s="3">
         <v>54</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="3">
         <v>30</v>
       </c>
       <c r="I34" s="3">
         <v>0</v>
       </c>
-      <c r="J34" s="9" t="str">
+      <c r="J34" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
@@ -2503,22 +2493,22 @@
       <c r="G35" s="3">
         <v>54</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="3">
         <v>30</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" s="9" t="str">
+      <c r="J35" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
@@ -2537,22 +2527,22 @@
       <c r="G36" s="3">
         <v>27</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="3">
         <v>30</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
       </c>
-      <c r="J36" s="9" t="str">
+      <c r="J36" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="3" t="s">
         <v>27</v>
       </c>
@@ -2571,22 +2561,22 @@
       <c r="G37" s="3">
         <v>25</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="3">
         <v>30</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
       </c>
-      <c r="J37" s="9" t="str">
+      <c r="J37" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="8">
         <v>822</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2607,22 +2597,22 @@
       <c r="G38" s="3">
         <v>54</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="3">
         <v>30</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
       </c>
-      <c r="J38" s="9" t="str">
+      <c r="J38" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="3" t="s">
         <v>84</v>
       </c>
@@ -2641,56 +2631,56 @@
       <c r="G39" s="3">
         <v>54</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="3">
         <v>30</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
       </c>
-      <c r="J39" s="9" t="str">
+      <c r="J39" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="7">
         <v>640</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="7">
         <v>7602</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="7">
         <v>640</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="7">
         <v>581</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="7">
         <v>29</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="7">
         <v>30</v>
       </c>
-      <c r="I40" s="10">
-        <v>0</v>
-      </c>
-      <c r="J40" s="9" t="str">
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="K40" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="3" t="s">
         <v>86</v>
       </c>
@@ -2709,22 +2699,22 @@
       <c r="G41" s="3">
         <v>26</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="3">
         <v>30</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="9" t="str">
+      <c r="J41" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="A42" s="8">
         <v>823</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2745,22 +2735,22 @@
       <c r="G42" s="3">
         <v>54</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="3">
         <v>30</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
-      <c r="J42" s="9" t="str">
+      <c r="J42" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="3" t="s">
         <v>88</v>
       </c>
@@ -2779,22 +2769,22 @@
       <c r="G43" s="3">
         <v>54</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="3">
         <v>30</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="9" t="str">
+      <c r="J43" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="3" t="s">
         <v>89</v>
       </c>
@@ -2813,22 +2803,22 @@
       <c r="G44" s="3">
         <v>54</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="3">
         <v>30</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="9" t="str">
+      <c r="J44" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="K44" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="3" t="s">
         <v>90</v>
       </c>
@@ -2847,22 +2837,22 @@
       <c r="G45" s="3">
         <v>54</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="3">
         <v>30</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="9" t="str">
+      <c r="J45" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="6" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="3" t="s">
         <v>91</v>
       </c>
@@ -2881,22 +2871,22 @@
       <c r="G46" s="3">
         <v>25</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="3">
         <v>30</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="9" t="str">
+      <c r="J46" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="K46" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="3" t="s">
         <v>92</v>
       </c>
@@ -2915,22 +2905,22 @@
       <c r="G47" s="3">
         <v>27</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="3">
         <v>30</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="9" t="str">
+      <c r="J47" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="3" t="s">
         <v>93</v>
       </c>
@@ -2949,22 +2939,22 @@
       <c r="G48" s="3">
         <v>26</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="3">
         <v>30</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="9" t="str">
+      <c r="J48" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K48" s="8" t="s">
+      <c r="K48" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="3" t="s">
         <v>94</v>
       </c>
@@ -2983,22 +2973,22 @@
       <c r="G49" s="3">
         <v>26</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="3">
         <v>30</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="9" t="str">
+      <c r="J49" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K49" s="8" t="s">
+      <c r="K49" s="6" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
+      <c r="A50" s="8">
         <v>831</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -3019,22 +3009,22 @@
       <c r="G50" s="3">
         <v>370</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="3">
         <v>219</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="4">
         <v>101</v>
       </c>
-      <c r="J50" s="9" t="str">
+      <c r="J50" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="3" t="s">
         <v>28</v>
       </c>
@@ -3053,22 +3043,22 @@
       <c r="G51" s="3">
         <v>373</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="3">
         <v>220</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="4">
         <v>92</v>
       </c>
-      <c r="J51" s="9" t="str">
+      <c r="J51" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="3" t="s">
         <v>40</v>
       </c>
@@ -3087,22 +3077,22 @@
       <c r="G52" s="3">
         <v>385</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="3">
         <v>228</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="4">
         <v>94</v>
       </c>
-      <c r="J52" s="9" t="str">
+      <c r="J52" s="12" t="str">
         <f>IF(SUM(F52:I52)=E52, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
-      <c r="K52" s="8" t="s">
+      <c r="K52" s="6" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="3" t="s">
         <v>41</v>
       </c>
@@ -3121,22 +3111,22 @@
       <c r="G53" s="3">
         <v>375</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="3">
         <v>222</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="4">
         <v>95</v>
       </c>
-      <c r="J53" s="9" t="str">
+      <c r="J53" s="12" t="str">
         <f t="shared" ref="J53:J116" si="1">IF(SUM(F53:I53)=E53, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
-      <c r="K53" s="8" t="s">
+      <c r="K53" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
@@ -3155,22 +3145,22 @@
       <c r="G54" s="3">
         <v>381</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="3">
         <v>80</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="J54" s="9" t="str">
+      <c r="J54" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K54" s="8" t="s">
+      <c r="K54" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="3" t="s">
         <v>29</v>
       </c>
@@ -3189,22 +3179,22 @@
       <c r="G55" s="3">
         <v>378</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="3">
         <v>80</v>
       </c>
       <c r="I55" s="3">
         <v>0</v>
       </c>
-      <c r="J55" s="9" t="str">
+      <c r="J55" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="K55" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="3" t="s">
         <v>42</v>
       </c>
@@ -3223,22 +3213,22 @@
       <c r="G56" s="3">
         <v>387</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="3">
         <v>80</v>
       </c>
       <c r="I56" s="3">
         <v>0</v>
       </c>
-      <c r="J56" s="9" t="str">
+      <c r="J56" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K56" s="8" t="s">
+      <c r="K56" s="6" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="3" t="s">
         <v>43</v>
       </c>
@@ -3257,22 +3247,22 @@
       <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="3">
         <v>80</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="9" t="str">
+      <c r="J57" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="K57" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="3" t="s">
         <v>11</v>
       </c>
@@ -3291,22 +3281,22 @@
       <c r="G58" s="3">
         <v>378</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="3">
         <v>121</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="4">
         <v>68</v>
       </c>
-      <c r="J58" s="9" t="str">
+      <c r="J58" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K58" s="8" t="s">
+      <c r="K58" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="3" t="s">
         <v>30</v>
       </c>
@@ -3325,22 +3315,22 @@
       <c r="G59" s="3">
         <v>378</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="3">
         <v>120</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="4">
         <v>79</v>
       </c>
-      <c r="J59" s="9" t="str">
+      <c r="J59" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K59" s="8" t="s">
+      <c r="K59" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="3" t="s">
         <v>44</v>
       </c>
@@ -3359,22 +3349,22 @@
       <c r="G60" s="3">
         <v>380</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="3">
         <v>122</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="4">
         <v>95</v>
       </c>
-      <c r="J60" s="9" t="str">
+      <c r="J60" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K60" s="8" t="s">
+      <c r="K60" s="6" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="3" t="s">
         <v>45</v>
       </c>
@@ -3393,22 +3383,22 @@
       <c r="G61" s="3">
         <v>380</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="3">
         <v>121</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="4">
         <v>101</v>
       </c>
-      <c r="J61" s="9" t="str">
+      <c r="J61" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K61" s="8" t="s">
+      <c r="K61" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="3" t="s">
         <v>12</v>
       </c>
@@ -3427,22 +3417,22 @@
       <c r="G62" s="3">
         <v>382</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="3">
         <v>60</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="9" t="str">
+      <c r="J62" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K62" s="8" t="s">
+      <c r="K62" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="3" t="s">
         <v>31</v>
       </c>
@@ -3461,22 +3451,22 @@
       <c r="G63" s="3">
         <v>375</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="3">
         <v>60</v>
       </c>
       <c r="I63" s="3">
         <v>0</v>
       </c>
-      <c r="J63" s="9" t="str">
+      <c r="J63" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="K63" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="3" t="s">
         <v>46</v>
       </c>
@@ -3495,22 +3485,22 @@
       <c r="G64" s="3">
         <v>397</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="3">
         <v>60</v>
       </c>
       <c r="I64" s="3">
         <v>0</v>
       </c>
-      <c r="J64" s="9" t="str">
+      <c r="J64" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K64" s="8" t="s">
+      <c r="K64" s="6" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="3" t="s">
         <v>47</v>
       </c>
@@ -3529,22 +3519,22 @@
       <c r="G65" s="3">
         <v>390</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="3">
         <v>60</v>
       </c>
       <c r="I65" s="3">
         <v>0</v>
       </c>
-      <c r="J65" s="9" t="str">
+      <c r="J65" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K65" s="8" t="s">
+      <c r="K65" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="12">
+      <c r="A66" s="8">
         <v>832</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -3565,22 +3555,22 @@
       <c r="G66" s="3">
         <v>402</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="3">
         <v>235</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
       </c>
-      <c r="J66" s="9" t="str">
+      <c r="J66" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K66" s="8" t="s">
+      <c r="K66" s="6" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="3" t="s">
         <v>96</v>
       </c>
@@ -3599,22 +3589,22 @@
       <c r="G67" s="3">
         <v>413</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="3">
         <v>242</v>
       </c>
       <c r="I67" s="3">
         <v>0</v>
       </c>
-      <c r="J67" s="9" t="str">
+      <c r="J67" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K67" s="8" t="s">
+      <c r="K67" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="3" t="s">
         <v>97</v>
       </c>
@@ -3633,22 +3623,22 @@
       <c r="G68" s="3">
         <v>392</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="3">
         <v>80</v>
       </c>
       <c r="I68" s="3">
         <v>0</v>
       </c>
-      <c r="J68" s="9" t="str">
+      <c r="J68" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K68" s="8" t="s">
+      <c r="K68" s="6" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="3" t="s">
         <v>98</v>
       </c>
@@ -3667,22 +3657,22 @@
       <c r="G69" s="3">
         <v>411</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="3">
         <v>80</v>
       </c>
       <c r="I69" s="3">
         <v>0</v>
       </c>
-      <c r="J69" s="9" t="str">
+      <c r="J69" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K69" s="8" t="s">
+      <c r="K69" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="3" t="s">
         <v>99</v>
       </c>
@@ -3701,22 +3691,22 @@
       <c r="G70" s="3">
         <v>413</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="3">
         <v>131</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
-      <c r="J70" s="9" t="str">
+      <c r="J70" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K70" s="8" t="s">
+      <c r="K70" s="6" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="3" t="s">
         <v>100</v>
       </c>
@@ -3735,22 +3725,22 @@
       <c r="G71" s="3">
         <v>411</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="3">
         <v>130</v>
       </c>
       <c r="I71" s="3">
         <v>0</v>
       </c>
-      <c r="J71" s="9" t="str">
+      <c r="J71" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K71" s="8" t="s">
+      <c r="K71" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="3" t="s">
         <v>101</v>
       </c>
@@ -3769,22 +3759,22 @@
       <c r="G72" s="3">
         <v>399</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="3">
         <v>60</v>
       </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="9" t="str">
+      <c r="J72" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K72" s="8" t="s">
+      <c r="K72" s="6" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="3" t="s">
         <v>102</v>
       </c>
@@ -3803,22 +3793,22 @@
       <c r="G73" s="3">
         <v>414</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73" s="3">
         <v>60</v>
       </c>
       <c r="I73" s="3">
         <v>0</v>
       </c>
-      <c r="J73" s="9" t="str">
+      <c r="J73" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K73" s="8" t="s">
+      <c r="K73" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="12">
+      <c r="A74" s="8">
         <v>833</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -3839,22 +3829,22 @@
       <c r="G74" s="3">
         <v>400</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H74" s="3">
         <v>235</v>
       </c>
       <c r="I74" s="3">
         <v>0</v>
       </c>
-      <c r="J74" s="9" t="str">
+      <c r="J74" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K74" s="8" t="s">
+      <c r="K74" s="6" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="3" t="s">
         <v>104</v>
       </c>
@@ -3873,22 +3863,22 @@
       <c r="G75" s="3">
         <v>379</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75" s="3">
         <v>223</v>
       </c>
       <c r="I75" s="3">
         <v>0</v>
       </c>
-      <c r="J75" s="9" t="str">
+      <c r="J75" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K75" s="8" t="s">
+      <c r="K75" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="3" t="s">
         <v>105</v>
       </c>
@@ -3907,22 +3897,22 @@
       <c r="G76" s="3">
         <v>406</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H76" s="3">
         <v>237</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="J76" s="9" t="str">
+      <c r="J76" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K76" s="8" t="s">
+      <c r="K76" s="6" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="3" t="s">
         <v>106</v>
       </c>
@@ -3941,22 +3931,22 @@
       <c r="G77" s="3">
         <v>411</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="3">
         <v>242</v>
       </c>
       <c r="I77" s="3">
         <v>0</v>
       </c>
-      <c r="J77" s="9" t="str">
+      <c r="J77" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K77" s="8" t="s">
+      <c r="K77" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="3" t="s">
         <v>107</v>
       </c>
@@ -3975,22 +3965,22 @@
       <c r="G78" s="3">
         <v>402</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="3">
         <v>80</v>
       </c>
       <c r="I78" s="3">
         <v>0</v>
       </c>
-      <c r="J78" s="9" t="str">
+      <c r="J78" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K78" s="8" t="s">
+      <c r="K78" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="3" t="s">
         <v>108</v>
       </c>
@@ -4009,22 +3999,22 @@
       <c r="G79" s="3">
         <v>407</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="3">
         <v>80</v>
       </c>
       <c r="I79" s="3">
         <v>0</v>
       </c>
-      <c r="J79" s="9" t="str">
+      <c r="J79" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K79" s="8" t="s">
+      <c r="K79" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="3" t="s">
         <v>109</v>
       </c>
@@ -4043,22 +4033,22 @@
       <c r="G80" s="3">
         <v>401</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H80" s="3">
         <v>80</v>
       </c>
       <c r="I80" s="3">
         <v>0</v>
       </c>
-      <c r="J80" s="9" t="str">
+      <c r="J80" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K80" s="8" t="s">
+      <c r="K80" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="3" t="s">
         <v>110</v>
       </c>
@@ -4077,22 +4067,22 @@
       <c r="G81" s="3">
         <v>411</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="3">
         <v>80</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
-      <c r="J81" s="9" t="str">
+      <c r="J81" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K81" s="8" t="s">
+      <c r="K81" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="3" t="s">
         <v>111</v>
       </c>
@@ -4111,22 +4101,22 @@
       <c r="G82" s="3">
         <v>412</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="3">
         <v>131</v>
       </c>
       <c r="I82" s="3">
         <v>0</v>
       </c>
-      <c r="J82" s="9" t="str">
+      <c r="J82" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K82" s="8" t="s">
+      <c r="K82" s="6" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
+      <c r="A83" s="8"/>
       <c r="B83" s="3" t="s">
         <v>112</v>
       </c>
@@ -4145,22 +4135,22 @@
       <c r="G83" s="3">
         <v>395</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H83" s="3">
         <v>125</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="9" t="str">
+      <c r="J83" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K83" s="8" t="s">
+      <c r="K83" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="3" t="s">
         <v>113</v>
       </c>
@@ -4179,22 +4169,22 @@
       <c r="G84" s="3">
         <v>404</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84" s="3">
         <v>129</v>
       </c>
       <c r="I84" s="3">
         <v>0</v>
       </c>
-      <c r="J84" s="9" t="str">
+      <c r="J84" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K84" s="8" t="s">
+      <c r="K84" s="6" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="3" t="s">
         <v>114</v>
       </c>
@@ -4213,22 +4203,22 @@
       <c r="G85" s="3">
         <v>401</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="3">
         <v>128</v>
       </c>
       <c r="I85" s="3">
         <v>0</v>
       </c>
-      <c r="J85" s="9" t="str">
+      <c r="J85" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K85" s="8" t="s">
+      <c r="K85" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
+      <c r="A86" s="8"/>
       <c r="B86" s="3" t="s">
         <v>115</v>
       </c>
@@ -4247,22 +4237,22 @@
       <c r="G86" s="3">
         <v>406</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86" s="3">
         <v>60</v>
       </c>
       <c r="I86" s="3">
         <v>0</v>
       </c>
-      <c r="J86" s="9" t="str">
+      <c r="J86" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K86" s="8" t="s">
+      <c r="K86" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="3" t="s">
         <v>116</v>
       </c>
@@ -4281,22 +4271,22 @@
       <c r="G87" s="3">
         <v>432</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87" s="3">
         <v>60</v>
       </c>
       <c r="I87" s="3">
         <v>0</v>
       </c>
-      <c r="J87" s="9" t="str">
+      <c r="J87" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K87" s="8" t="s">
+      <c r="K87" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="3" t="s">
         <v>117</v>
       </c>
@@ -4315,22 +4305,22 @@
       <c r="G88" s="3">
         <v>403</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H88" s="3">
         <v>60</v>
       </c>
       <c r="I88" s="3">
         <v>0</v>
       </c>
-      <c r="J88" s="9" t="str">
+      <c r="J88" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K88" s="8" t="s">
+      <c r="K88" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="3" t="s">
         <v>118</v>
       </c>
@@ -4349,22 +4339,22 @@
       <c r="G89" s="3">
         <v>407</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H89" s="3">
         <v>60</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
-      <c r="J89" s="9" t="str">
+      <c r="J89" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K89" s="8" t="s">
+      <c r="K89" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="12">
+      <c r="A90" s="8">
         <v>841</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -4385,22 +4375,22 @@
       <c r="G90" s="3">
         <v>243</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H90" s="3">
         <v>132</v>
       </c>
       <c r="I90" s="3">
         <v>0</v>
       </c>
-      <c r="J90" s="9" t="str">
+      <c r="J90" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K90" s="8" t="s">
+      <c r="K90" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="3" t="s">
         <v>32</v>
       </c>
@@ -4419,22 +4409,22 @@
       <c r="G91" s="3">
         <v>242</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91" s="3">
         <v>129</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="9" t="str">
+      <c r="J91" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K91" s="8" t="s">
+      <c r="K91" s="6" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
+      <c r="A92" s="8"/>
       <c r="B92" s="3" t="s">
         <v>210</v>
       </c>
@@ -4453,22 +4443,22 @@
       <c r="G92" s="3">
         <v>247</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H92" s="3">
         <v>133</v>
       </c>
       <c r="I92" s="3">
         <v>0</v>
       </c>
-      <c r="J92" s="9" t="str">
+      <c r="J92" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K92" s="8" t="s">
+      <c r="K92" s="6" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
+      <c r="A93" s="8"/>
       <c r="B93" s="3" t="s">
         <v>211</v>
       </c>
@@ -4487,22 +4477,22 @@
       <c r="G93" s="3">
         <v>249</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93" s="3">
         <v>133</v>
       </c>
       <c r="I93" s="3">
         <v>0</v>
       </c>
-      <c r="J93" s="9" t="str">
+      <c r="J93" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K93" s="8" t="s">
+      <c r="K93" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
+      <c r="A94" s="8"/>
       <c r="B94" s="3" t="s">
         <v>14</v>
       </c>
@@ -4521,22 +4511,22 @@
       <c r="G94" s="3">
         <v>313</v>
       </c>
-      <c r="H94" s="5">
+      <c r="H94" s="3">
         <v>60</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="9" t="str">
+      <c r="J94" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K94" s="8" t="s">
+      <c r="K94" s="6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
+      <c r="A95" s="8"/>
       <c r="B95" s="3" t="s">
         <v>33</v>
       </c>
@@ -4555,22 +4545,22 @@
       <c r="G95" s="3">
         <v>331</v>
       </c>
-      <c r="H95" s="5">
+      <c r="H95" s="3">
         <v>60</v>
       </c>
       <c r="I95" s="3">
         <v>0</v>
       </c>
-      <c r="J95" s="9" t="str">
+      <c r="J95" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K95" s="8" t="s">
+      <c r="K95" s="6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="3" t="s">
         <v>212</v>
       </c>
@@ -4589,22 +4579,22 @@
       <c r="G96" s="3">
         <v>329</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H96" s="3">
         <v>60</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
-      <c r="J96" s="9" t="str">
+      <c r="J96" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K96" s="8" t="s">
+      <c r="K96" s="6" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="3" t="s">
         <v>213</v>
       </c>
@@ -4623,22 +4613,22 @@
       <c r="G97" s="3">
         <v>343</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H97" s="3">
         <v>60</v>
       </c>
       <c r="I97" s="3">
         <v>0</v>
       </c>
-      <c r="J97" s="9" t="str">
+      <c r="J97" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K97" s="8" t="s">
+      <c r="K97" s="6" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="12">
+      <c r="A98" s="8">
         <v>842</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -4659,22 +4649,22 @@
       <c r="G98" s="3">
         <v>137</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H98" s="3">
         <v>76</v>
       </c>
       <c r="I98" s="3">
         <v>0</v>
       </c>
-      <c r="J98" s="9" t="str">
+      <c r="J98" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K98" s="8" t="s">
+      <c r="K98" s="6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="3" t="s">
         <v>120</v>
       </c>
@@ -4693,22 +4683,22 @@
       <c r="G99" s="3">
         <v>135</v>
       </c>
-      <c r="H99" s="5">
+      <c r="H99" s="3">
         <v>76</v>
       </c>
       <c r="I99" s="3">
         <v>0</v>
       </c>
-      <c r="J99" s="9" t="str">
+      <c r="J99" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K99" s="8" t="s">
+      <c r="K99" s="6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
+      <c r="A100" s="8"/>
       <c r="B100" s="3" t="s">
         <v>121</v>
       </c>
@@ -4727,22 +4717,22 @@
       <c r="G100" s="3">
         <v>332</v>
       </c>
-      <c r="H100" s="5">
+      <c r="H100" s="3">
         <v>60</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="9" t="str">
+      <c r="J100" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K100" s="8" t="s">
+      <c r="K100" s="6" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="3" t="s">
         <v>122</v>
       </c>
@@ -4761,22 +4751,22 @@
       <c r="G101" s="3">
         <v>347</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H101" s="3">
         <v>60</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="9" t="str">
+      <c r="J101" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K101" s="8" t="s">
+      <c r="K101" s="6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="12">
+      <c r="A102" s="8">
         <v>843</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -4797,22 +4787,22 @@
       <c r="G102" s="3">
         <v>132</v>
       </c>
-      <c r="H102" s="5">
+      <c r="H102" s="3">
         <v>74</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="9" t="str">
+      <c r="J102" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K102" s="8" t="s">
+      <c r="K102" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
+      <c r="A103" s="8"/>
       <c r="B103" s="3" t="s">
         <v>124</v>
       </c>
@@ -4831,22 +4821,22 @@
       <c r="G103" s="3">
         <v>126</v>
       </c>
-      <c r="H103" s="5">
+      <c r="H103" s="3">
         <v>73</v>
       </c>
       <c r="I103" s="3">
         <v>0</v>
       </c>
-      <c r="J103" s="9" t="str">
+      <c r="J103" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K103" s="8" t="s">
+      <c r="K103" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
+      <c r="A104" s="8"/>
       <c r="B104" s="3" t="s">
         <v>214</v>
       </c>
@@ -4865,22 +4855,22 @@
       <c r="G104" s="3">
         <v>144</v>
       </c>
-      <c r="H104" s="5">
+      <c r="H104" s="3">
         <v>79</v>
       </c>
       <c r="I104" s="3">
         <v>0</v>
       </c>
-      <c r="J104" s="9" t="str">
+      <c r="J104" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K104" s="8" t="s">
+      <c r="K104" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="3" t="s">
         <v>215</v>
       </c>
@@ -4899,22 +4889,22 @@
       <c r="G105" s="3">
         <v>128</v>
       </c>
-      <c r="H105" s="5">
+      <c r="H105" s="3">
         <v>72</v>
       </c>
       <c r="I105" s="3">
         <v>0</v>
       </c>
-      <c r="J105" s="9" t="str">
+      <c r="J105" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K105" s="8" t="s">
+      <c r="K105" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
+      <c r="A106" s="8"/>
       <c r="B106" s="3" t="s">
         <v>125</v>
       </c>
@@ -4933,22 +4923,22 @@
       <c r="G106" s="3">
         <v>342</v>
       </c>
-      <c r="H106" s="5">
+      <c r="H106" s="3">
         <v>60</v>
       </c>
       <c r="I106" s="3">
         <v>0</v>
       </c>
-      <c r="J106" s="9" t="str">
+      <c r="J106" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K106" s="8" t="s">
+      <c r="K106" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
+      <c r="A107" s="8"/>
       <c r="B107" s="3" t="s">
         <v>126</v>
       </c>
@@ -4967,22 +4957,22 @@
       <c r="G107" s="3">
         <v>347</v>
       </c>
-      <c r="H107" s="5">
+      <c r="H107" s="3">
         <v>60</v>
       </c>
       <c r="I107" s="3">
         <v>0</v>
       </c>
-      <c r="J107" s="9" t="str">
+      <c r="J107" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K107" s="8" t="s">
+      <c r="K107" s="6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
+      <c r="A108" s="8"/>
       <c r="B108" s="3" t="s">
         <v>216</v>
       </c>
@@ -5001,22 +4991,22 @@
       <c r="G108" s="3">
         <v>350</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="3">
         <v>60</v>
       </c>
       <c r="I108" s="3">
         <v>0</v>
       </c>
-      <c r="J108" s="9" t="str">
+      <c r="J108" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K108" s="8" t="s">
+      <c r="K108" s="6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
+      <c r="A109" s="8"/>
       <c r="B109" s="3" t="s">
         <v>217</v>
       </c>
@@ -5035,22 +5025,22 @@
       <c r="G109" s="3">
         <v>347</v>
       </c>
-      <c r="H109" s="5">
+      <c r="H109" s="3">
         <v>60</v>
       </c>
       <c r="I109" s="3">
         <v>0</v>
       </c>
-      <c r="J109" s="9" t="str">
+      <c r="J109" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K109" s="8" t="s">
+      <c r="K109" s="6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="12">
+      <c r="A110" s="8">
         <v>851</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -5071,22 +5061,22 @@
       <c r="G110" s="3">
         <v>416</v>
       </c>
-      <c r="H110" s="5">
+      <c r="H110" s="3">
         <v>244</v>
       </c>
       <c r="I110" s="3">
         <v>0</v>
       </c>
-      <c r="J110" s="9" t="str">
+      <c r="J110" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K110" s="8" t="s">
+      <c r="K110" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
+      <c r="A111" s="8"/>
       <c r="B111" s="3" t="s">
         <v>34</v>
       </c>
@@ -5105,56 +5095,56 @@
       <c r="G111" s="3">
         <v>390</v>
       </c>
-      <c r="H111" s="5">
+      <c r="H111" s="3">
         <v>229</v>
       </c>
       <c r="I111" s="3">
         <v>0</v>
       </c>
-      <c r="J111" s="9" t="str">
+      <c r="J111" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K111" s="8" t="s">
+      <c r="K111" s="6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="10" t="s">
+      <c r="A112" s="8"/>
+      <c r="B112" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="7">
         <v>884</v>
       </c>
-      <c r="D112" s="10">
+      <c r="D112" s="7">
         <v>7925</v>
       </c>
-      <c r="E112" s="10">
+      <c r="E112" s="7">
         <v>884</v>
       </c>
-      <c r="F112" s="10">
+      <c r="F112" s="7">
         <v>282</v>
       </c>
-      <c r="G112" s="10">
+      <c r="G112" s="7">
         <v>377</v>
       </c>
-      <c r="H112" s="11">
+      <c r="H112" s="7">
         <v>225</v>
       </c>
-      <c r="I112" s="10">
-        <v>0</v>
-      </c>
-      <c r="J112" s="9" t="str">
+      <c r="I112" s="7">
+        <v>0</v>
+      </c>
+      <c r="J112" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K112" s="8" t="s">
+      <c r="K112" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
+      <c r="A113" s="8"/>
       <c r="B113" s="3" t="s">
         <v>49</v>
       </c>
@@ -5173,22 +5163,22 @@
       <c r="G113" s="3">
         <v>395</v>
       </c>
-      <c r="H113" s="5">
+      <c r="H113" s="3">
         <v>231</v>
       </c>
       <c r="I113" s="3">
         <v>0</v>
       </c>
-      <c r="J113" s="9" t="str">
+      <c r="J113" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K113" s="8" t="s">
+      <c r="K113" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
+      <c r="A114" s="8"/>
       <c r="B114" s="3" t="s">
         <v>16</v>
       </c>
@@ -5207,22 +5197,22 @@
       <c r="G114" s="3">
         <v>393</v>
       </c>
-      <c r="H114" s="5">
+      <c r="H114" s="3">
         <v>80</v>
       </c>
       <c r="I114" s="3">
         <v>0</v>
       </c>
-      <c r="J114" s="9" t="str">
+      <c r="J114" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K114" s="8" t="s">
+      <c r="K114" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
+      <c r="A115" s="8"/>
       <c r="B115" s="3" t="s">
         <v>35</v>
       </c>
@@ -5241,22 +5231,22 @@
       <c r="G115" s="3">
         <v>400</v>
       </c>
-      <c r="H115" s="5">
+      <c r="H115" s="3">
         <v>80</v>
       </c>
       <c r="I115" s="3">
         <v>0</v>
       </c>
-      <c r="J115" s="9" t="str">
+      <c r="J115" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K115" s="8" t="s">
+      <c r="K115" s="6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
+      <c r="A116" s="8"/>
       <c r="B116" s="3" t="s">
         <v>50</v>
       </c>
@@ -5275,22 +5265,22 @@
       <c r="G116" s="3">
         <v>409</v>
       </c>
-      <c r="H116" s="5">
+      <c r="H116" s="3">
         <v>80</v>
       </c>
       <c r="I116" s="3">
         <v>0</v>
       </c>
-      <c r="J116" s="9" t="str">
+      <c r="J116" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K116" s="8" t="s">
+      <c r="K116" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
+      <c r="A117" s="8"/>
       <c r="B117" s="3" t="s">
         <v>51</v>
       </c>
@@ -5309,22 +5299,22 @@
       <c r="G117" s="3">
         <v>407</v>
       </c>
-      <c r="H117" s="5">
+      <c r="H117" s="3">
         <v>80</v>
       </c>
       <c r="I117" s="3">
         <v>0</v>
       </c>
-      <c r="J117" s="9" t="str">
-        <f t="shared" ref="J117:J179" si="2">IF(SUM(F117:I117)=E117, "Valid", "Error")</f>
-        <v>Valid</v>
-      </c>
-      <c r="K117" s="8" t="s">
+      <c r="J117" s="12" t="str">
+        <f t="shared" ref="J117:J189" si="2">IF(SUM(F117:I117)=E117, "Valid", "Error")</f>
+        <v>Valid</v>
+      </c>
+      <c r="K117" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
+      <c r="A118" s="8"/>
       <c r="B118" s="3" t="s">
         <v>17</v>
       </c>
@@ -5343,22 +5333,22 @@
       <c r="G118" s="3">
         <v>406</v>
       </c>
-      <c r="H118" s="5">
+      <c r="H118" s="3">
         <v>130</v>
       </c>
       <c r="I118" s="3">
         <v>0</v>
       </c>
-      <c r="J118" s="9" t="str">
+      <c r="J118" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K118" s="8" t="s">
+      <c r="K118" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
+      <c r="A119" s="8"/>
       <c r="B119" s="3" t="s">
         <v>36</v>
       </c>
@@ -5377,22 +5367,22 @@
       <c r="G119" s="3">
         <v>406</v>
       </c>
-      <c r="H119" s="5">
+      <c r="H119" s="3">
         <v>129</v>
       </c>
       <c r="I119" s="3">
         <v>0</v>
       </c>
-      <c r="J119" s="9" t="str">
+      <c r="J119" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K119" s="8" t="s">
+      <c r="K119" s="6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
+      <c r="A120" s="8"/>
       <c r="B120" s="3" t="s">
         <v>52</v>
       </c>
@@ -5411,22 +5401,22 @@
       <c r="G120" s="3">
         <v>407</v>
       </c>
-      <c r="H120" s="5">
+      <c r="H120" s="3">
         <v>130</v>
       </c>
       <c r="I120" s="3">
         <v>0</v>
       </c>
-      <c r="J120" s="9" t="str">
+      <c r="J120" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K120" s="8" t="s">
+      <c r="K120" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
+      <c r="A121" s="8"/>
       <c r="B121" s="3" t="s">
         <v>53</v>
       </c>
@@ -5445,22 +5435,22 @@
       <c r="G121" s="3">
         <v>398</v>
       </c>
-      <c r="H121" s="5">
+      <c r="H121" s="3">
         <v>126</v>
       </c>
       <c r="I121" s="3">
         <v>0</v>
       </c>
-      <c r="J121" s="9" t="str">
+      <c r="J121" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K121" s="8" t="s">
+      <c r="K121" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="12"/>
+      <c r="A122" s="8"/>
       <c r="B122" s="3" t="s">
         <v>18</v>
       </c>
@@ -5479,22 +5469,22 @@
       <c r="G122" s="3">
         <v>406</v>
       </c>
-      <c r="H122" s="5">
+      <c r="H122" s="3">
         <v>60</v>
       </c>
       <c r="I122" s="3">
         <v>0</v>
       </c>
-      <c r="J122" s="9" t="str">
+      <c r="J122" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K122" s="8" t="s">
+      <c r="K122" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="12"/>
+      <c r="A123" s="8"/>
       <c r="B123" s="3" t="s">
         <v>37</v>
       </c>
@@ -5513,22 +5503,22 @@
       <c r="G123" s="3">
         <v>423</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H123" s="3">
         <v>60</v>
       </c>
       <c r="I123" s="3">
         <v>0</v>
       </c>
-      <c r="J123" s="9" t="str">
+      <c r="J123" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K123" s="8" t="s">
+      <c r="K123" s="6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
+      <c r="A124" s="8"/>
       <c r="B124" s="3" t="s">
         <v>54</v>
       </c>
@@ -5547,22 +5537,22 @@
       <c r="G124" s="3">
         <v>411</v>
       </c>
-      <c r="H124" s="5">
+      <c r="H124" s="3">
         <v>60</v>
       </c>
       <c r="I124" s="3">
         <v>0</v>
       </c>
-      <c r="J124" s="9" t="str">
+      <c r="J124" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K124" s="8" t="s">
+      <c r="K124" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
+      <c r="A125" s="8"/>
       <c r="B125" s="3" t="s">
         <v>55</v>
       </c>
@@ -5581,22 +5571,22 @@
       <c r="G125" s="3">
         <v>413</v>
       </c>
-      <c r="H125" s="5">
+      <c r="H125" s="3">
         <v>60</v>
       </c>
       <c r="I125" s="3">
         <v>0</v>
       </c>
-      <c r="J125" s="9" t="str">
+      <c r="J125" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K125" s="8" t="s">
+      <c r="K125" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="12">
+      <c r="A126" s="8">
         <v>852</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -5617,22 +5607,22 @@
       <c r="G126" s="3">
         <v>410</v>
       </c>
-      <c r="H126" s="5">
+      <c r="H126" s="3">
         <v>242</v>
       </c>
       <c r="I126" s="3">
         <v>0</v>
       </c>
-      <c r="J126" s="9" t="str">
+      <c r="J126" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K126" s="8" t="s">
+      <c r="K126" s="6" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
+      <c r="A127" s="8"/>
       <c r="B127" s="3" t="s">
         <v>128</v>
       </c>
@@ -5651,22 +5641,22 @@
       <c r="G127" s="3">
         <v>408</v>
       </c>
-      <c r="H127" s="5">
+      <c r="H127" s="3">
         <v>239</v>
       </c>
       <c r="I127" s="3">
         <v>0</v>
       </c>
-      <c r="J127" s="9" t="str">
+      <c r="J127" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K127" s="8" t="s">
+      <c r="K127" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
+      <c r="A128" s="8"/>
       <c r="B128" s="3" t="s">
         <v>129</v>
       </c>
@@ -5685,22 +5675,22 @@
       <c r="G128" s="3">
         <v>438</v>
       </c>
-      <c r="H128" s="5">
+      <c r="H128" s="3">
         <v>80</v>
       </c>
       <c r="I128" s="3">
         <v>0</v>
       </c>
-      <c r="J128" s="9" t="str">
+      <c r="J128" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K128" s="8" t="s">
+      <c r="K128" s="6" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="12"/>
+      <c r="A129" s="8"/>
       <c r="B129" s="3" t="s">
         <v>130</v>
       </c>
@@ -5719,22 +5709,22 @@
       <c r="G129" s="3">
         <v>430</v>
       </c>
-      <c r="H129" s="5">
+      <c r="H129" s="3">
         <v>80</v>
       </c>
       <c r="I129" s="3">
         <v>0</v>
       </c>
-      <c r="J129" s="9" t="str">
+      <c r="J129" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K129" s="8" t="s">
+      <c r="K129" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
+      <c r="A130" s="8"/>
       <c r="B130" s="3" t="s">
         <v>131</v>
       </c>
@@ -5753,22 +5743,22 @@
       <c r="G130" s="3">
         <v>416</v>
       </c>
-      <c r="H130" s="5">
+      <c r="H130" s="3">
         <v>132</v>
       </c>
       <c r="I130" s="3">
         <v>0</v>
       </c>
-      <c r="J130" s="9" t="str">
+      <c r="J130" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K130" s="8" t="s">
+      <c r="K130" s="6" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
+      <c r="A131" s="8"/>
       <c r="B131" s="3" t="s">
         <v>132</v>
       </c>
@@ -5787,22 +5777,22 @@
       <c r="G131" s="3">
         <v>406</v>
       </c>
-      <c r="H131" s="5">
+      <c r="H131" s="3">
         <v>130</v>
       </c>
       <c r="I131" s="3">
         <v>0</v>
       </c>
-      <c r="J131" s="9" t="str">
+      <c r="J131" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K131" s="8" t="s">
+      <c r="K131" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="12"/>
+      <c r="A132" s="8"/>
       <c r="B132" s="3" t="s">
         <v>133</v>
       </c>
@@ -5821,22 +5811,22 @@
       <c r="G132" s="3">
         <v>406</v>
       </c>
-      <c r="H132" s="5">
+      <c r="H132" s="3">
         <v>60</v>
       </c>
       <c r="I132" s="3">
         <v>0</v>
       </c>
-      <c r="J132" s="9" t="str">
+      <c r="J132" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K132" s="8" t="s">
+      <c r="K132" s="6" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
+      <c r="A133" s="8"/>
       <c r="B133" s="3" t="s">
         <v>134</v>
       </c>
@@ -5855,22 +5845,22 @@
       <c r="G133" s="3">
         <v>412</v>
       </c>
-      <c r="H133" s="5">
+      <c r="H133" s="3">
         <v>60</v>
       </c>
       <c r="I133" s="3">
         <v>0</v>
       </c>
-      <c r="J133" s="9" t="str">
+      <c r="J133" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K133" s="8" t="s">
+      <c r="K133" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="12">
+      <c r="A134" s="8">
         <v>853</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -5891,22 +5881,22 @@
       <c r="G134" s="3">
         <v>388</v>
       </c>
-      <c r="H134" s="5">
+      <c r="H134" s="3">
         <v>227</v>
       </c>
       <c r="I134" s="3">
         <v>0</v>
       </c>
-      <c r="J134" s="9" t="str">
+      <c r="J134" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K134" s="8" t="s">
+      <c r="K134" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="12"/>
+      <c r="A135" s="8"/>
       <c r="B135" s="3" t="s">
         <v>136</v>
       </c>
@@ -5925,22 +5915,22 @@
       <c r="G135" s="3">
         <v>405</v>
       </c>
-      <c r="H135" s="5">
+      <c r="H135" s="3">
         <v>237</v>
       </c>
       <c r="I135" s="3">
         <v>0</v>
       </c>
-      <c r="J135" s="9" t="str">
+      <c r="J135" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K135" s="8" t="s">
+      <c r="K135" s="6" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
+      <c r="A136" s="8"/>
       <c r="B136" s="3" t="s">
         <v>137</v>
       </c>
@@ -5959,22 +5949,22 @@
       <c r="G136" s="3">
         <v>406</v>
       </c>
-      <c r="H136" s="5">
+      <c r="H136" s="3">
         <v>239</v>
       </c>
       <c r="I136" s="3">
         <v>0</v>
       </c>
-      <c r="J136" s="9" t="str">
+      <c r="J136" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K136" s="8" t="s">
+      <c r="K136" s="6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
+      <c r="A137" s="8"/>
       <c r="B137" s="3" t="s">
         <v>138</v>
       </c>
@@ -5993,22 +5983,22 @@
       <c r="G137" s="3">
         <v>402</v>
       </c>
-      <c r="H137" s="5">
+      <c r="H137" s="3">
         <v>236</v>
       </c>
       <c r="I137" s="3">
         <v>0</v>
       </c>
-      <c r="J137" s="9" t="str">
+      <c r="J137" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K137" s="8" t="s">
+      <c r="K137" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="12"/>
+      <c r="A138" s="8"/>
       <c r="B138" s="3" t="s">
         <v>139</v>
       </c>
@@ -6027,22 +6017,22 @@
       <c r="G138" s="3">
         <v>405</v>
       </c>
-      <c r="H138" s="5">
+      <c r="H138" s="3">
         <v>80</v>
       </c>
       <c r="I138" s="3">
         <v>0</v>
       </c>
-      <c r="J138" s="9" t="str">
+      <c r="J138" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K138" s="8" t="s">
+      <c r="K138" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
+      <c r="A139" s="8"/>
       <c r="B139" s="3" t="s">
         <v>140</v>
       </c>
@@ -6061,22 +6051,22 @@
       <c r="G139" s="3">
         <v>405</v>
       </c>
-      <c r="H139" s="5">
+      <c r="H139" s="3">
         <v>80</v>
       </c>
       <c r="I139" s="3">
         <v>0</v>
       </c>
-      <c r="J139" s="9" t="str">
+      <c r="J139" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K139" s="8" t="s">
+      <c r="K139" s="6" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
+      <c r="A140" s="8"/>
       <c r="B140" s="3" t="s">
         <v>141</v>
       </c>
@@ -6095,22 +6085,22 @@
       <c r="G140" s="3">
         <v>401</v>
       </c>
-      <c r="H140" s="5">
+      <c r="H140" s="3">
         <v>80</v>
       </c>
       <c r="I140" s="3">
         <v>0</v>
       </c>
-      <c r="J140" s="9" t="str">
+      <c r="J140" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K140" s="8" t="s">
+      <c r="K140" s="6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="12"/>
+      <c r="A141" s="8"/>
       <c r="B141" s="3" t="s">
         <v>142</v>
       </c>
@@ -6129,22 +6119,22 @@
       <c r="G141" s="3">
         <v>418</v>
       </c>
-      <c r="H141" s="5">
+      <c r="H141" s="3">
         <v>80</v>
       </c>
       <c r="I141" s="3">
         <v>0</v>
       </c>
-      <c r="J141" s="9" t="str">
+      <c r="J141" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K141" s="8" t="s">
+      <c r="K141" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
+      <c r="A142" s="8"/>
       <c r="B142" s="3" t="s">
         <v>143</v>
       </c>
@@ -6163,22 +6153,22 @@
       <c r="G142" s="3">
         <v>410</v>
       </c>
-      <c r="H142" s="5">
+      <c r="H142" s="3">
         <v>131</v>
       </c>
       <c r="I142" s="3">
         <v>0</v>
       </c>
-      <c r="J142" s="9" t="str">
+      <c r="J142" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K142" s="8" t="s">
+      <c r="K142" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
+      <c r="A143" s="8"/>
       <c r="B143" s="3" t="s">
         <v>144</v>
       </c>
@@ -6197,22 +6187,22 @@
       <c r="G143" s="3">
         <v>409</v>
       </c>
-      <c r="H143" s="5">
+      <c r="H143" s="3">
         <v>129</v>
       </c>
       <c r="I143" s="3">
         <v>0</v>
       </c>
-      <c r="J143" s="9" t="str">
+      <c r="J143" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K143" s="8" t="s">
+      <c r="K143" s="6" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="12"/>
+      <c r="A144" s="8"/>
       <c r="B144" s="3" t="s">
         <v>145</v>
       </c>
@@ -6231,22 +6221,22 @@
       <c r="G144" s="3">
         <v>402</v>
       </c>
-      <c r="H144" s="5">
+      <c r="H144" s="3">
         <v>128</v>
       </c>
       <c r="I144" s="3">
         <v>0</v>
       </c>
-      <c r="J144" s="9" t="str">
+      <c r="J144" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K144" s="8" t="s">
+      <c r="K144" s="6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
+      <c r="A145" s="8"/>
       <c r="B145" s="3" t="s">
         <v>146</v>
       </c>
@@ -6265,22 +6255,22 @@
       <c r="G145" s="3">
         <v>385</v>
       </c>
-      <c r="H145" s="5">
+      <c r="H145" s="3">
         <v>122</v>
       </c>
       <c r="I145" s="3">
         <v>0</v>
       </c>
-      <c r="J145" s="9" t="str">
+      <c r="J145" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K145" s="8" t="s">
+      <c r="K145" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
+      <c r="A146" s="8"/>
       <c r="B146" s="3" t="s">
         <v>147</v>
       </c>
@@ -6299,22 +6289,22 @@
       <c r="G146" s="3">
         <v>409</v>
       </c>
-      <c r="H146" s="5">
+      <c r="H146" s="3">
         <v>60</v>
       </c>
       <c r="I146" s="3">
         <v>0</v>
       </c>
-      <c r="J146" s="9" t="str">
+      <c r="J146" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K146" s="8" t="s">
+      <c r="K146" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
+      <c r="A147" s="8"/>
       <c r="B147" s="3" t="s">
         <v>148</v>
       </c>
@@ -6333,22 +6323,22 @@
       <c r="G147" s="3">
         <v>409</v>
       </c>
-      <c r="H147" s="5">
+      <c r="H147" s="3">
         <v>60</v>
       </c>
       <c r="I147" s="3">
         <v>0</v>
       </c>
-      <c r="J147" s="9" t="str">
+      <c r="J147" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K147" s="8" t="s">
+      <c r="K147" s="6" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
+      <c r="A148" s="8"/>
       <c r="B148" s="3" t="s">
         <v>149</v>
       </c>
@@ -6367,22 +6357,22 @@
       <c r="G148" s="3">
         <v>406</v>
       </c>
-      <c r="H148" s="5">
+      <c r="H148" s="3">
         <v>60</v>
       </c>
       <c r="I148" s="3">
         <v>0</v>
       </c>
-      <c r="J148" s="9" t="str">
+      <c r="J148" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K148" s="8" t="s">
+      <c r="K148" s="6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
+      <c r="A149" s="8"/>
       <c r="B149" s="3" t="s">
         <v>150</v>
       </c>
@@ -6401,22 +6391,22 @@
       <c r="G149" s="3">
         <v>412</v>
       </c>
-      <c r="H149" s="5">
+      <c r="H149" s="3">
         <v>60</v>
       </c>
       <c r="I149" s="3">
         <v>0</v>
       </c>
-      <c r="J149" s="9" t="str">
+      <c r="J149" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K149" s="8" t="s">
+      <c r="K149" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="12">
+      <c r="A150" s="8">
         <v>861</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -6437,22 +6427,22 @@
       <c r="G150" s="3">
         <v>271</v>
       </c>
-      <c r="H150" s="5">
+      <c r="H150" s="3">
         <v>137</v>
       </c>
       <c r="I150" s="3">
         <v>0</v>
       </c>
-      <c r="J150" s="9" t="str">
+      <c r="J150" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K150" s="8" t="s">
+      <c r="K150" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
+      <c r="A151" s="8"/>
       <c r="B151" s="3" t="s">
         <v>38</v>
       </c>
@@ -6471,22 +6461,22 @@
       <c r="G151" s="3">
         <v>272</v>
       </c>
-      <c r="H151" s="5">
+      <c r="H151" s="3">
         <v>140</v>
       </c>
       <c r="I151" s="3">
         <v>0</v>
       </c>
-      <c r="J151" s="9" t="str">
+      <c r="J151" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K151" s="8" t="s">
+      <c r="K151" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
+      <c r="A152" s="8"/>
       <c r="B152" s="3" t="s">
         <v>246</v>
       </c>
@@ -6505,22 +6495,22 @@
       <c r="G152" s="3">
         <v>272</v>
       </c>
-      <c r="H152" s="5">
+      <c r="H152" s="3">
         <v>141</v>
       </c>
       <c r="I152" s="3">
         <v>0</v>
       </c>
-      <c r="J152" s="9" t="str">
+      <c r="J152" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K152" s="8" t="s">
+      <c r="K152" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="12"/>
+      <c r="A153" s="8"/>
       <c r="B153" s="3" t="s">
         <v>247</v>
       </c>
@@ -6539,90 +6529,90 @@
       <c r="G153" s="3">
         <v>282</v>
       </c>
-      <c r="H153" s="5">
+      <c r="H153" s="3">
         <v>144</v>
       </c>
       <c r="I153" s="3">
         <v>0</v>
       </c>
-      <c r="J153" s="9" t="str">
+      <c r="J153" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K153" s="8" t="s">
+      <c r="K153" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
-      <c r="B154" s="13" t="s">
+      <c r="A154" s="8"/>
+      <c r="B154" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C154" s="13">
+      <c r="C154" s="7">
         <v>670</v>
       </c>
-      <c r="D154" s="13">
+      <c r="D154" s="7">
         <v>7953</v>
       </c>
-      <c r="E154" s="13">
+      <c r="E154" s="7">
         <v>670</v>
       </c>
-      <c r="F154" s="13">
+      <c r="F154" s="7">
         <v>283</v>
       </c>
-      <c r="G154" s="13">
+      <c r="G154" s="7">
         <v>327</v>
       </c>
-      <c r="H154" s="14">
+      <c r="H154" s="7">
         <v>60</v>
       </c>
-      <c r="I154" s="13">
-        <v>0</v>
-      </c>
-      <c r="J154" s="9" t="str">
+      <c r="I154" s="7">
+        <v>0</v>
+      </c>
+      <c r="J154" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K154" s="8" t="s">
+      <c r="K154" s="6" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="12"/>
-      <c r="B155" s="13" t="s">
+      <c r="A155" s="8"/>
+      <c r="B155" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C155" s="13">
+      <c r="C155" s="7">
         <v>689</v>
       </c>
-      <c r="D155" s="13">
+      <c r="D155" s="7">
         <v>8163</v>
       </c>
-      <c r="E155" s="13">
+      <c r="E155" s="7">
         <v>689</v>
       </c>
-      <c r="F155" s="13">
+      <c r="F155" s="7">
         <v>282</v>
       </c>
-      <c r="G155" s="13">
+      <c r="G155" s="7">
         <v>347</v>
       </c>
-      <c r="H155" s="14">
+      <c r="H155" s="7">
         <v>60</v>
       </c>
-      <c r="I155" s="13">
-        <v>0</v>
-      </c>
-      <c r="J155" s="9" t="str">
+      <c r="I155" s="7">
+        <v>0</v>
+      </c>
+      <c r="J155" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K155" s="8" t="s">
+      <c r="K155" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="12"/>
+      <c r="A156" s="8"/>
       <c r="B156" s="3" t="s">
         <v>248</v>
       </c>
@@ -6641,22 +6631,22 @@
       <c r="G156" s="3">
         <v>369</v>
       </c>
-      <c r="H156" s="5">
+      <c r="H156" s="3">
         <v>60</v>
       </c>
       <c r="I156" s="3">
         <v>0</v>
       </c>
-      <c r="J156" s="9" t="str">
+      <c r="J156" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K156" s="8" t="s">
+      <c r="K156" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
+      <c r="A157" s="8"/>
       <c r="B157" s="3" t="s">
         <v>249</v>
       </c>
@@ -6675,22 +6665,22 @@
       <c r="G157" s="3">
         <v>362</v>
       </c>
-      <c r="H157" s="5">
+      <c r="H157" s="3">
         <v>60</v>
       </c>
       <c r="I157" s="3">
         <v>0</v>
       </c>
-      <c r="J157" s="9" t="str">
+      <c r="J157" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K157" s="8" t="s">
+      <c r="K157" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="12">
+      <c r="A158" s="8">
         <v>862</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -6711,22 +6701,22 @@
       <c r="G158" s="3">
         <v>245</v>
       </c>
-      <c r="H158" s="5">
+      <c r="H158" s="3">
         <v>131</v>
       </c>
       <c r="I158" s="3">
         <v>0</v>
       </c>
-      <c r="J158" s="9" t="str">
+      <c r="J158" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K158" s="8" t="s">
+      <c r="K158" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
+      <c r="A159" s="8"/>
       <c r="B159" s="3" t="s">
         <v>152</v>
       </c>
@@ -6745,22 +6735,22 @@
       <c r="G159" s="3">
         <v>267</v>
       </c>
-      <c r="H159" s="5">
+      <c r="H159" s="3">
         <v>142</v>
       </c>
       <c r="I159" s="3">
         <v>0</v>
       </c>
-      <c r="J159" s="9" t="str">
+      <c r="J159" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K159" s="8" t="s">
+      <c r="K159" s="6" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
+      <c r="A160" s="8"/>
       <c r="B160" s="3" t="s">
         <v>153</v>
       </c>
@@ -6779,22 +6769,22 @@
       <c r="G160" s="3">
         <v>354</v>
       </c>
-      <c r="H160" s="5">
+      <c r="H160" s="3">
         <v>60</v>
       </c>
       <c r="I160" s="3">
         <v>0</v>
       </c>
-      <c r="J160" s="9" t="str">
+      <c r="J160" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K160" s="8" t="s">
+      <c r="K160" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="12"/>
+      <c r="A161" s="8"/>
       <c r="B161" s="3" t="s">
         <v>154</v>
       </c>
@@ -6813,22 +6803,22 @@
       <c r="G161" s="3">
         <v>332</v>
       </c>
-      <c r="H161" s="5">
+      <c r="H161" s="3">
         <v>60</v>
       </c>
       <c r="I161" s="3">
         <v>0</v>
       </c>
-      <c r="J161" s="9" t="str">
+      <c r="J161" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K161" s="8" t="s">
+      <c r="K161" s="6" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="12">
+      <c r="A162" s="8">
         <v>863</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -6849,22 +6839,22 @@
       <c r="G162" s="3">
         <v>254</v>
       </c>
-      <c r="H162" s="5">
+      <c r="H162" s="3">
         <v>134</v>
       </c>
       <c r="I162" s="3">
         <v>0</v>
       </c>
-      <c r="J162" s="9" t="str">
+      <c r="J162" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K162" s="8" t="s">
+      <c r="K162" s="6" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="12"/>
+      <c r="A163" s="8"/>
       <c r="B163" s="3" t="s">
         <v>156</v>
       </c>
@@ -6883,22 +6873,22 @@
       <c r="G163" s="3">
         <v>250</v>
       </c>
-      <c r="H163" s="5">
+      <c r="H163" s="3">
         <v>134</v>
       </c>
       <c r="I163" s="3">
         <v>0</v>
       </c>
-      <c r="J163" s="9" t="str">
+      <c r="J163" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K163" s="8" t="s">
+      <c r="K163" s="6" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
+      <c r="A164" s="8"/>
       <c r="B164" s="3" t="s">
         <v>250</v>
       </c>
@@ -6917,22 +6907,22 @@
       <c r="G164" s="3">
         <v>270</v>
       </c>
-      <c r="H164" s="5">
+      <c r="H164" s="3">
         <v>143</v>
       </c>
       <c r="I164" s="3">
         <v>0</v>
       </c>
-      <c r="J164" s="9" t="str">
+      <c r="J164" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K164" s="8" t="s">
+      <c r="K164" s="6" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="12"/>
+      <c r="A165" s="8"/>
       <c r="B165" s="3" t="s">
         <v>251</v>
       </c>
@@ -6951,22 +6941,22 @@
       <c r="G165" s="3">
         <v>252</v>
       </c>
-      <c r="H165" s="5">
+      <c r="H165" s="3">
         <v>135</v>
       </c>
       <c r="I165" s="3">
         <v>0</v>
       </c>
-      <c r="J165" s="9" t="str">
+      <c r="J165" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K165" s="8" t="s">
+      <c r="K165" s="6" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="12"/>
+      <c r="A166" s="8"/>
       <c r="B166" s="3" t="s">
         <v>157</v>
       </c>
@@ -6985,90 +6975,90 @@
       <c r="G166" s="3">
         <v>287</v>
       </c>
-      <c r="H166" s="5">
+      <c r="H166" s="3">
         <v>60</v>
       </c>
       <c r="I166" s="3">
         <v>0</v>
       </c>
-      <c r="J166" s="9" t="str">
+      <c r="J166" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K166" s="8" t="s">
+      <c r="K166" s="6" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="12"/>
-      <c r="B167" s="13" t="s">
+      <c r="A167" s="8"/>
+      <c r="B167" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C167" s="13">
+      <c r="C167" s="7">
         <v>649</v>
       </c>
-      <c r="D167" s="13">
+      <c r="D167" s="7">
         <v>7761</v>
       </c>
-      <c r="E167" s="13">
+      <c r="E167" s="7">
         <v>649</v>
       </c>
-      <c r="F167" s="13">
+      <c r="F167" s="7">
         <v>246</v>
       </c>
-      <c r="G167" s="13">
+      <c r="G167" s="7">
         <v>343</v>
       </c>
-      <c r="H167" s="14">
+      <c r="H167" s="7">
         <v>60</v>
       </c>
-      <c r="I167" s="13">
-        <v>0</v>
-      </c>
-      <c r="J167" s="9" t="str">
+      <c r="I167" s="7">
+        <v>0</v>
+      </c>
+      <c r="J167" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K167" s="8" t="s">
+      <c r="K167" s="6" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="12"/>
-      <c r="B168" s="13" t="s">
+      <c r="A168" s="8"/>
+      <c r="B168" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C168" s="13">
+      <c r="C168" s="7">
         <v>651</v>
       </c>
-      <c r="D168" s="13">
+      <c r="D168" s="7">
         <v>7798</v>
       </c>
-      <c r="E168" s="13">
+      <c r="E168" s="7">
         <v>651</v>
       </c>
-      <c r="F168" s="13">
+      <c r="F168" s="7">
         <v>232</v>
       </c>
-      <c r="G168" s="13">
+      <c r="G168" s="7">
         <v>359</v>
       </c>
-      <c r="H168" s="14">
+      <c r="H168" s="7">
         <v>60</v>
       </c>
-      <c r="I168" s="13">
-        <v>0</v>
-      </c>
-      <c r="J168" s="9" t="str">
+      <c r="I168" s="7">
+        <v>0</v>
+      </c>
+      <c r="J168" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K168" s="8" t="s">
+      <c r="K168" s="6" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="12"/>
+      <c r="A169" s="8"/>
       <c r="B169" s="3" t="s">
         <v>253</v>
       </c>
@@ -7087,22 +7077,22 @@
       <c r="G169" s="3">
         <v>346</v>
       </c>
-      <c r="H169" s="5">
+      <c r="H169" s="3">
         <v>60</v>
       </c>
       <c r="I169" s="3">
         <v>0</v>
       </c>
-      <c r="J169" s="9" t="str">
+      <c r="J169" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K169" s="8" t="s">
+      <c r="K169" s="6" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="12">
+      <c r="A170" s="8">
         <v>871</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -7123,22 +7113,22 @@
       <c r="G170" s="3">
         <v>380</v>
       </c>
-      <c r="H170" s="5">
+      <c r="H170" s="3">
         <v>0</v>
       </c>
       <c r="I170" s="3">
         <v>0</v>
       </c>
-      <c r="J170" s="9" t="str">
+      <c r="J170" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K170" s="8" t="s">
+      <c r="K170" s="6" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="12"/>
+      <c r="A171" s="8"/>
       <c r="B171" s="3" t="s">
         <v>2</v>
       </c>
@@ -7157,22 +7147,22 @@
       <c r="G171" s="3">
         <v>381</v>
       </c>
-      <c r="H171" s="5">
+      <c r="H171" s="3">
         <v>0</v>
       </c>
       <c r="I171" s="3">
         <v>0</v>
       </c>
-      <c r="J171" s="9" t="str">
+      <c r="J171" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K171" s="8" t="s">
+      <c r="K171" s="6" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="12"/>
+      <c r="A172" s="8"/>
       <c r="B172" s="3" t="s">
         <v>56</v>
       </c>
@@ -7191,22 +7181,22 @@
       <c r="G172" s="3">
         <v>378</v>
       </c>
-      <c r="H172" s="5">
+      <c r="H172" s="3">
         <v>0</v>
       </c>
       <c r="I172" s="3">
         <v>0</v>
       </c>
-      <c r="J172" s="9" t="str">
+      <c r="J172" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K172" s="8" t="s">
+      <c r="K172" s="6" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="12"/>
+      <c r="A173" s="8"/>
       <c r="B173" s="3" t="s">
         <v>57</v>
       </c>
@@ -7225,22 +7215,22 @@
       <c r="G173" s="3">
         <v>375</v>
       </c>
-      <c r="H173" s="5">
+      <c r="H173" s="3">
         <v>0</v>
       </c>
       <c r="I173" s="3">
         <v>0</v>
       </c>
-      <c r="J173" s="9" t="str">
+      <c r="J173" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K173" s="8" t="s">
+      <c r="K173" s="6" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="12">
+      <c r="A174" s="8">
         <v>872</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -7261,22 +7251,22 @@
       <c r="G174" s="3">
         <v>444</v>
       </c>
-      <c r="H174" s="5">
+      <c r="H174" s="3">
         <v>0</v>
       </c>
       <c r="I174" s="3">
         <v>0</v>
       </c>
-      <c r="J174" s="9" t="str">
+      <c r="J174" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K174" s="8" t="s">
+      <c r="K174" s="6" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="12"/>
+      <c r="A175" s="8"/>
       <c r="B175" s="3" t="s">
         <v>160</v>
       </c>
@@ -7295,22 +7285,22 @@
       <c r="G175" s="3">
         <v>432</v>
       </c>
-      <c r="H175" s="5">
+      <c r="H175" s="3">
         <v>0</v>
       </c>
       <c r="I175" s="3">
         <v>0</v>
       </c>
-      <c r="J175" s="9" t="str">
+      <c r="J175" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K175" s="8" t="s">
+      <c r="K175" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="12">
+      <c r="A176" s="8">
         <v>873</v>
       </c>
       <c r="B176" s="3" t="s">
@@ -7331,22 +7321,22 @@
       <c r="G176" s="3">
         <v>378</v>
       </c>
-      <c r="H176" s="5">
+      <c r="H176" s="3">
         <v>0</v>
       </c>
       <c r="I176" s="3">
         <v>0</v>
       </c>
-      <c r="J176" s="9" t="str">
+      <c r="J176" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K176" s="8" t="s">
+      <c r="K176" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="12"/>
+      <c r="A177" s="8"/>
       <c r="B177" s="3" t="s">
         <v>162</v>
       </c>
@@ -7365,22 +7355,22 @@
       <c r="G177" s="3">
         <v>416</v>
       </c>
-      <c r="H177" s="5">
+      <c r="H177" s="3">
         <v>0</v>
       </c>
       <c r="I177" s="3">
         <v>0</v>
       </c>
-      <c r="J177" s="9" t="str">
+      <c r="J177" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K177" s="8" t="s">
+      <c r="K177" s="6" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="12"/>
+      <c r="A178" s="8"/>
       <c r="B178" s="3" t="s">
         <v>163</v>
       </c>
@@ -7399,22 +7389,22 @@
       <c r="G178" s="3">
         <v>398</v>
       </c>
-      <c r="H178" s="5">
+      <c r="H178" s="3">
         <v>0</v>
       </c>
       <c r="I178" s="3">
         <v>0</v>
       </c>
-      <c r="J178" s="9" t="str">
+      <c r="J178" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K178" s="8" t="s">
+      <c r="K178" s="6" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="12"/>
+      <c r="A179" s="8"/>
       <c r="B179" s="3" t="s">
         <v>164</v>
       </c>
@@ -7433,67 +7423,455 @@
       <c r="G179" s="3">
         <v>403</v>
       </c>
-      <c r="H179" s="5">
+      <c r="H179" s="3">
         <v>0</v>
       </c>
       <c r="I179" s="3">
         <v>0</v>
       </c>
-      <c r="J179" s="9" t="str">
+      <c r="J179" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
-      <c r="K179" s="8" t="s">
+      <c r="K179" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
-        <v>21</v>
-      </c>
-      <c r="B180" s="3">
-        <v>178</v>
-      </c>
-      <c r="C180" s="3">
-        <f>SUM(C2:C179)</f>
-        <v>132613</v>
-      </c>
-      <c r="D180" s="3">
-        <f t="shared" ref="D180:I180" si="3">SUM(D2:D179)</f>
-        <v>1440961</v>
-      </c>
-      <c r="E180" s="3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="10"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>0</v>
+      </c>
+      <c r="B181" s="3">
+        <v>0</v>
+      </c>
+      <c r="C181" s="3">
+        <v>821</v>
+      </c>
+      <c r="D181" s="3">
+        <v>10068</v>
+      </c>
+      <c r="E181" s="3">
+        <v>821</v>
+      </c>
+      <c r="F181" s="3">
+        <v>821</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0</v>
+      </c>
+      <c r="H181" s="3">
+        <v>0</v>
+      </c>
+      <c r="I181" s="3">
+        <v>0</v>
+      </c>
+      <c r="J181" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+      <c r="K181" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>101</v>
+      </c>
+      <c r="B182" s="3">
+        <v>101</v>
+      </c>
+      <c r="C182" s="3">
+        <v>833</v>
+      </c>
+      <c r="D182" s="3">
+        <v>10092</v>
+      </c>
+      <c r="E182" s="3">
+        <v>833</v>
+      </c>
+      <c r="F182" s="3">
+        <v>285</v>
+      </c>
+      <c r="G182" s="3">
+        <v>548</v>
+      </c>
+      <c r="H182" s="3">
+        <v>0</v>
+      </c>
+      <c r="I182" s="3">
+        <v>0</v>
+      </c>
+      <c r="J182" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+      <c r="K182" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>102</v>
+      </c>
+      <c r="B183" s="3">
+        <v>102</v>
+      </c>
+      <c r="C183" s="3">
+        <v>833</v>
+      </c>
+      <c r="D183" s="3">
+        <v>10053</v>
+      </c>
+      <c r="E183" s="3">
+        <v>833</v>
+      </c>
+      <c r="F183" s="3">
+        <v>286</v>
+      </c>
+      <c r="G183" s="3">
+        <v>547</v>
+      </c>
+      <c r="H183" s="3">
+        <v>0</v>
+      </c>
+      <c r="I183" s="3">
+        <v>0</v>
+      </c>
+      <c r="J183" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+      <c r="K183" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>103</v>
+      </c>
+      <c r="B184" s="3">
+        <v>103</v>
+      </c>
+      <c r="C184" s="3">
+        <v>837</v>
+      </c>
+      <c r="D184" s="3">
+        <v>10123</v>
+      </c>
+      <c r="E184" s="3">
+        <v>837</v>
+      </c>
+      <c r="F184" s="3">
+        <v>295</v>
+      </c>
+      <c r="G184" s="3">
+        <v>542</v>
+      </c>
+      <c r="H184" s="3">
+        <v>0</v>
+      </c>
+      <c r="I184" s="3">
+        <v>0</v>
+      </c>
+      <c r="J184" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+      <c r="K184" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>104</v>
+      </c>
+      <c r="B185" s="3">
+        <v>104</v>
+      </c>
+      <c r="C185" s="3">
+        <v>836</v>
+      </c>
+      <c r="D185" s="3">
+        <v>10072</v>
+      </c>
+      <c r="E185" s="3">
+        <v>836</v>
+      </c>
+      <c r="F185" s="3">
+        <v>292</v>
+      </c>
+      <c r="G185" s="3">
+        <v>544</v>
+      </c>
+      <c r="H185" s="3">
+        <v>0</v>
+      </c>
+      <c r="I185" s="3">
+        <v>0</v>
+      </c>
+      <c r="J185" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+      <c r="K185" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>105</v>
+      </c>
+      <c r="B186" s="3">
+        <v>105</v>
+      </c>
+      <c r="C186" s="3">
+        <v>836</v>
+      </c>
+      <c r="D186" s="3">
+        <v>10083</v>
+      </c>
+      <c r="E186" s="3">
+        <v>836</v>
+      </c>
+      <c r="F186" s="3">
+        <v>278</v>
+      </c>
+      <c r="G186" s="3">
+        <v>558</v>
+      </c>
+      <c r="H186" s="3">
+        <v>0</v>
+      </c>
+      <c r="I186" s="3">
+        <v>0</v>
+      </c>
+      <c r="J186" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+      <c r="K186" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>106</v>
+      </c>
+      <c r="B187" s="3">
+        <v>106</v>
+      </c>
+      <c r="C187" s="3">
+        <v>837</v>
+      </c>
+      <c r="D187" s="3">
+        <v>10139</v>
+      </c>
+      <c r="E187" s="3">
+        <v>837</v>
+      </c>
+      <c r="F187" s="3">
+        <v>270</v>
+      </c>
+      <c r="G187" s="3">
+        <v>567</v>
+      </c>
+      <c r="H187" s="3">
+        <v>0</v>
+      </c>
+      <c r="I187" s="3">
+        <v>0</v>
+      </c>
+      <c r="J187" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+      <c r="K187" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>107</v>
+      </c>
+      <c r="B188" s="3">
+        <v>107</v>
+      </c>
+      <c r="C188" s="3">
+        <v>829</v>
+      </c>
+      <c r="D188" s="3">
+        <v>10020</v>
+      </c>
+      <c r="E188" s="3">
+        <v>829</v>
+      </c>
+      <c r="F188" s="3">
+        <v>278</v>
+      </c>
+      <c r="G188" s="3">
+        <v>551</v>
+      </c>
+      <c r="H188" s="3">
+        <v>0</v>
+      </c>
+      <c r="I188" s="3">
+        <v>0</v>
+      </c>
+      <c r="J188" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+      <c r="K188" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>108</v>
+      </c>
+      <c r="B189" s="3">
+        <v>108</v>
+      </c>
+      <c r="C189" s="3">
+        <v>836</v>
+      </c>
+      <c r="D189" s="3">
+        <v>10114</v>
+      </c>
+      <c r="E189" s="3">
+        <v>836</v>
+      </c>
+      <c r="F189" s="3">
+        <v>287</v>
+      </c>
+      <c r="G189" s="3">
+        <v>549</v>
+      </c>
+      <c r="H189" s="3">
+        <v>0</v>
+      </c>
+      <c r="I189" s="3">
+        <v>0</v>
+      </c>
+      <c r="J189" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+      <c r="K189" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>109</v>
+      </c>
+      <c r="B190" s="3">
+        <v>109</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3">
+        <v>0</v>
+      </c>
+      <c r="I190" s="3">
+        <v>0</v>
+      </c>
+      <c r="J190" s="12"/>
+      <c r="K190" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>110</v>
+      </c>
+      <c r="B191" s="3">
+        <v>110</v>
+      </c>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3">
+        <v>0</v>
+      </c>
+      <c r="I191" s="3">
+        <v>0</v>
+      </c>
+      <c r="J191" s="12"/>
+      <c r="K191" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <f>COUNTA(A2:A191)</f>
+        <v>32</v>
+      </c>
+      <c r="B192" s="3">
+        <f>COUNTA(B2:B191)</f>
+        <v>189</v>
+      </c>
+      <c r="C192" s="3">
+        <f>SUM(C2:C191)</f>
+        <v>140111</v>
+      </c>
+      <c r="D192" s="3">
+        <f t="shared" ref="D192:I192" si="3">SUM(D2:D191)</f>
+        <v>1531725</v>
+      </c>
+      <c r="E192" s="3">
         <f t="shared" si="3"/>
-        <v>132613</v>
-      </c>
-      <c r="F180" s="3">
+        <v>140111</v>
+      </c>
+      <c r="F192" s="3">
         <f t="shared" si="3"/>
-        <v>63997</v>
-      </c>
-      <c r="G180" s="3">
+        <v>67089</v>
+      </c>
+      <c r="G192" s="3">
         <f t="shared" si="3"/>
-        <v>51336</v>
-      </c>
-      <c r="H180" s="5">
+        <v>55742</v>
+      </c>
+      <c r="H192" s="3">
         <f t="shared" si="3"/>
         <v>16555</v>
       </c>
-      <c r="I180" s="3">
+      <c r="I192" s="3">
         <f t="shared" si="3"/>
         <v>725</v>
       </c>
-      <c r="J180" s="12" t="s">
+      <c r="J192" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K180" s="12"/>
+      <c r="K192" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A162:A169"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="J180:K180"/>
+  <mergeCells count="23">
+    <mergeCell ref="C180:I180"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="A158:A161"/>
     <mergeCell ref="A42:A49"/>
     <mergeCell ref="A50:A65"/>
@@ -7506,16 +7884,16 @@
     <mergeCell ref="A126:A133"/>
     <mergeCell ref="A134:A149"/>
     <mergeCell ref="A150:A157"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A162:A169"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="J192:K192"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K170:K179" numberStoredAsText="1"/>
+    <ignoredError sqref="K170:K179 K181:K182 K187:K191 K185:K186 K183:K184" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/metadata.xlsx
+++ b/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023/Datasets/GOOSE attack dataset/Processed dataset (supervised ML)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{228AE550-B25F-4AF9-87BB-13233C72D6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8AB9330-318F-47AB-8295-FFC34A1CF6C1}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="13_ncr:1_{228AE550-B25F-4AF9-87BB-13233C72D6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75EDCAC5-969F-42A9-8DB5-2893D25C3FC8}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="276">
   <si>
     <t>Label</t>
   </si>
@@ -869,7 +869,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,6 +894,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -952,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -976,9 +984,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -990,7 +995,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1285,11 +1299,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242D98A4-6CBD-4CB3-8207-0942D773A1FC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K192"/>
+  <dimension ref="A1:L192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H189" sqref="H189"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1303,8 +1317,8 @@
     <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="109.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="109.140625" style="5" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1336,7 +1350,7 @@
       <c r="I1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>189</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -1344,7 +1358,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="12">
         <v>811</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1371,7 +1385,7 @@
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="12" t="str">
+      <c r="J2" s="11" t="str">
         <f t="shared" ref="J2:J51" si="0">IF(SUM(F2:I2)=E2, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
@@ -1380,7 +1394,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1405,7 +1419,7 @@
       <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="J3" s="12" t="str">
+      <c r="J3" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1414,7 +1428,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1439,7 +1453,7 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="12" t="str">
+      <c r="J4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1448,7 +1462,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1473,7 +1487,7 @@
       <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="12" t="str">
+      <c r="J5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1482,7 +1496,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1521,7 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="12" t="str">
+      <c r="J6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1516,7 +1530,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1541,7 +1555,7 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="12" t="str">
+      <c r="J7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1550,7 +1564,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1575,7 +1589,7 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="12" t="str">
+      <c r="J8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1584,7 +1598,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1609,7 +1623,7 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="12" t="str">
+      <c r="J9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1618,7 +1632,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="12">
         <v>812</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1645,7 +1659,7 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="12" t="str">
+      <c r="J10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1654,7 +1668,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>59</v>
       </c>
@@ -1679,7 +1693,7 @@
       <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="12" t="str">
+      <c r="J11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1688,7 +1702,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>60</v>
       </c>
@@ -1713,7 +1727,7 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="12" t="str">
+      <c r="J12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1722,7 +1736,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
@@ -1747,7 +1761,7 @@
       <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="12" t="str">
+      <c r="J13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1756,7 +1770,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>62</v>
       </c>
@@ -1781,7 +1795,7 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="12" t="str">
+      <c r="J14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1790,7 +1804,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
         <v>63</v>
       </c>
@@ -1815,7 +1829,7 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="12" t="str">
+      <c r="J15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1824,7 +1838,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
         <v>64</v>
       </c>
@@ -1849,7 +1863,7 @@
       <c r="I16" s="3">
         <v>0</v>
       </c>
-      <c r="J16" s="12" t="str">
+      <c r="J16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1858,7 +1872,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="3" t="s">
         <v>65</v>
       </c>
@@ -1883,7 +1897,7 @@
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="12" t="str">
+      <c r="J17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1892,7 +1906,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="12">
         <v>813</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1919,7 +1933,7 @@
       <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="12" t="str">
+      <c r="J18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1928,7 +1942,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
         <v>67</v>
       </c>
@@ -1953,7 +1967,7 @@
       <c r="I19" s="3">
         <v>0</v>
       </c>
-      <c r="J19" s="12" t="str">
+      <c r="J19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1962,7 +1976,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
         <v>74</v>
       </c>
@@ -1987,7 +2001,7 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="12" t="str">
+      <c r="J20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -1996,7 +2010,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="3" t="s">
         <v>78</v>
       </c>
@@ -2021,7 +2035,7 @@
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="12" t="str">
+      <c r="J21" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2030,7 +2044,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>68</v>
       </c>
@@ -2055,7 +2069,7 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="12" t="str">
+      <c r="J22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2064,7 +2078,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
         <v>69</v>
       </c>
@@ -2089,7 +2103,7 @@
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="12" t="str">
+      <c r="J23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2098,7 +2112,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="3" t="s">
         <v>75</v>
       </c>
@@ -2123,7 +2137,7 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="12" t="str">
+      <c r="J24" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2132,7 +2146,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
@@ -2157,7 +2171,7 @@
       <c r="I25" s="3">
         <v>0</v>
       </c>
-      <c r="J25" s="12" t="str">
+      <c r="J25" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2166,7 +2180,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="3" t="s">
         <v>70</v>
       </c>
@@ -2191,7 +2205,7 @@
       <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="12" t="str">
+      <c r="J26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2200,7 +2214,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="3" t="s">
         <v>71</v>
       </c>
@@ -2225,7 +2239,7 @@
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="12" t="str">
+      <c r="J27" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2234,7 +2248,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="3" t="s">
         <v>76</v>
       </c>
@@ -2259,7 +2273,7 @@
       <c r="I28" s="3">
         <v>0</v>
       </c>
-      <c r="J28" s="12" t="str">
+      <c r="J28" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2268,7 +2282,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="3" t="s">
         <v>80</v>
       </c>
@@ -2293,7 +2307,7 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="12" t="str">
+      <c r="J29" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2302,7 +2316,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="3" t="s">
         <v>72</v>
       </c>
@@ -2327,7 +2341,7 @@
       <c r="I30" s="3">
         <v>0</v>
       </c>
-      <c r="J30" s="12" t="str">
+      <c r="J30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2336,7 +2350,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="3" t="s">
         <v>73</v>
       </c>
@@ -2361,7 +2375,7 @@
       <c r="I31" s="3">
         <v>0</v>
       </c>
-      <c r="J31" s="12" t="str">
+      <c r="J31" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2370,7 +2384,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="3" t="s">
         <v>77</v>
       </c>
@@ -2395,7 +2409,7 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="12" t="str">
+      <c r="J32" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2404,7 +2418,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="3" t="s">
         <v>81</v>
       </c>
@@ -2429,7 +2443,7 @@
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="12" t="str">
+      <c r="J33" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2438,7 +2452,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="12">
         <v>821</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2465,7 +2479,7 @@
       <c r="I34" s="3">
         <v>0</v>
       </c>
-      <c r="J34" s="12" t="str">
+      <c r="J34" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2474,7 +2488,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
@@ -2499,7 +2513,7 @@
       <c r="I35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" s="12" t="str">
+      <c r="J35" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2508,7 +2522,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
@@ -2533,7 +2547,7 @@
       <c r="I36" s="3">
         <v>0</v>
       </c>
-      <c r="J36" s="12" t="str">
+      <c r="J36" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2542,7 +2556,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="3" t="s">
         <v>27</v>
       </c>
@@ -2567,7 +2581,7 @@
       <c r="I37" s="3">
         <v>0</v>
       </c>
-      <c r="J37" s="12" t="str">
+      <c r="J37" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2576,7 +2590,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="12">
         <v>822</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2603,7 +2617,7 @@
       <c r="I38" s="3">
         <v>0</v>
       </c>
-      <c r="J38" s="12" t="str">
+      <c r="J38" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2612,7 +2626,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="3" t="s">
         <v>84</v>
       </c>
@@ -2637,7 +2651,7 @@
       <c r="I39" s="3">
         <v>0</v>
       </c>
-      <c r="J39" s="12" t="str">
+      <c r="J39" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2646,7 +2660,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="7" t="s">
         <v>85</v>
       </c>
@@ -2671,7 +2685,7 @@
       <c r="I40" s="7">
         <v>0</v>
       </c>
-      <c r="J40" s="12" t="str">
+      <c r="J40" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2680,7 +2694,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="3" t="s">
         <v>86</v>
       </c>
@@ -2705,7 +2719,7 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="12" t="str">
+      <c r="J41" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2714,7 +2728,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="A42" s="12">
         <v>823</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2741,7 +2755,7 @@
       <c r="I42" s="3">
         <v>0</v>
       </c>
-      <c r="J42" s="12" t="str">
+      <c r="J42" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2750,7 +2764,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="3" t="s">
         <v>88</v>
       </c>
@@ -2775,7 +2789,7 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="12" t="str">
+      <c r="J43" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2784,7 +2798,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="3" t="s">
         <v>89</v>
       </c>
@@ -2809,7 +2823,7 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="12" t="str">
+      <c r="J44" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2818,7 +2832,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="3" t="s">
         <v>90</v>
       </c>
@@ -2843,7 +2857,7 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="12" t="str">
+      <c r="J45" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2852,7 +2866,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="3" t="s">
         <v>91</v>
       </c>
@@ -2877,7 +2891,7 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="12" t="str">
+      <c r="J46" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2886,7 +2900,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="3" t="s">
         <v>92</v>
       </c>
@@ -2911,7 +2925,7 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="12" t="str">
+      <c r="J47" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2920,7 +2934,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="3" t="s">
         <v>93</v>
       </c>
@@ -2945,7 +2959,7 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="12" t="str">
+      <c r="J48" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2954,7 +2968,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="3" t="s">
         <v>94</v>
       </c>
@@ -2979,7 +2993,7 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="12" t="str">
+      <c r="J49" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -2988,7 +3002,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="A50" s="12">
         <v>831</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -3015,7 +3029,7 @@
       <c r="I50" s="4">
         <v>101</v>
       </c>
-      <c r="J50" s="12" t="str">
+      <c r="J50" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -3024,7 +3038,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="3" t="s">
         <v>28</v>
       </c>
@@ -3049,7 +3063,7 @@
       <c r="I51" s="4">
         <v>92</v>
       </c>
-      <c r="J51" s="12" t="str">
+      <c r="J51" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
@@ -3058,7 +3072,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="3" t="s">
         <v>40</v>
       </c>
@@ -3083,7 +3097,7 @@
       <c r="I52" s="4">
         <v>94</v>
       </c>
-      <c r="J52" s="12" t="str">
+      <c r="J52" s="11" t="str">
         <f>IF(SUM(F52:I52)=E52, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
@@ -3092,7 +3106,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="3" t="s">
         <v>41</v>
       </c>
@@ -3117,7 +3131,7 @@
       <c r="I53" s="4">
         <v>95</v>
       </c>
-      <c r="J53" s="12" t="str">
+      <c r="J53" s="11" t="str">
         <f t="shared" ref="J53:J116" si="1">IF(SUM(F53:I53)=E53, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
@@ -3126,7 +3140,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
@@ -3151,7 +3165,7 @@
       <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="J54" s="12" t="str">
+      <c r="J54" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3160,7 +3174,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="3" t="s">
         <v>29</v>
       </c>
@@ -3185,7 +3199,7 @@
       <c r="I55" s="3">
         <v>0</v>
       </c>
-      <c r="J55" s="12" t="str">
+      <c r="J55" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3194,7 +3208,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="3" t="s">
         <v>42</v>
       </c>
@@ -3219,7 +3233,7 @@
       <c r="I56" s="3">
         <v>0</v>
       </c>
-      <c r="J56" s="12" t="str">
+      <c r="J56" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3228,7 +3242,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="3" t="s">
         <v>43</v>
       </c>
@@ -3253,7 +3267,7 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="12" t="str">
+      <c r="J57" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3262,7 +3276,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="3" t="s">
         <v>11</v>
       </c>
@@ -3287,7 +3301,7 @@
       <c r="I58" s="4">
         <v>68</v>
       </c>
-      <c r="J58" s="12" t="str">
+      <c r="J58" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3296,7 +3310,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="3" t="s">
         <v>30</v>
       </c>
@@ -3321,7 +3335,7 @@
       <c r="I59" s="4">
         <v>79</v>
       </c>
-      <c r="J59" s="12" t="str">
+      <c r="J59" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3330,7 +3344,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="3" t="s">
         <v>44</v>
       </c>
@@ -3355,7 +3369,7 @@
       <c r="I60" s="4">
         <v>95</v>
       </c>
-      <c r="J60" s="12" t="str">
+      <c r="J60" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3364,7 +3378,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="3" t="s">
         <v>45</v>
       </c>
@@ -3389,7 +3403,7 @@
       <c r="I61" s="4">
         <v>101</v>
       </c>
-      <c r="J61" s="12" t="str">
+      <c r="J61" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3398,7 +3412,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="3" t="s">
         <v>12</v>
       </c>
@@ -3423,7 +3437,7 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="12" t="str">
+      <c r="J62" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3432,7 +3446,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="3" t="s">
         <v>31</v>
       </c>
@@ -3457,7 +3471,7 @@
       <c r="I63" s="3">
         <v>0</v>
       </c>
-      <c r="J63" s="12" t="str">
+      <c r="J63" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3466,7 +3480,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="3" t="s">
         <v>46</v>
       </c>
@@ -3491,7 +3505,7 @@
       <c r="I64" s="3">
         <v>0</v>
       </c>
-      <c r="J64" s="12" t="str">
+      <c r="J64" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3500,7 +3514,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="3" t="s">
         <v>47</v>
       </c>
@@ -3525,7 +3539,7 @@
       <c r="I65" s="3">
         <v>0</v>
       </c>
-      <c r="J65" s="12" t="str">
+      <c r="J65" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3534,7 +3548,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
+      <c r="A66" s="12">
         <v>832</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -3561,7 +3575,7 @@
       <c r="I66" s="3">
         <v>0</v>
       </c>
-      <c r="J66" s="12" t="str">
+      <c r="J66" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3570,7 +3584,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="3" t="s">
         <v>96</v>
       </c>
@@ -3595,7 +3609,7 @@
       <c r="I67" s="3">
         <v>0</v>
       </c>
-      <c r="J67" s="12" t="str">
+      <c r="J67" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3604,7 +3618,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="3" t="s">
         <v>97</v>
       </c>
@@ -3629,7 +3643,7 @@
       <c r="I68" s="3">
         <v>0</v>
       </c>
-      <c r="J68" s="12" t="str">
+      <c r="J68" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3638,7 +3652,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="3" t="s">
         <v>98</v>
       </c>
@@ -3663,7 +3677,7 @@
       <c r="I69" s="3">
         <v>0</v>
       </c>
-      <c r="J69" s="12" t="str">
+      <c r="J69" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3672,7 +3686,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="3" t="s">
         <v>99</v>
       </c>
@@ -3697,7 +3711,7 @@
       <c r="I70" s="3">
         <v>0</v>
       </c>
-      <c r="J70" s="12" t="str">
+      <c r="J70" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3706,7 +3720,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="3" t="s">
         <v>100</v>
       </c>
@@ -3731,7 +3745,7 @@
       <c r="I71" s="3">
         <v>0</v>
       </c>
-      <c r="J71" s="12" t="str">
+      <c r="J71" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3740,7 +3754,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="3" t="s">
         <v>101</v>
       </c>
@@ -3765,7 +3779,7 @@
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="12" t="str">
+      <c r="J72" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3774,7 +3788,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="3" t="s">
         <v>102</v>
       </c>
@@ -3799,7 +3813,7 @@
       <c r="I73" s="3">
         <v>0</v>
       </c>
-      <c r="J73" s="12" t="str">
+      <c r="J73" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3808,7 +3822,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
+      <c r="A74" s="12">
         <v>833</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -3835,7 +3849,7 @@
       <c r="I74" s="3">
         <v>0</v>
       </c>
-      <c r="J74" s="12" t="str">
+      <c r="J74" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3844,7 +3858,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="3" t="s">
         <v>104</v>
       </c>
@@ -3869,7 +3883,7 @@
       <c r="I75" s="3">
         <v>0</v>
       </c>
-      <c r="J75" s="12" t="str">
+      <c r="J75" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3878,7 +3892,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="3" t="s">
         <v>105</v>
       </c>
@@ -3903,7 +3917,7 @@
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="J76" s="12" t="str">
+      <c r="J76" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3912,7 +3926,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="3" t="s">
         <v>106</v>
       </c>
@@ -3937,7 +3951,7 @@
       <c r="I77" s="3">
         <v>0</v>
       </c>
-      <c r="J77" s="12" t="str">
+      <c r="J77" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3946,7 +3960,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="3" t="s">
         <v>107</v>
       </c>
@@ -3971,7 +3985,7 @@
       <c r="I78" s="3">
         <v>0</v>
       </c>
-      <c r="J78" s="12" t="str">
+      <c r="J78" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -3980,7 +3994,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="3" t="s">
         <v>108</v>
       </c>
@@ -4005,7 +4019,7 @@
       <c r="I79" s="3">
         <v>0</v>
       </c>
-      <c r="J79" s="12" t="str">
+      <c r="J79" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4014,7 +4028,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="3" t="s">
         <v>109</v>
       </c>
@@ -4039,7 +4053,7 @@
       <c r="I80" s="3">
         <v>0</v>
       </c>
-      <c r="J80" s="12" t="str">
+      <c r="J80" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4048,7 +4062,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="3" t="s">
         <v>110</v>
       </c>
@@ -4073,7 +4087,7 @@
       <c r="I81" s="3">
         <v>0</v>
       </c>
-      <c r="J81" s="12" t="str">
+      <c r="J81" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4082,7 +4096,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="A82" s="12"/>
       <c r="B82" s="3" t="s">
         <v>111</v>
       </c>
@@ -4107,7 +4121,7 @@
       <c r="I82" s="3">
         <v>0</v>
       </c>
-      <c r="J82" s="12" t="str">
+      <c r="J82" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4116,7 +4130,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="12"/>
       <c r="B83" s="3" t="s">
         <v>112</v>
       </c>
@@ -4141,7 +4155,7 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="12" t="str">
+      <c r="J83" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4150,7 +4164,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="3" t="s">
         <v>113</v>
       </c>
@@ -4175,7 +4189,7 @@
       <c r="I84" s="3">
         <v>0</v>
       </c>
-      <c r="J84" s="12" t="str">
+      <c r="J84" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4184,7 +4198,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="3" t="s">
         <v>114</v>
       </c>
@@ -4209,7 +4223,7 @@
       <c r="I85" s="3">
         <v>0</v>
       </c>
-      <c r="J85" s="12" t="str">
+      <c r="J85" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4218,7 +4232,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="3" t="s">
         <v>115</v>
       </c>
@@ -4243,7 +4257,7 @@
       <c r="I86" s="3">
         <v>0</v>
       </c>
-      <c r="J86" s="12" t="str">
+      <c r="J86" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4252,7 +4266,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
+      <c r="A87" s="12"/>
       <c r="B87" s="3" t="s">
         <v>116</v>
       </c>
@@ -4277,7 +4291,7 @@
       <c r="I87" s="3">
         <v>0</v>
       </c>
-      <c r="J87" s="12" t="str">
+      <c r="J87" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4286,7 +4300,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="3" t="s">
         <v>117</v>
       </c>
@@ -4311,7 +4325,7 @@
       <c r="I88" s="3">
         <v>0</v>
       </c>
-      <c r="J88" s="12" t="str">
+      <c r="J88" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4320,7 +4334,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="3" t="s">
         <v>118</v>
       </c>
@@ -4345,7 +4359,7 @@
       <c r="I89" s="3">
         <v>0</v>
       </c>
-      <c r="J89" s="12" t="str">
+      <c r="J89" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4354,7 +4368,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="8">
+      <c r="A90" s="12">
         <v>841</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -4381,7 +4395,7 @@
       <c r="I90" s="3">
         <v>0</v>
       </c>
-      <c r="J90" s="12" t="str">
+      <c r="J90" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4390,7 +4404,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="3" t="s">
         <v>32</v>
       </c>
@@ -4415,7 +4429,7 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="12" t="str">
+      <c r="J91" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4424,7 +4438,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
+      <c r="A92" s="12"/>
       <c r="B92" s="3" t="s">
         <v>210</v>
       </c>
@@ -4449,7 +4463,7 @@
       <c r="I92" s="3">
         <v>0</v>
       </c>
-      <c r="J92" s="12" t="str">
+      <c r="J92" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4458,7 +4472,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
+      <c r="A93" s="12"/>
       <c r="B93" s="3" t="s">
         <v>211</v>
       </c>
@@ -4483,7 +4497,7 @@
       <c r="I93" s="3">
         <v>0</v>
       </c>
-      <c r="J93" s="12" t="str">
+      <c r="J93" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4492,7 +4506,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
+      <c r="A94" s="12"/>
       <c r="B94" s="3" t="s">
         <v>14</v>
       </c>
@@ -4517,7 +4531,7 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="12" t="str">
+      <c r="J94" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4526,7 +4540,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
+      <c r="A95" s="12"/>
       <c r="B95" s="3" t="s">
         <v>33</v>
       </c>
@@ -4551,7 +4565,7 @@
       <c r="I95" s="3">
         <v>0</v>
       </c>
-      <c r="J95" s="12" t="str">
+      <c r="J95" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4560,7 +4574,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
+      <c r="A96" s="12"/>
       <c r="B96" s="3" t="s">
         <v>212</v>
       </c>
@@ -4585,7 +4599,7 @@
       <c r="I96" s="3">
         <v>0</v>
       </c>
-      <c r="J96" s="12" t="str">
+      <c r="J96" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4594,7 +4608,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="3" t="s">
         <v>213</v>
       </c>
@@ -4619,7 +4633,7 @@
       <c r="I97" s="3">
         <v>0</v>
       </c>
-      <c r="J97" s="12" t="str">
+      <c r="J97" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4628,7 +4642,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="8">
+      <c r="A98" s="12">
         <v>842</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -4655,7 +4669,7 @@
       <c r="I98" s="3">
         <v>0</v>
       </c>
-      <c r="J98" s="12" t="str">
+      <c r="J98" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4664,7 +4678,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
+      <c r="A99" s="12"/>
       <c r="B99" s="3" t="s">
         <v>120</v>
       </c>
@@ -4689,7 +4703,7 @@
       <c r="I99" s="3">
         <v>0</v>
       </c>
-      <c r="J99" s="12" t="str">
+      <c r="J99" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4698,7 +4712,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
+      <c r="A100" s="12"/>
       <c r="B100" s="3" t="s">
         <v>121</v>
       </c>
@@ -4723,7 +4737,7 @@
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="12" t="str">
+      <c r="J100" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4732,7 +4746,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
+      <c r="A101" s="12"/>
       <c r="B101" s="3" t="s">
         <v>122</v>
       </c>
@@ -4757,7 +4771,7 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="12" t="str">
+      <c r="J101" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4766,7 +4780,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="8">
+      <c r="A102" s="12">
         <v>843</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -4793,7 +4807,7 @@
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="12" t="str">
+      <c r="J102" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4802,7 +4816,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
+      <c r="A103" s="12"/>
       <c r="B103" s="3" t="s">
         <v>124</v>
       </c>
@@ -4827,7 +4841,7 @@
       <c r="I103" s="3">
         <v>0</v>
       </c>
-      <c r="J103" s="12" t="str">
+      <c r="J103" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4836,7 +4850,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
+      <c r="A104" s="12"/>
       <c r="B104" s="3" t="s">
         <v>214</v>
       </c>
@@ -4861,7 +4875,7 @@
       <c r="I104" s="3">
         <v>0</v>
       </c>
-      <c r="J104" s="12" t="str">
+      <c r="J104" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4870,7 +4884,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
+      <c r="A105" s="12"/>
       <c r="B105" s="3" t="s">
         <v>215</v>
       </c>
@@ -4895,7 +4909,7 @@
       <c r="I105" s="3">
         <v>0</v>
       </c>
-      <c r="J105" s="12" t="str">
+      <c r="J105" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4904,7 +4918,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
+      <c r="A106" s="12"/>
       <c r="B106" s="3" t="s">
         <v>125</v>
       </c>
@@ -4929,7 +4943,7 @@
       <c r="I106" s="3">
         <v>0</v>
       </c>
-      <c r="J106" s="12" t="str">
+      <c r="J106" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4938,7 +4952,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
+      <c r="A107" s="12"/>
       <c r="B107" s="3" t="s">
         <v>126</v>
       </c>
@@ -4963,7 +4977,7 @@
       <c r="I107" s="3">
         <v>0</v>
       </c>
-      <c r="J107" s="12" t="str">
+      <c r="J107" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -4972,7 +4986,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
+      <c r="A108" s="12"/>
       <c r="B108" s="3" t="s">
         <v>216</v>
       </c>
@@ -4997,7 +5011,7 @@
       <c r="I108" s="3">
         <v>0</v>
       </c>
-      <c r="J108" s="12" t="str">
+      <c r="J108" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -5006,7 +5020,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
+      <c r="A109" s="12"/>
       <c r="B109" s="3" t="s">
         <v>217</v>
       </c>
@@ -5031,7 +5045,7 @@
       <c r="I109" s="3">
         <v>0</v>
       </c>
-      <c r="J109" s="12" t="str">
+      <c r="J109" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -5040,7 +5054,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="8">
+      <c r="A110" s="12">
         <v>851</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -5067,7 +5081,7 @@
       <c r="I110" s="3">
         <v>0</v>
       </c>
-      <c r="J110" s="12" t="str">
+      <c r="J110" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -5076,7 +5090,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
+      <c r="A111" s="12"/>
       <c r="B111" s="3" t="s">
         <v>34</v>
       </c>
@@ -5101,7 +5115,7 @@
       <c r="I111" s="3">
         <v>0</v>
       </c>
-      <c r="J111" s="12" t="str">
+      <c r="J111" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -5110,7 +5124,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
+      <c r="A112" s="12"/>
       <c r="B112" s="7" t="s">
         <v>48</v>
       </c>
@@ -5135,7 +5149,7 @@
       <c r="I112" s="7">
         <v>0</v>
       </c>
-      <c r="J112" s="12" t="str">
+      <c r="J112" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -5144,7 +5158,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
+      <c r="A113" s="12"/>
       <c r="B113" s="3" t="s">
         <v>49</v>
       </c>
@@ -5169,7 +5183,7 @@
       <c r="I113" s="3">
         <v>0</v>
       </c>
-      <c r="J113" s="12" t="str">
+      <c r="J113" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -5178,7 +5192,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
+      <c r="A114" s="12"/>
       <c r="B114" s="3" t="s">
         <v>16</v>
       </c>
@@ -5203,7 +5217,7 @@
       <c r="I114" s="3">
         <v>0</v>
       </c>
-      <c r="J114" s="12" t="str">
+      <c r="J114" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -5212,7 +5226,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
+      <c r="A115" s="12"/>
       <c r="B115" s="3" t="s">
         <v>35</v>
       </c>
@@ -5237,7 +5251,7 @@
       <c r="I115" s="3">
         <v>0</v>
       </c>
-      <c r="J115" s="12" t="str">
+      <c r="J115" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -5246,7 +5260,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
+      <c r="A116" s="12"/>
       <c r="B116" s="3" t="s">
         <v>50</v>
       </c>
@@ -5271,7 +5285,7 @@
       <c r="I116" s="3">
         <v>0</v>
       </c>
-      <c r="J116" s="12" t="str">
+      <c r="J116" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
@@ -5280,7 +5294,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
+      <c r="A117" s="12"/>
       <c r="B117" s="3" t="s">
         <v>51</v>
       </c>
@@ -5305,8 +5319,8 @@
       <c r="I117" s="3">
         <v>0</v>
       </c>
-      <c r="J117" s="12" t="str">
-        <f t="shared" ref="J117:J189" si="2">IF(SUM(F117:I117)=E117, "Valid", "Error")</f>
+      <c r="J117" s="11" t="str">
+        <f t="shared" ref="J117:J191" si="2">IF(SUM(F117:I117)=E117, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
       <c r="K117" s="6" t="s">
@@ -5314,7 +5328,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
+      <c r="A118" s="12"/>
       <c r="B118" s="3" t="s">
         <v>17</v>
       </c>
@@ -5339,7 +5353,7 @@
       <c r="I118" s="3">
         <v>0</v>
       </c>
-      <c r="J118" s="12" t="str">
+      <c r="J118" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5348,7 +5362,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
+      <c r="A119" s="12"/>
       <c r="B119" s="3" t="s">
         <v>36</v>
       </c>
@@ -5373,7 +5387,7 @@
       <c r="I119" s="3">
         <v>0</v>
       </c>
-      <c r="J119" s="12" t="str">
+      <c r="J119" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5382,7 +5396,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
+      <c r="A120" s="12"/>
       <c r="B120" s="3" t="s">
         <v>52</v>
       </c>
@@ -5407,7 +5421,7 @@
       <c r="I120" s="3">
         <v>0</v>
       </c>
-      <c r="J120" s="12" t="str">
+      <c r="J120" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5416,7 +5430,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
+      <c r="A121" s="12"/>
       <c r="B121" s="3" t="s">
         <v>53</v>
       </c>
@@ -5441,7 +5455,7 @@
       <c r="I121" s="3">
         <v>0</v>
       </c>
-      <c r="J121" s="12" t="str">
+      <c r="J121" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5450,7 +5464,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
+      <c r="A122" s="12"/>
       <c r="B122" s="3" t="s">
         <v>18</v>
       </c>
@@ -5475,7 +5489,7 @@
       <c r="I122" s="3">
         <v>0</v>
       </c>
-      <c r="J122" s="12" t="str">
+      <c r="J122" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5484,7 +5498,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
+      <c r="A123" s="12"/>
       <c r="B123" s="3" t="s">
         <v>37</v>
       </c>
@@ -5509,7 +5523,7 @@
       <c r="I123" s="3">
         <v>0</v>
       </c>
-      <c r="J123" s="12" t="str">
+      <c r="J123" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5518,7 +5532,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
+      <c r="A124" s="12"/>
       <c r="B124" s="3" t="s">
         <v>54</v>
       </c>
@@ -5543,7 +5557,7 @@
       <c r="I124" s="3">
         <v>0</v>
       </c>
-      <c r="J124" s="12" t="str">
+      <c r="J124" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5552,7 +5566,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
+      <c r="A125" s="12"/>
       <c r="B125" s="3" t="s">
         <v>55</v>
       </c>
@@ -5577,7 +5591,7 @@
       <c r="I125" s="3">
         <v>0</v>
       </c>
-      <c r="J125" s="12" t="str">
+      <c r="J125" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5586,7 +5600,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="8">
+      <c r="A126" s="12">
         <v>852</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -5613,7 +5627,7 @@
       <c r="I126" s="3">
         <v>0</v>
       </c>
-      <c r="J126" s="12" t="str">
+      <c r="J126" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5622,7 +5636,7 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
+      <c r="A127" s="12"/>
       <c r="B127" s="3" t="s">
         <v>128</v>
       </c>
@@ -5647,7 +5661,7 @@
       <c r="I127" s="3">
         <v>0</v>
       </c>
-      <c r="J127" s="12" t="str">
+      <c r="J127" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5656,7 +5670,7 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
+      <c r="A128" s="12"/>
       <c r="B128" s="3" t="s">
         <v>129</v>
       </c>
@@ -5681,7 +5695,7 @@
       <c r="I128" s="3">
         <v>0</v>
       </c>
-      <c r="J128" s="12" t="str">
+      <c r="J128" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5690,7 +5704,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
+      <c r="A129" s="12"/>
       <c r="B129" s="3" t="s">
         <v>130</v>
       </c>
@@ -5715,7 +5729,7 @@
       <c r="I129" s="3">
         <v>0</v>
       </c>
-      <c r="J129" s="12" t="str">
+      <c r="J129" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5724,7 +5738,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
+      <c r="A130" s="12"/>
       <c r="B130" s="3" t="s">
         <v>131</v>
       </c>
@@ -5749,7 +5763,7 @@
       <c r="I130" s="3">
         <v>0</v>
       </c>
-      <c r="J130" s="12" t="str">
+      <c r="J130" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5758,7 +5772,7 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="8"/>
+      <c r="A131" s="12"/>
       <c r="B131" s="3" t="s">
         <v>132</v>
       </c>
@@ -5783,7 +5797,7 @@
       <c r="I131" s="3">
         <v>0</v>
       </c>
-      <c r="J131" s="12" t="str">
+      <c r="J131" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5792,7 +5806,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="8"/>
+      <c r="A132" s="12"/>
       <c r="B132" s="3" t="s">
         <v>133</v>
       </c>
@@ -5817,7 +5831,7 @@
       <c r="I132" s="3">
         <v>0</v>
       </c>
-      <c r="J132" s="12" t="str">
+      <c r="J132" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5826,7 +5840,7 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="8"/>
+      <c r="A133" s="12"/>
       <c r="B133" s="3" t="s">
         <v>134</v>
       </c>
@@ -5851,7 +5865,7 @@
       <c r="I133" s="3">
         <v>0</v>
       </c>
-      <c r="J133" s="12" t="str">
+      <c r="J133" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5860,7 +5874,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="8">
+      <c r="A134" s="12">
         <v>853</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -5887,7 +5901,7 @@
       <c r="I134" s="3">
         <v>0</v>
       </c>
-      <c r="J134" s="12" t="str">
+      <c r="J134" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5896,7 +5910,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
+      <c r="A135" s="12"/>
       <c r="B135" s="3" t="s">
         <v>136</v>
       </c>
@@ -5921,7 +5935,7 @@
       <c r="I135" s="3">
         <v>0</v>
       </c>
-      <c r="J135" s="12" t="str">
+      <c r="J135" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5930,7 +5944,7 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="8"/>
+      <c r="A136" s="12"/>
       <c r="B136" s="3" t="s">
         <v>137</v>
       </c>
@@ -5955,7 +5969,7 @@
       <c r="I136" s="3">
         <v>0</v>
       </c>
-      <c r="J136" s="12" t="str">
+      <c r="J136" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5964,7 +5978,7 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="8"/>
+      <c r="A137" s="12"/>
       <c r="B137" s="3" t="s">
         <v>138</v>
       </c>
@@ -5989,7 +6003,7 @@
       <c r="I137" s="3">
         <v>0</v>
       </c>
-      <c r="J137" s="12" t="str">
+      <c r="J137" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -5998,7 +6012,7 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
+      <c r="A138" s="12"/>
       <c r="B138" s="3" t="s">
         <v>139</v>
       </c>
@@ -6023,7 +6037,7 @@
       <c r="I138" s="3">
         <v>0</v>
       </c>
-      <c r="J138" s="12" t="str">
+      <c r="J138" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6032,7 +6046,7 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
+      <c r="A139" s="12"/>
       <c r="B139" s="3" t="s">
         <v>140</v>
       </c>
@@ -6057,7 +6071,7 @@
       <c r="I139" s="3">
         <v>0</v>
       </c>
-      <c r="J139" s="12" t="str">
+      <c r="J139" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6066,7 +6080,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
+      <c r="A140" s="12"/>
       <c r="B140" s="3" t="s">
         <v>141</v>
       </c>
@@ -6091,7 +6105,7 @@
       <c r="I140" s="3">
         <v>0</v>
       </c>
-      <c r="J140" s="12" t="str">
+      <c r="J140" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6100,7 +6114,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="8"/>
+      <c r="A141" s="12"/>
       <c r="B141" s="3" t="s">
         <v>142</v>
       </c>
@@ -6125,7 +6139,7 @@
       <c r="I141" s="3">
         <v>0</v>
       </c>
-      <c r="J141" s="12" t="str">
+      <c r="J141" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6134,7 +6148,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
+      <c r="A142" s="12"/>
       <c r="B142" s="3" t="s">
         <v>143</v>
       </c>
@@ -6159,7 +6173,7 @@
       <c r="I142" s="3">
         <v>0</v>
       </c>
-      <c r="J142" s="12" t="str">
+      <c r="J142" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6168,7 +6182,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
+      <c r="A143" s="12"/>
       <c r="B143" s="3" t="s">
         <v>144</v>
       </c>
@@ -6193,7 +6207,7 @@
       <c r="I143" s="3">
         <v>0</v>
       </c>
-      <c r="J143" s="12" t="str">
+      <c r="J143" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6202,7 +6216,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
+      <c r="A144" s="12"/>
       <c r="B144" s="3" t="s">
         <v>145</v>
       </c>
@@ -6227,7 +6241,7 @@
       <c r="I144" s="3">
         <v>0</v>
       </c>
-      <c r="J144" s="12" t="str">
+      <c r="J144" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6236,7 +6250,7 @@
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
+      <c r="A145" s="12"/>
       <c r="B145" s="3" t="s">
         <v>146</v>
       </c>
@@ -6261,7 +6275,7 @@
       <c r="I145" s="3">
         <v>0</v>
       </c>
-      <c r="J145" s="12" t="str">
+      <c r="J145" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6270,7 +6284,7 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
+      <c r="A146" s="12"/>
       <c r="B146" s="3" t="s">
         <v>147</v>
       </c>
@@ -6295,7 +6309,7 @@
       <c r="I146" s="3">
         <v>0</v>
       </c>
-      <c r="J146" s="12" t="str">
+      <c r="J146" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6304,7 +6318,7 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="8"/>
+      <c r="A147" s="12"/>
       <c r="B147" s="3" t="s">
         <v>148</v>
       </c>
@@ -6329,7 +6343,7 @@
       <c r="I147" s="3">
         <v>0</v>
       </c>
-      <c r="J147" s="12" t="str">
+      <c r="J147" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6338,7 +6352,7 @@
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="8"/>
+      <c r="A148" s="12"/>
       <c r="B148" s="3" t="s">
         <v>149</v>
       </c>
@@ -6363,7 +6377,7 @@
       <c r="I148" s="3">
         <v>0</v>
       </c>
-      <c r="J148" s="12" t="str">
+      <c r="J148" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6372,7 +6386,7 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="8"/>
+      <c r="A149" s="12"/>
       <c r="B149" s="3" t="s">
         <v>150</v>
       </c>
@@ -6397,7 +6411,7 @@
       <c r="I149" s="3">
         <v>0</v>
       </c>
-      <c r="J149" s="12" t="str">
+      <c r="J149" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6406,7 +6420,7 @@
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="8">
+      <c r="A150" s="12">
         <v>861</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -6433,7 +6447,7 @@
       <c r="I150" s="3">
         <v>0</v>
       </c>
-      <c r="J150" s="12" t="str">
+      <c r="J150" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6442,7 +6456,7 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="8"/>
+      <c r="A151" s="12"/>
       <c r="B151" s="3" t="s">
         <v>38</v>
       </c>
@@ -6467,7 +6481,7 @@
       <c r="I151" s="3">
         <v>0</v>
       </c>
-      <c r="J151" s="12" t="str">
+      <c r="J151" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6476,7 +6490,7 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="8"/>
+      <c r="A152" s="12"/>
       <c r="B152" s="3" t="s">
         <v>246</v>
       </c>
@@ -6501,7 +6515,7 @@
       <c r="I152" s="3">
         <v>0</v>
       </c>
-      <c r="J152" s="12" t="str">
+      <c r="J152" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6510,7 +6524,7 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="8"/>
+      <c r="A153" s="12"/>
       <c r="B153" s="3" t="s">
         <v>247</v>
       </c>
@@ -6535,7 +6549,7 @@
       <c r="I153" s="3">
         <v>0</v>
       </c>
-      <c r="J153" s="12" t="str">
+      <c r="J153" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6544,7 +6558,7 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="8"/>
+      <c r="A154" s="12"/>
       <c r="B154" s="7" t="s">
         <v>20</v>
       </c>
@@ -6569,7 +6583,7 @@
       <c r="I154" s="7">
         <v>0</v>
       </c>
-      <c r="J154" s="12" t="str">
+      <c r="J154" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6578,7 +6592,7 @@
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="8"/>
+      <c r="A155" s="12"/>
       <c r="B155" s="7" t="s">
         <v>39</v>
       </c>
@@ -6603,7 +6617,7 @@
       <c r="I155" s="7">
         <v>0</v>
       </c>
-      <c r="J155" s="12" t="str">
+      <c r="J155" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6612,7 +6626,7 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
+      <c r="A156" s="12"/>
       <c r="B156" s="3" t="s">
         <v>248</v>
       </c>
@@ -6637,7 +6651,7 @@
       <c r="I156" s="3">
         <v>0</v>
       </c>
-      <c r="J156" s="12" t="str">
+      <c r="J156" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6646,7 +6660,7 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="8"/>
+      <c r="A157" s="12"/>
       <c r="B157" s="3" t="s">
         <v>249</v>
       </c>
@@ -6671,7 +6685,7 @@
       <c r="I157" s="3">
         <v>0</v>
       </c>
-      <c r="J157" s="12" t="str">
+      <c r="J157" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6680,7 +6694,7 @@
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="8">
+      <c r="A158" s="12">
         <v>862</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -6707,7 +6721,7 @@
       <c r="I158" s="3">
         <v>0</v>
       </c>
-      <c r="J158" s="12" t="str">
+      <c r="J158" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6716,7 +6730,7 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="8"/>
+      <c r="A159" s="12"/>
       <c r="B159" s="3" t="s">
         <v>152</v>
       </c>
@@ -6741,7 +6755,7 @@
       <c r="I159" s="3">
         <v>0</v>
       </c>
-      <c r="J159" s="12" t="str">
+      <c r="J159" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6750,7 +6764,7 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="8"/>
+      <c r="A160" s="12"/>
       <c r="B160" s="3" t="s">
         <v>153</v>
       </c>
@@ -6775,7 +6789,7 @@
       <c r="I160" s="3">
         <v>0</v>
       </c>
-      <c r="J160" s="12" t="str">
+      <c r="J160" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6784,7 +6798,7 @@
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="8"/>
+      <c r="A161" s="12"/>
       <c r="B161" s="3" t="s">
         <v>154</v>
       </c>
@@ -6809,7 +6823,7 @@
       <c r="I161" s="3">
         <v>0</v>
       </c>
-      <c r="J161" s="12" t="str">
+      <c r="J161" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6818,7 +6832,7 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="8">
+      <c r="A162" s="12">
         <v>863</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -6845,7 +6859,7 @@
       <c r="I162" s="3">
         <v>0</v>
       </c>
-      <c r="J162" s="12" t="str">
+      <c r="J162" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6854,7 +6868,7 @@
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
+      <c r="A163" s="12"/>
       <c r="B163" s="3" t="s">
         <v>156</v>
       </c>
@@ -6879,7 +6893,7 @@
       <c r="I163" s="3">
         <v>0</v>
       </c>
-      <c r="J163" s="12" t="str">
+      <c r="J163" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6888,7 +6902,7 @@
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="8"/>
+      <c r="A164" s="12"/>
       <c r="B164" s="3" t="s">
         <v>250</v>
       </c>
@@ -6913,7 +6927,7 @@
       <c r="I164" s="3">
         <v>0</v>
       </c>
-      <c r="J164" s="12" t="str">
+      <c r="J164" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6922,7 +6936,7 @@
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="8"/>
+      <c r="A165" s="12"/>
       <c r="B165" s="3" t="s">
         <v>251</v>
       </c>
@@ -6947,7 +6961,7 @@
       <c r="I165" s="3">
         <v>0</v>
       </c>
-      <c r="J165" s="12" t="str">
+      <c r="J165" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6956,7 +6970,7 @@
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="8"/>
+      <c r="A166" s="12"/>
       <c r="B166" s="3" t="s">
         <v>157</v>
       </c>
@@ -6981,7 +6995,7 @@
       <c r="I166" s="3">
         <v>0</v>
       </c>
-      <c r="J166" s="12" t="str">
+      <c r="J166" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -6990,7 +7004,7 @@
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="8"/>
+      <c r="A167" s="12"/>
       <c r="B167" s="7" t="s">
         <v>158</v>
       </c>
@@ -7015,7 +7029,7 @@
       <c r="I167" s="7">
         <v>0</v>
       </c>
-      <c r="J167" s="12" t="str">
+      <c r="J167" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7024,7 +7038,7 @@
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="8"/>
+      <c r="A168" s="12"/>
       <c r="B168" s="7" t="s">
         <v>252</v>
       </c>
@@ -7049,7 +7063,7 @@
       <c r="I168" s="7">
         <v>0</v>
       </c>
-      <c r="J168" s="12" t="str">
+      <c r="J168" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7058,7 +7072,7 @@
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="8"/>
+      <c r="A169" s="12"/>
       <c r="B169" s="3" t="s">
         <v>253</v>
       </c>
@@ -7083,7 +7097,7 @@
       <c r="I169" s="3">
         <v>0</v>
       </c>
-      <c r="J169" s="12" t="str">
+      <c r="J169" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7092,7 +7106,7 @@
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="8">
+      <c r="A170" s="12">
         <v>871</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -7119,7 +7133,7 @@
       <c r="I170" s="3">
         <v>0</v>
       </c>
-      <c r="J170" s="12" t="str">
+      <c r="J170" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7128,7 +7142,7 @@
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="8"/>
+      <c r="A171" s="12"/>
       <c r="B171" s="3" t="s">
         <v>2</v>
       </c>
@@ -7153,7 +7167,7 @@
       <c r="I171" s="3">
         <v>0</v>
       </c>
-      <c r="J171" s="12" t="str">
+      <c r="J171" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7162,7 +7176,7 @@
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="8"/>
+      <c r="A172" s="12"/>
       <c r="B172" s="3" t="s">
         <v>56</v>
       </c>
@@ -7187,7 +7201,7 @@
       <c r="I172" s="3">
         <v>0</v>
       </c>
-      <c r="J172" s="12" t="str">
+      <c r="J172" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7196,7 +7210,7 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="8"/>
+      <c r="A173" s="12"/>
       <c r="B173" s="3" t="s">
         <v>57</v>
       </c>
@@ -7221,7 +7235,7 @@
       <c r="I173" s="3">
         <v>0</v>
       </c>
-      <c r="J173" s="12" t="str">
+      <c r="J173" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7230,7 +7244,7 @@
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="8">
+      <c r="A174" s="12">
         <v>872</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -7257,7 +7271,7 @@
       <c r="I174" s="3">
         <v>0</v>
       </c>
-      <c r="J174" s="12" t="str">
+      <c r="J174" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7266,7 +7280,7 @@
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="8"/>
+      <c r="A175" s="12"/>
       <c r="B175" s="3" t="s">
         <v>160</v>
       </c>
@@ -7291,7 +7305,7 @@
       <c r="I175" s="3">
         <v>0</v>
       </c>
-      <c r="J175" s="12" t="str">
+      <c r="J175" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7300,7 +7314,7 @@
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="8">
+      <c r="A176" s="12">
         <v>873</v>
       </c>
       <c r="B176" s="3" t="s">
@@ -7327,7 +7341,7 @@
       <c r="I176" s="3">
         <v>0</v>
       </c>
-      <c r="J176" s="12" t="str">
+      <c r="J176" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7335,8 +7349,8 @@
         <v>270</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="8"/>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="12"/>
       <c r="B177" s="3" t="s">
         <v>162</v>
       </c>
@@ -7361,7 +7375,7 @@
       <c r="I177" s="3">
         <v>0</v>
       </c>
-      <c r="J177" s="12" t="str">
+      <c r="J177" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7369,8 +7383,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="8"/>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="12"/>
       <c r="B178" s="3" t="s">
         <v>163</v>
       </c>
@@ -7395,7 +7409,7 @@
       <c r="I178" s="3">
         <v>0</v>
       </c>
-      <c r="J178" s="12" t="str">
+      <c r="J178" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7403,8 +7417,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="8"/>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="12"/>
       <c r="B179" s="3" t="s">
         <v>164</v>
       </c>
@@ -7429,7 +7443,7 @@
       <c r="I179" s="3">
         <v>0</v>
       </c>
-      <c r="J179" s="12" t="str">
+      <c r="J179" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7437,9 +7451,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
-      <c r="B180" s="11"/>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="9"/>
+      <c r="B180" s="10"/>
       <c r="C180" s="13" t="s">
         <v>275</v>
       </c>
@@ -7449,10 +7463,10 @@
       <c r="G180" s="13"/>
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
-      <c r="J180" s="9"/>
-      <c r="K180" s="9"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J180" s="8"/>
+      <c r="K180" s="8"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>0</v>
       </c>
@@ -7480,7 +7494,7 @@
       <c r="I181" s="3">
         <v>0</v>
       </c>
-      <c r="J181" s="12" t="str">
+      <c r="J181" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7488,7 +7502,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>101</v>
       </c>
@@ -7516,7 +7530,7 @@
       <c r="I182" s="3">
         <v>0</v>
       </c>
-      <c r="J182" s="12" t="str">
+      <c r="J182" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7524,7 +7538,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>102</v>
       </c>
@@ -7552,7 +7566,7 @@
       <c r="I183" s="3">
         <v>0</v>
       </c>
-      <c r="J183" s="12" t="str">
+      <c r="J183" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7560,7 +7574,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>103</v>
       </c>
@@ -7588,7 +7602,7 @@
       <c r="I184" s="3">
         <v>0</v>
       </c>
-      <c r="J184" s="12" t="str">
+      <c r="J184" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7596,7 +7610,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>104</v>
       </c>
@@ -7624,7 +7638,7 @@
       <c r="I185" s="3">
         <v>0</v>
       </c>
-      <c r="J185" s="12" t="str">
+      <c r="J185" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7632,7 +7646,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>105</v>
       </c>
@@ -7660,7 +7674,7 @@
       <c r="I186" s="3">
         <v>0</v>
       </c>
-      <c r="J186" s="12" t="str">
+      <c r="J186" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7668,7 +7682,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>106</v>
       </c>
@@ -7696,7 +7710,7 @@
       <c r="I187" s="3">
         <v>0</v>
       </c>
-      <c r="J187" s="12" t="str">
+      <c r="J187" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7704,7 +7718,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>107</v>
       </c>
@@ -7732,7 +7746,7 @@
       <c r="I188" s="3">
         <v>0</v>
       </c>
-      <c r="J188" s="12" t="str">
+      <c r="J188" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7740,7 +7754,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>108</v>
       </c>
@@ -7768,7 +7782,7 @@
       <c r="I189" s="3">
         <v>0</v>
       </c>
-      <c r="J189" s="12" t="str">
+      <c r="J189" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
       </c>
@@ -7776,119 +7790,148 @@
         <v>271</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>109</v>
       </c>
       <c r="B190" s="3">
         <v>109</v>
       </c>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
+      <c r="C190" s="3">
+        <v>841</v>
+      </c>
+      <c r="D190" s="3">
+        <v>10171</v>
+      </c>
+      <c r="E190" s="3">
+        <v>841</v>
+      </c>
+      <c r="F190" s="3">
+        <v>282</v>
+      </c>
+      <c r="G190" s="3">
+        <v>559</v>
+      </c>
       <c r="H190" s="3">
         <v>0</v>
       </c>
       <c r="I190" s="3">
         <v>0</v>
       </c>
-      <c r="J190" s="12"/>
+      <c r="J190" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
       <c r="K190" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>110</v>
       </c>
       <c r="B191" s="3">
         <v>110</v>
       </c>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
+      <c r="C191" s="3">
+        <v>833</v>
+      </c>
+      <c r="D191" s="3">
+        <v>10146</v>
+      </c>
+      <c r="E191" s="3">
+        <v>833</v>
+      </c>
+      <c r="F191" s="3">
+        <v>278</v>
+      </c>
+      <c r="G191" s="3">
+        <v>555</v>
+      </c>
       <c r="H191" s="3">
         <v>0</v>
       </c>
       <c r="I191" s="3">
         <v>0</v>
       </c>
-      <c r="J191" s="12"/>
+      <c r="J191" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
       <c r="K191" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+    <row r="192" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="14">
         <f>COUNTA(A2:A191)</f>
         <v>32</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="14">
         <f>COUNTA(B2:B191)</f>
         <v>189</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="14">
         <f>SUM(C2:C191)</f>
-        <v>140111</v>
-      </c>
-      <c r="D192" s="3">
+        <v>141785</v>
+      </c>
+      <c r="D192" s="14">
         <f t="shared" ref="D192:I192" si="3">SUM(D2:D191)</f>
-        <v>1531725</v>
-      </c>
-      <c r="E192" s="3">
+        <v>1552042</v>
+      </c>
+      <c r="E192" s="14">
         <f t="shared" si="3"/>
-        <v>140111</v>
-      </c>
-      <c r="F192" s="3">
+        <v>141785</v>
+      </c>
+      <c r="F192" s="14">
         <f t="shared" si="3"/>
-        <v>67089</v>
-      </c>
-      <c r="G192" s="3">
+        <v>67649</v>
+      </c>
+      <c r="G192" s="14">
         <f t="shared" si="3"/>
-        <v>55742</v>
-      </c>
-      <c r="H192" s="3">
+        <v>56856</v>
+      </c>
+      <c r="H192" s="14">
         <f t="shared" si="3"/>
         <v>16555</v>
       </c>
-      <c r="I192" s="3">
+      <c r="I192" s="14">
         <f t="shared" si="3"/>
         <v>725</v>
       </c>
-      <c r="J192" s="8" t="s">
+      <c r="J192" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K192" s="8"/>
+      <c r="K192" s="15"/>
+      <c r="L192" s="14" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C180:I180"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="A110:A125"/>
+    <mergeCell ref="A126:A133"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="A74:A89"/>
+    <mergeCell ref="A90:A97"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A73"/>
-    <mergeCell ref="A74:A89"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="A110:A125"/>
-    <mergeCell ref="A126:A133"/>
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="J192:K192"/>
     <mergeCell ref="A134:A149"/>
     <mergeCell ref="A150:A157"/>
     <mergeCell ref="A162:A169"/>
     <mergeCell ref="A170:A173"/>
     <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="J192:K192"/>
+    <mergeCell ref="C180:I180"/>
+    <mergeCell ref="A158:A161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
